--- a/xlsx/alpha.xlsx
+++ b/xlsx/alpha.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\code\hrrk-plate\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/code/hrbc-plate/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61A0C8F-E389-6649-9395-90ED012CA7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rectangular_cubic" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,17 @@
     <sheet name="cylinder_penalty" sheetId="5" r:id="rId5"/>
     <sheet name="cylinder_nitsche" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -38,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -415,14 +426,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -632,14 +643,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -850,14 +861,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1016,14 +1027,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2">
@@ -1169,914 +1180,914 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1">
-        <v>-1.9232517420485944</v>
+        <v>-2.3728182579430457</v>
       </c>
       <c r="B1">
-        <v>-2.3750426162318696</v>
+        <v>-2.7247968615882523</v>
       </c>
       <c r="C1">
-        <v>-3.2514391552386286</v>
+        <v>-3.5096417852181885</v>
       </c>
       <c r="D1">
-        <v>-4.271696430886694</v>
+        <v>-4.524547456365156</v>
       </c>
       <c r="E1">
-        <v>-4.519663909812552</v>
+        <v>-5.236615155751848</v>
       </c>
       <c r="F1">
-        <v>-4.49241237091518</v>
+        <v>-5.121753538395274</v>
       </c>
       <c r="G1">
-        <v>-4.489269157641182</v>
+        <v>-5.105595361586916</v>
       </c>
       <c r="H1">
-        <v>-4.486645205466899</v>
+        <v>-5.105004864637717</v>
       </c>
       <c r="I1">
-        <v>-4.495110812003123</v>
+        <v>-5.070583179786443</v>
       </c>
       <c r="J1">
-        <v>-4.416733557143784</v>
+        <v>-4.233806826239331</v>
       </c>
       <c r="K1">
-        <v>-3.74323244007775</v>
+        <v>-3.6080571063091686</v>
       </c>
       <c r="L1">
-        <v>-2.7456877743829757</v>
+        <v>-2.769165786497492</v>
       </c>
       <c r="M1">
-        <v>-1.825644804206616</v>
+        <v>-2.535812812417017</v>
       </c>
       <c r="N1">
-        <v>-0.38295892899319084</v>
+        <v>-1.503181949052866</v>
       </c>
       <c r="O1">
-        <v>-0.0348849971625342</v>
+        <v>-0.7257929770359536</v>
       </c>
       <c r="P1">
-        <v>-0.1259723551518487</v>
+        <v>-0.5747221672479451</v>
       </c>
       <c r="Q1">
-        <v>-0.20059325237532005</v>
+        <v>-0.03735047852193131</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2">
-        <v>-2.137918643934081</v>
+        <v>-2.427168055164068</v>
       </c>
       <c r="B2">
-        <v>-2.553615666473154</v>
+        <v>-2.7734369588314385</v>
       </c>
       <c r="C2">
-        <v>-3.417347353764782</v>
+        <v>-3.545868948114052</v>
       </c>
       <c r="D2">
-        <v>-4.475941235614511</v>
+        <v>-4.5273635873104014</v>
       </c>
       <c r="E2">
-        <v>-4.5343272533454195</v>
+        <v>-5.261163948008953</v>
       </c>
       <c r="F2">
-        <v>-4.503286724734788</v>
+        <v>-5.152656155278282</v>
       </c>
       <c r="G2">
-        <v>-4.500127512137553</v>
+        <v>-5.124201787360092</v>
       </c>
       <c r="H2">
-        <v>-4.499118539622139</v>
+        <v>-5.117574569887199</v>
       </c>
       <c r="I2">
-        <v>-4.500043397013204</v>
+        <v>-5.105219881470287</v>
       </c>
       <c r="J2">
-        <v>-4.404610995426388</v>
+        <v>-3.018405769364046</v>
       </c>
       <c r="K2">
-        <v>-3.890047557834302</v>
+        <v>-2.929130543782834</v>
       </c>
       <c r="L2">
-        <v>-3.3829131303937925</v>
+        <v>-2.6990764728213223</v>
       </c>
       <c r="M2">
-        <v>-2.7347638963152168</v>
+        <v>-2.4855523180408188</v>
       </c>
       <c r="N2">
-        <v>-1.167430227670572</v>
+        <v>-2.15777318482833</v>
       </c>
       <c r="O2">
-        <v>0.01938105570089648</v>
+        <v>-1.3652297616571727</v>
       </c>
       <c r="P2">
-        <v>-0.04459995080857875</v>
+        <v>-0.42151702246394607</v>
       </c>
       <c r="Q2">
-        <v>-0.31775808408841194</v>
+        <v>-0.17860939334226625</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
-        <v>-2.2761718722790687</v>
+        <v>-2.5941034076214895</v>
       </c>
       <c r="B3">
-        <v>-2.6525392546137314</v>
+        <v>-2.9230589458012957</v>
       </c>
       <c r="C3">
-        <v>-3.493052493942841</v>
+        <v>-3.6893972963108443</v>
       </c>
       <c r="D3">
-        <v>-4.581624351666402</v>
+        <v>-4.625115522922803</v>
       </c>
       <c r="E3">
-        <v>-4.53574695563238</v>
+        <v>-5.310826647798432</v>
       </c>
       <c r="F3">
-        <v>-4.503790732498336</v>
+        <v>-5.258555233523648</v>
       </c>
       <c r="G3">
-        <v>-4.50057386115695</v>
+        <v>-5.236250787235305</v>
       </c>
       <c r="H3">
-        <v>-4.499552752474691</v>
+        <v>-5.22361583501253</v>
       </c>
       <c r="I3">
-        <v>-4.504488128029378</v>
+        <v>-5.214621086483849</v>
       </c>
       <c r="J3">
-        <v>-4.455387799896027</v>
+        <v>-2.9992889804091534</v>
       </c>
       <c r="K3">
-        <v>-3.953794368826607</v>
+        <v>-2.886588407463337</v>
       </c>
       <c r="L3">
-        <v>-3.6323369442188187</v>
+        <v>-2.608145877719278</v>
       </c>
       <c r="M3">
-        <v>-2.554595978935514</v>
+        <v>-2.3321732438372935</v>
       </c>
       <c r="N3">
-        <v>-1.1395952762931785</v>
+        <v>-1.9641921014786567</v>
       </c>
       <c r="O3">
-        <v>0.09420299935090293</v>
+        <v>-1.368415782956606</v>
       </c>
       <c r="P3">
-        <v>0.2071606384065482</v>
+        <v>-0.3642394040479844</v>
       </c>
       <c r="Q3">
-        <v>-0.30570165331477966</v>
+        <v>0.3236177721430523</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4">
-        <v>-2.338946138177926</v>
+        <v>-2.6973303276797838</v>
       </c>
       <c r="B4">
-        <v>-2.696500060511706</v>
+        <v>-3.0175358881504772</v>
       </c>
       <c r="C4">
-        <v>-3.5143792894936277</v>
+        <v>-3.783716988300144</v>
       </c>
       <c r="D4">
-        <v>-4.6032535586319066</v>
+        <v>-4.714483190710958</v>
       </c>
       <c r="E4">
-        <v>-4.535813100094471</v>
+        <v>-5.427801431330906</v>
       </c>
       <c r="F4">
-        <v>-4.503832110794898</v>
+        <v>-5.446235287638318</v>
       </c>
       <c r="G4">
-        <v>-4.500693649668789</v>
+        <v>-5.437481920318082</v>
       </c>
       <c r="H4">
-        <v>-4.499471952689529</v>
+        <v>-5.42750605054707</v>
       </c>
       <c r="I4">
-        <v>-4.507368328660489</v>
+        <v>-5.409193074376537</v>
       </c>
       <c r="J4">
-        <v>-4.457805344079898</v>
+        <v>-2.995954519879538</v>
       </c>
       <c r="K4">
-        <v>-3.9566567541311897</v>
+        <v>-2.8732271463611228</v>
       </c>
       <c r="L4">
-        <v>-3.939784350215308</v>
+        <v>-2.563792791952487</v>
       </c>
       <c r="M4">
-        <v>-2.90954878473263</v>
+        <v>-2.2546043145364005</v>
       </c>
       <c r="N4">
-        <v>-0.894716257483434</v>
+        <v>-2.0643599120605662</v>
       </c>
       <c r="O4">
-        <v>-0.31859464921102587</v>
+        <v>-1.8573092545738736</v>
       </c>
       <c r="P4">
-        <v>1.8861844459887405</v>
+        <v>-0.757683723246379</v>
       </c>
       <c r="Q4">
-        <v>-0.21282255806780634</v>
+        <v>0.002330826201126562</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
-        <v>-2.360356740545781</v>
+        <v>-2.715610148351467</v>
       </c>
       <c r="B5">
-        <v>-2.7147243482885126</v>
+        <v>-3.037779673791536</v>
       </c>
       <c r="C5">
-        <v>-3.5221105326206743</v>
+        <v>-3.8031895691945157</v>
       </c>
       <c r="D5">
-        <v>-4.602521282819782</v>
+        <v>-4.741610350340229</v>
       </c>
       <c r="E5">
-        <v>-4.535727488251638</v>
+        <v>-5.423317352118077</v>
       </c>
       <c r="F5">
-        <v>-4.503857212145084</v>
+        <v>-5.455691922059557</v>
       </c>
       <c r="G5">
-        <v>-4.500705241392873</v>
+        <v>-5.4511878992088</v>
       </c>
       <c r="H5">
-        <v>-4.4995753675170835</v>
+        <v>-5.447962027819051</v>
       </c>
       <c r="I5">
-        <v>-4.501846141491555</v>
+        <v>-5.4342197869644</v>
       </c>
       <c r="J5">
-        <v>-4.440718129012249</v>
+        <v>-2.9938879374576066</v>
       </c>
       <c r="K5">
-        <v>-3.849881111205412</v>
+        <v>-2.8645276294970836</v>
       </c>
       <c r="L5">
-        <v>-3.427429278419805</v>
+        <v>-2.5420009281270164</v>
       </c>
       <c r="M5">
-        <v>-2.912154411322979</v>
+        <v>-2.2155777717746923</v>
       </c>
       <c r="N5">
-        <v>-1.2113786779519038</v>
+        <v>-1.95177946081979</v>
       </c>
       <c r="O5">
-        <v>-0.37381734411688994</v>
+        <v>-1.7370654273867425</v>
       </c>
       <c r="P5">
-        <v>0.7229445470989031</v>
+        <v>0.042394939557187546</v>
       </c>
       <c r="Q5">
-        <v>-0.2728293207421742</v>
+        <v>0.3848170994554271</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
-        <v>-2.3658008672841517</v>
+        <v>-2.7188633898930186</v>
       </c>
       <c r="B6">
-        <v>-2.7205688042192966</v>
+        <v>-3.041799549128738</v>
       </c>
       <c r="C6">
-        <v>-3.5265519314638993</v>
+        <v>-3.8066124499556087</v>
       </c>
       <c r="D6">
-        <v>-4.600419389537108</v>
+        <v>-4.751176953821824</v>
       </c>
       <c r="E6">
-        <v>-4.53600680122093</v>
+        <v>-5.4190209867970545</v>
       </c>
       <c r="F6">
-        <v>-4.5040116811678725</v>
+        <v>-5.45004934858097</v>
       </c>
       <c r="G6">
-        <v>-4.5008764747379795</v>
+        <v>-5.44659978303742</v>
       </c>
       <c r="H6">
-        <v>-4.5005844680240505</v>
+        <v>-5.448619703539081</v>
       </c>
       <c r="I6">
-        <v>-4.503595667372894</v>
+        <v>-5.4318192898577085</v>
       </c>
       <c r="J6">
-        <v>-4.45425395746216</v>
+        <v>-2.9933237802917434</v>
       </c>
       <c r="K6">
-        <v>-3.976300601090395</v>
+        <v>-2.8615506592160376</v>
       </c>
       <c r="L6">
-        <v>-3.7880132983557</v>
+        <v>-2.535597909974564</v>
       </c>
       <c r="M6">
-        <v>-3.3039061599164308</v>
+        <v>-2.2094922773504404</v>
       </c>
       <c r="N6">
-        <v>-1.087269957776917</v>
+        <v>-1.9609611256489798</v>
       </c>
       <c r="O6">
-        <v>-0.4227311847976887</v>
+        <v>-1.4751462050294766</v>
       </c>
       <c r="P6">
-        <v>0.31764872423662627</v>
+        <v>-0.6770027738604907</v>
       </c>
       <c r="Q6">
-        <v>-0.24095748830388747</v>
+        <v>-0.055514475515547786</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
-        <v>-2.3677719843955907</v>
+        <v>-2.719076363704914</v>
       </c>
       <c r="B7">
-        <v>-2.7227655848049497</v>
+        <v>-3.0425378286630775</v>
       </c>
       <c r="C7">
-        <v>-3.529263034151684</v>
+        <v>-3.8072412114709717</v>
       </c>
       <c r="D7">
-        <v>-4.598566376460909</v>
+        <v>-4.733056880393701</v>
       </c>
       <c r="E7">
-        <v>-4.53857561280318</v>
+        <v>-5.407852739247888</v>
       </c>
       <c r="F7">
-        <v>-4.505629152060013</v>
+        <v>-5.419700387038245</v>
       </c>
       <c r="G7">
-        <v>-4.502269088504542</v>
+        <v>-5.454766856248233</v>
       </c>
       <c r="H7">
-        <v>-4.501487567568543</v>
+        <v>-5.440398706943167</v>
       </c>
       <c r="I7">
-        <v>-4.507633118878118</v>
+        <v>-5.316523875615959</v>
       </c>
       <c r="J7">
-        <v>-4.471728816724493</v>
+        <v>-2.9749452447368636</v>
       </c>
       <c r="K7">
-        <v>-3.988614358979405</v>
+        <v>-2.839758297870384</v>
       </c>
       <c r="L7">
-        <v>-3.6285638450691824</v>
+        <v>-2.515407767896144</v>
       </c>
       <c r="M7">
-        <v>-2.3758678403247893</v>
+        <v>-2.1878321405230774</v>
       </c>
       <c r="N7">
-        <v>-1.4679875851848896</v>
+        <v>-1.8858641508807377</v>
       </c>
       <c r="O7">
-        <v>-0.08146832039764895</v>
+        <v>-1.351864011631129</v>
       </c>
       <c r="P7">
-        <v>-0.1916792823598886</v>
+        <v>-0.5391025392196863</v>
       </c>
       <c r="Q7">
-        <v>-0.18920587830991947</v>
+        <v>0.4757760393188099</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
-        <v>-2.3762008875836895</v>
+        <v>-2.4618290836055037</v>
       </c>
       <c r="B8">
-        <v>-2.730301442510519</v>
+        <v>-2.7955436517170384</v>
       </c>
       <c r="C8">
-        <v>-3.5348662905562693</v>
+        <v>-3.6899567085315836</v>
       </c>
       <c r="D8">
-        <v>-4.600126990310254</v>
+        <v>-3.485784017753618</v>
       </c>
       <c r="E8">
-        <v>-4.555104806327379</v>
+        <v>-3.4314527561672565</v>
       </c>
       <c r="F8">
-        <v>-4.52049916210853</v>
+        <v>-3.3820975393645156</v>
       </c>
       <c r="G8">
-        <v>-4.515902094238566</v>
+        <v>-3.291115217601938</v>
       </c>
       <c r="H8">
-        <v>-4.514316734308915</v>
+        <v>-3.142072080227735</v>
       </c>
       <c r="I8">
-        <v>-4.51767527632388</v>
+        <v>-2.98793007122033</v>
       </c>
       <c r="J8">
-        <v>-4.447377684602941</v>
+        <v>-2.880588672283871</v>
       </c>
       <c r="K8">
-        <v>-4.047474808929114</v>
+        <v>-2.7514961436653813</v>
       </c>
       <c r="L8">
-        <v>-3.7113068736070245</v>
+        <v>-2.444431066058642</v>
       </c>
       <c r="M8">
-        <v>-2.1896621459753405</v>
+        <v>-2.118273130450349</v>
       </c>
       <c r="N8">
-        <v>-1.148934168773024</v>
+        <v>-1.897845983291763</v>
       </c>
       <c r="O8">
-        <v>-0.006814191865748368</v>
+        <v>-1.7118986308121755</v>
       </c>
       <c r="P8">
-        <v>0.1474508372931186</v>
+        <v>-1.2781445691949125</v>
       </c>
       <c r="Q8">
-        <v>-0.3029958126694119</v>
+        <v>-0.1904991221192661</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
-        <v>-2.437376869491685</v>
+        <v>-2.5193318505420965</v>
       </c>
       <c r="B9">
-        <v>-2.7845571499571586</v>
+        <v>-2.8389400711272064</v>
       </c>
       <c r="C9">
-        <v>-3.575857370238301</v>
+        <v>-3.6748898827253194</v>
       </c>
       <c r="D9">
-        <v>-4.6132225635933</v>
+        <v>-3.5009787720769654</v>
       </c>
       <c r="E9">
-        <v>-4.67769582045949</v>
+        <v>-3.439997001258561</v>
       </c>
       <c r="F9">
-        <v>-4.636305664337126</v>
+        <v>-3.381360552144039</v>
       </c>
       <c r="G9">
-        <v>-4.626175819482296</v>
+        <v>-3.284278668728907</v>
       </c>
       <c r="H9">
-        <v>-4.623757959684388</v>
+        <v>-3.113102236868174</v>
       </c>
       <c r="I9">
-        <v>-4.628549742037058</v>
+        <v>-2.9278463580487726</v>
       </c>
       <c r="J9">
-        <v>-4.583316166943009</v>
+        <v>-2.802234992410783</v>
       </c>
       <c r="K9">
-        <v>-4.010059769803154</v>
+        <v>-2.676524303369746</v>
       </c>
       <c r="L9">
-        <v>-3.5373958006351014</v>
+        <v>-2.3889832292664783</v>
       </c>
       <c r="M9">
-        <v>-2.3983730537131005</v>
+        <v>-2.0503213165192546</v>
       </c>
       <c r="N9">
-        <v>-1.0464683832760826</v>
+        <v>-1.7842207017437728</v>
       </c>
       <c r="O9">
-        <v>-0.7482134420239144</v>
+        <v>-1.694393376441203</v>
       </c>
       <c r="P9">
-        <v>0.6347781428321817</v>
+        <v>-1.0216793252690337</v>
       </c>
       <c r="Q9">
-        <v>-0.22665736255729554</v>
+        <v>-0.39795527641887357</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
-        <v>-2.5901491315890093</v>
+        <v>-2.6514139411203894</v>
       </c>
       <c r="B10">
-        <v>-2.91836168840573</v>
+        <v>-2.9356208225590232</v>
       </c>
       <c r="C10">
-        <v>-3.6916862087454048</v>
+        <v>-3.6583085884136177</v>
       </c>
       <c r="D10">
-        <v>-4.664832451724949</v>
+        <v>-3.495867963416</v>
       </c>
       <c r="E10">
-        <v>-5.122431267669858</v>
+        <v>-3.4293698865206816</v>
       </c>
       <c r="F10">
-        <v>-5.074657721487121</v>
+        <v>-3.3627851589437685</v>
       </c>
       <c r="G10">
-        <v>-5.053242158674942</v>
+        <v>-3.281064501989017</v>
       </c>
       <c r="H10">
-        <v>-5.046323281459923</v>
+        <v>-3.109087134388994</v>
       </c>
       <c r="I10">
-        <v>-5.05889331453431</v>
+        <v>-2.9054903301585195</v>
       </c>
       <c r="J10">
-        <v>-4.988456740038571</v>
+        <v>-2.777307197320613</v>
       </c>
       <c r="K10">
-        <v>-4.534979578212524</v>
+        <v>-2.666234143889834</v>
       </c>
       <c r="L10">
-        <v>-3.660910309830015</v>
+        <v>-2.4078801845612166</v>
       </c>
       <c r="M10">
-        <v>-3.0228589369143406</v>
+        <v>-2.0328267827277196</v>
       </c>
       <c r="N10">
-        <v>-1.546256522947037</v>
+        <v>-1.7240342855562854</v>
       </c>
       <c r="O10">
-        <v>-0.6384102088770484</v>
+        <v>-1.5225809319784473</v>
       </c>
       <c r="P10">
-        <v>-0.44506987546775495</v>
+        <v>-1.2050091205069222</v>
       </c>
       <c r="Q10">
-        <v>0.8213458208990654</v>
+        <v>-0.6423990962633335</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11">
-        <v>-2.67315019092734</v>
+        <v>-2.8223287346748327</v>
       </c>
       <c r="B11">
-        <v>-2.993452815104015</v>
+        <v>-3.039706986793012</v>
       </c>
       <c r="C11">
-        <v>-3.7596618751081476</v>
+        <v>-3.3994812964707606</v>
       </c>
       <c r="D11">
-        <v>-4.706150320787317</v>
+        <v>-3.3177287792416115</v>
       </c>
       <c r="E11">
-        <v>-5.693833257353575</v>
+        <v>-3.2698661397206377</v>
       </c>
       <c r="F11">
-        <v>-5.988614704179456</v>
+        <v>-3.21853442199071</v>
       </c>
       <c r="G11">
-        <v>-5.962960565180763</v>
+        <v>-3.156689422743961</v>
       </c>
       <c r="H11">
-        <v>-5.961425414699958</v>
+        <v>-3.032442011493326</v>
       </c>
       <c r="I11">
-        <v>-5.991822172948337</v>
+        <v>-2.841870591225762</v>
       </c>
       <c r="J11">
-        <v>-5.5678125810450085</v>
+        <v>-2.6957584691113228</v>
       </c>
       <c r="K11">
-        <v>-4.625303433663666</v>
+        <v>-2.604707973742401</v>
       </c>
       <c r="L11">
-        <v>-3.724304297063334</v>
+        <v>-2.407655293756963</v>
       </c>
       <c r="M11">
-        <v>-3.0655925851729515</v>
+        <v>-2.009851021997213</v>
       </c>
       <c r="N11">
-        <v>-1.5461795233752507</v>
+        <v>-1.626462280007309</v>
       </c>
       <c r="O11">
-        <v>-0.8819500287936123</v>
+        <v>-1.4035363484738987</v>
       </c>
       <c r="P11">
-        <v>-0.2848350049210938</v>
+        <v>-1.1625969643496896</v>
       </c>
       <c r="Q11">
-        <v>-0.4614506366229321</v>
+        <v>-0.4963504780034821</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12">
-        <v>-2.6930407724375987</v>
+        <v>-2.8145855742705455</v>
       </c>
       <c r="B12">
-        <v>-3.013016945486313</v>
+        <v>-2.8738401574562413</v>
       </c>
       <c r="C12">
-        <v>-3.77161331011435</v>
+        <v>-2.8983851472663846</v>
       </c>
       <c r="D12">
-        <v>-4.70508442390516</v>
+        <v>-2.8549479920188094</v>
       </c>
       <c r="E12">
-        <v>-5.647511975875737</v>
+        <v>-2.8386638597244453</v>
       </c>
       <c r="F12">
-        <v>-6.205504935954434</v>
+        <v>-2.8302360003784632</v>
       </c>
       <c r="G12">
-        <v>-6.253426608139645</v>
+        <v>-2.8062869539850612</v>
       </c>
       <c r="H12">
-        <v>-6.247716445809064</v>
+        <v>-2.738603757296185</v>
       </c>
       <c r="I12">
-        <v>-6.24037350489463</v>
+        <v>-2.6147700626998622</v>
       </c>
       <c r="J12">
-        <v>-5.978383368449131</v>
+        <v>-2.4893506717382796</v>
       </c>
       <c r="K12">
-        <v>-4.8380569000277776</v>
+        <v>-2.430308042780393</v>
       </c>
       <c r="L12">
-        <v>-3.9523796810943717</v>
+        <v>-2.2973146703566605</v>
       </c>
       <c r="M12">
-        <v>-2.942668266645723</v>
+        <v>-1.9647067081660734</v>
       </c>
       <c r="N12">
-        <v>-1.8859809091442443</v>
+        <v>-1.5175907638229518</v>
       </c>
       <c r="O12">
-        <v>-0.9320132129897335</v>
+        <v>-1.3003207836845383</v>
       </c>
       <c r="P12">
-        <v>-0.4521859980470373</v>
+        <v>-1.2833457139563063</v>
       </c>
       <c r="Q12">
-        <v>-0.4094954855145264</v>
+        <v>-0.9871910208996854</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13">
-        <v>-2.7029544537636734</v>
+        <v>-2.596347765964591</v>
       </c>
       <c r="B13">
-        <v>-3.022494128156877</v>
+        <v>-2.5968506884410347</v>
       </c>
       <c r="C13">
-        <v>-3.776449522427365</v>
+        <v>-2.5818348829909743</v>
       </c>
       <c r="D13">
-        <v>-4.692969629718469</v>
+        <v>-2.5589321035926114</v>
       </c>
       <c r="E13">
-        <v>-5.580447682612177</v>
+        <v>-2.5395600440266466</v>
       </c>
       <c r="F13">
-        <v>-6.08596032607028</v>
+        <v>-2.5380700958030897</v>
       </c>
       <c r="G13">
-        <v>-6.126436600474311</v>
+        <v>-2.5232182307407416</v>
       </c>
       <c r="H13">
-        <v>-6.125193739225953</v>
+        <v>-2.4692187459122668</v>
       </c>
       <c r="I13">
-        <v>-5.9968640908332205</v>
+        <v>-2.3488762431354764</v>
       </c>
       <c r="J13">
-        <v>-5.739230390679452</v>
+        <v>-2.202852714280831</v>
       </c>
       <c r="K13">
-        <v>-4.792957210410502</v>
+        <v>-2.1785245255877435</v>
       </c>
       <c r="L13">
-        <v>-4.219230520046953</v>
+        <v>-2.1399804439577563</v>
       </c>
       <c r="M13">
-        <v>-3.1512714125988515</v>
+        <v>-1.964728856269557</v>
       </c>
       <c r="N13">
-        <v>-1.635911869551516</v>
+        <v>-1.4983360478232237</v>
       </c>
       <c r="O13">
-        <v>-1.1625248154991807</v>
+        <v>-1.249596300184582</v>
       </c>
       <c r="P13">
-        <v>-0.45657420242607827</v>
+        <v>-1.2051887373824892</v>
       </c>
       <c r="Q13">
-        <v>0.14833830351802452</v>
+        <v>-0.8614340185769777</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
-        <v>-2.7139406292031367</v>
+        <v>-2.3656530039964423</v>
       </c>
       <c r="B14">
-        <v>-3.033704218954596</v>
+        <v>-2.398342502601835</v>
       </c>
       <c r="C14">
-        <v>-3.7920845757929036</v>
+        <v>-2.4281158604176767</v>
       </c>
       <c r="D14">
-        <v>-4.731268632922039</v>
+        <v>-2.4393090339016283</v>
       </c>
       <c r="E14">
-        <v>-5.62989123390655</v>
+        <v>-2.4386299928289206</v>
       </c>
       <c r="F14">
-        <v>-5.504714771602879</v>
+        <v>-2.4323164560865194</v>
       </c>
       <c r="G14">
-        <v>-5.848109359706551</v>
+        <v>-2.4239471535089825</v>
       </c>
       <c r="H14">
-        <v>-5.503237167651317</v>
+        <v>-2.340114378659512</v>
       </c>
       <c r="I14">
-        <v>-5.839686872849486</v>
+        <v>-2.1606636616853603</v>
       </c>
       <c r="J14">
-        <v>-5.378137534740496</v>
+        <v>-2.0227653318286896</v>
       </c>
       <c r="K14">
-        <v>-4.747265191867701</v>
+        <v>-1.9760292832588304</v>
       </c>
       <c r="L14">
-        <v>-4.047703314853595</v>
+        <v>-2.0085969879186227</v>
       </c>
       <c r="M14">
-        <v>-3.2447615894008512</v>
+        <v>-2.0216372670681357</v>
       </c>
       <c r="N14">
-        <v>-1.7786218459202734</v>
+        <v>-1.809143661576736</v>
       </c>
       <c r="O14">
-        <v>-0.7817013747381101</v>
+        <v>-1.3857711656762663</v>
       </c>
       <c r="P14">
-        <v>-0.42736555545089894</v>
+        <v>-1.2186466795489375</v>
       </c>
       <c r="Q14">
-        <v>-0.49710263349373945</v>
+        <v>-1.2448199328971288</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15">
-        <v>-2.7144647958907826</v>
+        <v>-2.1457201617966586</v>
       </c>
       <c r="B15">
-        <v>-3.031392235000508</v>
+        <v>-2.1708520355729815</v>
       </c>
       <c r="C15">
-        <v>-3.7832152484128287</v>
+        <v>-2.214455370117121</v>
       </c>
       <c r="D15">
-        <v>-4.736357744907915</v>
+        <v>-2.253638434232788</v>
       </c>
       <c r="E15">
-        <v>-4.976554573808114</v>
+        <v>-2.2428184271751594</v>
       </c>
       <c r="F15">
-        <v>-4.529291312496979</v>
+        <v>-2.2291415217744266</v>
       </c>
       <c r="G15">
-        <v>-4.514427548143223</v>
+        <v>-2.2104704528190173</v>
       </c>
       <c r="H15">
-        <v>-4.994428369226094</v>
+        <v>-2.1369101878010697</v>
       </c>
       <c r="I15">
-        <v>-4.566724321707545</v>
+        <v>-1.9771922490123894</v>
       </c>
       <c r="J15">
-        <v>-4.83230433424884</v>
+        <v>-1.8796651363184418</v>
       </c>
       <c r="K15">
-        <v>-4.555799075152968</v>
+        <v>-1.8695760999742101</v>
       </c>
       <c r="L15">
-        <v>-4.023140290668432</v>
+        <v>-1.938504871006387</v>
       </c>
       <c r="M15">
-        <v>-2.962581256051608</v>
+        <v>-1.9675201221547498</v>
       </c>
       <c r="N15">
-        <v>-1.7103197954726934</v>
+        <v>-1.9531858315856632</v>
       </c>
       <c r="O15">
-        <v>-0.7018189485333621</v>
+        <v>-1.5152179205329597</v>
       </c>
       <c r="P15">
-        <v>-0.26902343158022757</v>
+        <v>-1.3086216075659898</v>
       </c>
       <c r="Q15">
-        <v>0.14933572338205078</v>
+        <v>-1.2451380703139587</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16">
-        <v>-2.7097827152469387</v>
+        <v>-2.049016708703874</v>
       </c>
       <c r="B16">
-        <v>-3.030936701811819</v>
+        <v>-2.0691617694941207</v>
       </c>
       <c r="C16">
-        <v>-3.744617195352394</v>
+        <v>-2.1071067126951615</v>
       </c>
       <c r="D16">
-        <v>-4.221729725119728</v>
+        <v>-2.1677543675609896</v>
       </c>
       <c r="E16">
-        <v>-4.067520740347955</v>
+        <v>-2.1926354360655846</v>
       </c>
       <c r="F16">
-        <v>-3.778182412105648</v>
+        <v>-2.1672854720395978</v>
       </c>
       <c r="G16">
-        <v>-3.361470725713535</v>
+        <v>-2.10728397792136</v>
       </c>
       <c r="H16">
-        <v>-3.3897655033832326</v>
+        <v>-1.9812554874928472</v>
       </c>
       <c r="I16">
-        <v>-4.1474080875525345</v>
+        <v>-1.8370705655491006</v>
       </c>
       <c r="J16">
-        <v>-3.6034545309450055</v>
+        <v>-1.7680789142332762</v>
       </c>
       <c r="K16">
-        <v>-3.73607266781234</v>
+        <v>-1.6600377121832512</v>
       </c>
       <c r="L16">
-        <v>-3.527000681427717</v>
+        <v>-1.608748649500091</v>
       </c>
       <c r="M16">
-        <v>-3.1653226126455936</v>
+        <v>-1.7615698185315447</v>
       </c>
       <c r="N16">
-        <v>-1.879722018532913</v>
+        <v>-1.791740461698478</v>
       </c>
       <c r="O16">
-        <v>-0.6265780793964769</v>
+        <v>-1.5643264536819954</v>
       </c>
       <c r="P16">
-        <v>0.1875700143448448</v>
+        <v>-1.1617083681337583</v>
       </c>
       <c r="Q16">
-        <v>0.1377322732849422</v>
+        <v>-1.0824168749182248</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17">
-        <v>-2.7268146086232323</v>
+        <v>-1.9998034153587871</v>
       </c>
       <c r="B17">
-        <v>-3.0264344029174732</v>
+        <v>-1.9259414678321392</v>
       </c>
       <c r="C17">
-        <v>-3.6187491341838145</v>
+        <v>-2.069059733770193</v>
       </c>
       <c r="D17">
-        <v>-3.3463643502874385</v>
+        <v>-2.0900834809524107</v>
       </c>
       <c r="E17">
-        <v>-3.358492905619243</v>
+        <v>-2.175924663889366</v>
       </c>
       <c r="F17">
-        <v>-3.2504133521815186</v>
+        <v>-2.148664557618221</v>
       </c>
       <c r="G17">
-        <v>-2.589334574069425</v>
+        <v>-2.105418095324157</v>
       </c>
       <c r="H17">
-        <v>-2.534340229384071</v>
+        <v>-1.9432591115713596</v>
       </c>
       <c r="I17">
-        <v>-3.0819004066231535</v>
+        <v>-1.7356025720562578</v>
       </c>
       <c r="J17">
-        <v>-3.2304590065096894</v>
+        <v>-1.6760637959572338</v>
       </c>
       <c r="K17">
-        <v>-2.3560702120024346</v>
+        <v>-1.700461280511058</v>
       </c>
       <c r="L17">
-        <v>-2.7819971113745936</v>
+        <v>-1.5442215751809658</v>
       </c>
       <c r="M17">
-        <v>-2.6404845131490986</v>
+        <v>-1.5200666095324975</v>
       </c>
       <c r="N17">
-        <v>-1.7523983758902841</v>
+        <v>-1.6886160994879884</v>
       </c>
       <c r="O17">
-        <v>-1.2070169798074246</v>
+        <v>-1.7147642681480983</v>
       </c>
       <c r="P17">
-        <v>-0.06293667740585542</v>
+        <v>-1.4776145207929896</v>
       </c>
       <c r="Q17">
-        <v>-0.4051342385517846</v>
+        <v>-1.0973993350704216</v>
       </c>
     </row>
   </sheetData>
@@ -2087,912 +2098,918 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16384">
       <c r="A1">
-        <v>-5.828465035514611</v>
+        <v>-5.78152946377298</v>
       </c>
       <c r="B1">
-        <v>-5.82999646927076</v>
+        <v>-5.7818346274936685</v>
       </c>
       <c r="C1">
-        <v>-5.826084872148814</v>
+        <v>-5.783633206384962</v>
       </c>
       <c r="D1">
-        <v>-5.826981396963882</v>
+        <v>-5.787917733640693</v>
       </c>
       <c r="E1">
-        <v>-5.823410385266091</v>
+        <v>-5.790609287522226</v>
       </c>
       <c r="F1">
-        <v>-5.812675417649342</v>
+        <v>-5.790989426772158</v>
       </c>
       <c r="G1">
-        <v>-5.79849027579355</v>
+        <v>-5.79017583984547</v>
       </c>
       <c r="H1">
-        <v>-5.767204093015313</v>
+        <v>-5.788081527626982</v>
       </c>
       <c r="I1">
-        <v>-5.616010991732815</v>
+        <v>-5.79191849816684</v>
       </c>
       <c r="J1">
-        <v>-5.282457210588402</v>
+        <v>-4.358581272507073</v>
       </c>
       <c r="K1">
-        <v>-4.561994356738864</v>
+        <v>-4.278876922628938</v>
       </c>
       <c r="L1">
-        <v>-3.3490009379274785</v>
+        <v>-3.795978531837814</v>
       </c>
       <c r="M1">
-        <v>-2.3329812290024696</v>
+        <v>-2.818889878978524</v>
       </c>
       <c r="N1">
-        <v>-1.3026205241116697</v>
+        <v>-1.6884880214107636</v>
       </c>
       <c r="O1">
-        <v>-0.8689413792394647</v>
+        <v>-0.4245584932896142</v>
       </c>
       <c r="P1">
-        <v>-0.4840465766388836</v>
+        <v>-0.25683643871039874</v>
       </c>
       <c r="Q1">
-        <v>-0.3627405953422892</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>-0.21924089263954585</v>
+      </c>
+      <c r="XFD1">
+        <f>MAX(A1:XFC1)</f>
+        <v>-0.40970000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16384">
       <c r="A2">
-        <v>-5.828403450040948</v>
+        <v>-5.7742247776759354</v>
       </c>
       <c r="B2">
-        <v>-5.829934386113276</v>
+        <v>-5.770700639600589</v>
       </c>
       <c r="C2">
-        <v>-5.826023098555404</v>
+        <v>-5.773707687993367</v>
       </c>
       <c r="D2">
-        <v>-5.826918770830841</v>
+        <v>-5.77700061887787</v>
       </c>
       <c r="E2">
-        <v>-5.8233470327177</v>
+        <v>-5.781693267240156</v>
       </c>
       <c r="F2">
-        <v>-5.8126059528864635</v>
+        <v>-5.782569079668834</v>
       </c>
       <c r="G2">
-        <v>-5.7984349596802165</v>
+        <v>-5.781559762050948</v>
       </c>
       <c r="H2">
-        <v>-5.766819442221793</v>
+        <v>-5.780956724407377</v>
       </c>
       <c r="I2">
-        <v>-5.598426600190812</v>
+        <v>-5.788333069289804</v>
       </c>
       <c r="J2">
-        <v>-5.185105595801201</v>
+        <v>-4.351221337390919</v>
       </c>
       <c r="K2">
-        <v>-4.427945469961476</v>
+        <v>-4.229953402634758</v>
       </c>
       <c r="L2">
-        <v>-3.123901186079935</v>
+        <v>-3.800899964281117</v>
       </c>
       <c r="M2">
-        <v>-2.4704404525861214</v>
+        <v>-2.8742308709781654</v>
       </c>
       <c r="N2">
-        <v>-1.232325566702047</v>
+        <v>-1.8274888208081532</v>
       </c>
       <c r="O2">
-        <v>-0.8452012208358999</v>
+        <v>-0.0213556108825922</v>
       </c>
       <c r="P2">
-        <v>-0.39837941144491196</v>
+        <v>-0.3384997249835719</v>
       </c>
       <c r="Q2">
-        <v>-0.3641744745918123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>-0.2739496155672768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16384">
       <c r="A3">
-        <v>-5.827786275815399</v>
+        <v>-5.768520665618581</v>
       </c>
       <c r="B3">
-        <v>-5.829312889260235</v>
+        <v>-5.762633682389165</v>
       </c>
       <c r="C3">
-        <v>-5.825405023233989</v>
+        <v>-5.772272044388632</v>
       </c>
       <c r="D3">
-        <v>-5.826293590892612</v>
+        <v>-5.774313549759063</v>
       </c>
       <c r="E3">
-        <v>-5.822715680495219</v>
+        <v>-5.781546058134098</v>
       </c>
       <c r="F3">
-        <v>-5.811956918373829</v>
+        <v>-5.778939774254443</v>
       </c>
       <c r="G3">
-        <v>-5.797815719268549</v>
+        <v>-5.782074965233845</v>
       </c>
       <c r="H3">
-        <v>-5.764597334801463</v>
+        <v>-5.778368568348502</v>
       </c>
       <c r="I3">
-        <v>-5.613342546662419</v>
+        <v>-5.789703391082621</v>
       </c>
       <c r="J3">
-        <v>-5.394674164725947</v>
+        <v>-4.355011607004211</v>
       </c>
       <c r="K3">
-        <v>-4.580767756194653</v>
+        <v>-4.279396604161463</v>
       </c>
       <c r="L3">
-        <v>-3.1502602355365967</v>
+        <v>-3.76188565516647</v>
       </c>
       <c r="M3">
-        <v>-2.2469707432782937</v>
+        <v>-2.6017250338541222</v>
       </c>
       <c r="N3">
-        <v>-1.2898315232476094</v>
+        <v>-1.4223450183497304</v>
       </c>
       <c r="O3">
-        <v>-0.800491648641323</v>
+        <v>-0.27069734684758523</v>
       </c>
       <c r="P3">
-        <v>-0.38879679204017203</v>
+        <v>-0.25459402725657343</v>
       </c>
       <c r="Q3">
-        <v>-0.36255914491865465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>-0.049496371266893005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16384">
       <c r="A4">
-        <v>-5.82153375915669</v>
+        <v>-5.825425283163586</v>
       </c>
       <c r="B4">
-        <v>-5.823017399205571</v>
+        <v>-5.877861095578965</v>
       </c>
       <c r="C4">
-        <v>-5.819142581082746</v>
+        <v>-5.864306130163306</v>
       </c>
       <c r="D4">
-        <v>-5.819958002816124</v>
+        <v>-5.89079430022057</v>
       </c>
       <c r="E4">
-        <v>-5.816323489181322</v>
+        <v>-5.895323137443425</v>
       </c>
       <c r="F4">
-        <v>-5.805417746813383</v>
+        <v>-5.898405574897295</v>
       </c>
       <c r="G4">
-        <v>-5.790997617242238</v>
+        <v>-5.890223032890927</v>
       </c>
       <c r="H4">
-        <v>-5.759513938242344</v>
+        <v>-5.885151415668017</v>
       </c>
       <c r="I4">
-        <v>-5.594210576298757</v>
+        <v>-5.919121000302211</v>
       </c>
       <c r="J4">
-        <v>-5.284816594879626</v>
+        <v>-4.355650076129757</v>
       </c>
       <c r="K4">
-        <v>-4.550991089191242</v>
+        <v>-4.259893209778392</v>
       </c>
       <c r="L4">
-        <v>-3.204367904791786</v>
+        <v>-3.8349016959203754</v>
       </c>
       <c r="M4">
-        <v>-2.5321078619823347</v>
+        <v>-2.9016130728241714</v>
       </c>
       <c r="N4">
-        <v>-1.8252305167447984</v>
+        <v>-1.6582491698141448</v>
       </c>
       <c r="O4">
-        <v>-0.7605014723365696</v>
+        <v>-1.1275959060555854</v>
       </c>
       <c r="P4">
-        <v>-0.18463310811869307</v>
+        <v>-0.24836662779526072</v>
       </c>
       <c r="Q4">
-        <v>-0.35461825731116137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2833800202580748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16384">
       <c r="A5">
-        <v>-5.749475827481994</v>
+        <v>-5.781249462076171</v>
       </c>
       <c r="B5">
-        <v>-5.750483807714911</v>
+        <v>-5.779074204506921</v>
       </c>
       <c r="C5">
-        <v>-5.746859034173979</v>
+        <v>-5.777197179319951</v>
       </c>
       <c r="D5">
-        <v>-5.746921352838263</v>
+        <v>-5.781273484318862</v>
       </c>
       <c r="E5">
-        <v>-5.7425779020631165</v>
+        <v>-5.781698080858419</v>
       </c>
       <c r="F5">
-        <v>-5.7297568990166585</v>
+        <v>-5.782966139873311</v>
       </c>
       <c r="G5">
-        <v>-5.71306037118193</v>
+        <v>-5.7855906938593105</v>
       </c>
       <c r="H5">
-        <v>-5.675719274504379</v>
+        <v>-5.783355662059182</v>
       </c>
       <c r="I5">
-        <v>-5.478079538633689</v>
+        <v>-5.791008679754913</v>
       </c>
       <c r="J5">
-        <v>-5.187402696984184</v>
+        <v>-4.36848097234076</v>
       </c>
       <c r="K5">
-        <v>-4.329708566162051</v>
+        <v>-4.248114395806571</v>
       </c>
       <c r="L5">
-        <v>-3.0937362929204837</v>
+        <v>-3.955909965794755</v>
       </c>
       <c r="M5">
-        <v>-2.4655605564030645</v>
+        <v>-3.231906403429296</v>
       </c>
       <c r="N5">
-        <v>-1.6751570075766558</v>
+        <v>-1.3959224267644965</v>
       </c>
       <c r="O5">
-        <v>-0.8277358987133052</v>
+        <v>0.10120695022938102</v>
       </c>
       <c r="P5">
-        <v>0.051478545506413974</v>
+        <v>0.12513507569201485</v>
       </c>
       <c r="Q5">
-        <v>-0.28092952724892684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.07115964000601671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16384">
       <c r="A6">
-        <v>-5.990943569472571</v>
+        <v>-7.132123388776925</v>
       </c>
       <c r="B6">
-        <v>-5.990366040977932</v>
+        <v>-7.002541920529342</v>
       </c>
       <c r="C6">
-        <v>-5.988128843850155</v>
+        <v>-7.152610724006511</v>
       </c>
       <c r="D6">
-        <v>-5.988924223605905</v>
+        <v>-6.852918750211167</v>
       </c>
       <c r="E6">
-        <v>-5.9850146297781</v>
+        <v>-6.8725609634070315</v>
       </c>
       <c r="F6">
-        <v>-5.9738172284652</v>
+        <v>-7.191142184767489</v>
       </c>
       <c r="G6">
-        <v>-5.959877530900917</v>
+        <v>-7.105792271448464</v>
       </c>
       <c r="H6">
-        <v>-5.9294185789639124</v>
+        <v>-7.219294465069509</v>
       </c>
       <c r="I6">
-        <v>-5.796449576453769</v>
+        <v>-6.982045955478286</v>
       </c>
       <c r="J6">
-        <v>-5.405968613732869</v>
+        <v>-4.413115639593974</v>
       </c>
       <c r="K6">
-        <v>-4.355248987186738</v>
+        <v>-4.277430834347614</v>
       </c>
       <c r="L6">
-        <v>-3.14061305383415</v>
+        <v>-3.846811102184633</v>
       </c>
       <c r="M6">
-        <v>-2.489385158626944</v>
+        <v>-2.6214562284818785</v>
       </c>
       <c r="N6">
-        <v>-1.3178358479823455</v>
+        <v>-1.5112154886186182</v>
       </c>
       <c r="O6">
-        <v>-0.7489266868466009</v>
+        <v>-1.1752814744775055</v>
       </c>
       <c r="P6">
-        <v>-0.2911635653615413</v>
+        <v>-0.26947848033876687</v>
       </c>
       <c r="Q6">
-        <v>-0.3993346221324891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>-0.13941290146328464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16384">
       <c r="A7">
-        <v>-5.3705418904998385</v>
+        <v>-6.6384430073923975</v>
       </c>
       <c r="B7">
-        <v>-5.444670856930228</v>
+        <v>-6.604668109130797</v>
       </c>
       <c r="C7">
-        <v>-5.326568519021866</v>
+        <v>-7.090252182775497</v>
       </c>
       <c r="D7">
-        <v>-5.332175803655825</v>
+        <v>-6.135021638169792</v>
       </c>
       <c r="E7">
-        <v>-5.347707514632979</v>
+        <v>-5.778645629265491</v>
       </c>
       <c r="F7">
-        <v>-5.38722610435007</v>
+        <v>-6.810859868137241</v>
       </c>
       <c r="G7">
-        <v>-5.428716336450375</v>
+        <v>-6.8270141266696065</v>
       </c>
       <c r="H7">
-        <v>-5.506755339550904</v>
+        <v>-6.343397885398127</v>
       </c>
       <c r="I7">
-        <v>-5.688626605972625</v>
+        <v>-6.7569247726815815</v>
       </c>
       <c r="J7">
-        <v>-5.38869588003778</v>
+        <v>-4.341786087144544</v>
       </c>
       <c r="K7">
-        <v>-4.202359363301143</v>
+        <v>-4.293048605052477</v>
       </c>
       <c r="L7">
-        <v>-3.3417617219115994</v>
+        <v>-3.93664193531421</v>
       </c>
       <c r="M7">
-        <v>-2.459823397774093</v>
+        <v>-2.7806069186753577</v>
       </c>
       <c r="N7">
-        <v>-1.9162059342955522</v>
+        <v>-1.511645758231159</v>
       </c>
       <c r="O7">
-        <v>-0.7564092870775684</v>
+        <v>-0.5246472218089093</v>
       </c>
       <c r="P7">
-        <v>-0.32029993295525205</v>
+        <v>-0.3253233043611472</v>
       </c>
       <c r="Q7">
-        <v>-0.3380195570711706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>-0.09826114270469961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16384">
       <c r="A8">
-        <v>-6.683434834107927</v>
+        <v>-5.41518751013853</v>
       </c>
       <c r="B8">
-        <v>-6.685810787349309</v>
+        <v>-5.384017643141678</v>
       </c>
       <c r="C8">
-        <v>-6.645435356067208</v>
+        <v>-5.4322791479134525</v>
       </c>
       <c r="D8">
-        <v>-6.672785929644825</v>
+        <v>-5.41421851828205</v>
       </c>
       <c r="E8">
-        <v>-6.648891928197577</v>
+        <v>-5.37821053749088</v>
       </c>
       <c r="F8">
-        <v>-6.569330887833166</v>
+        <v>-5.276738352589023</v>
       </c>
       <c r="G8">
-        <v>-6.425723270872303</v>
+        <v>-5.10189038858348</v>
       </c>
       <c r="H8">
-        <v>-6.296792033063898</v>
+        <v>-4.720556743059313</v>
       </c>
       <c r="I8">
-        <v>-6.3506326162502775</v>
+        <v>-4.861111114072587</v>
       </c>
       <c r="J8">
-        <v>-5.420024230766909</v>
+        <v>-4.392346558689392</v>
       </c>
       <c r="K8">
-        <v>-4.528859464697213</v>
+        <v>-4.230160396489823</v>
       </c>
       <c r="L8">
-        <v>-3.269693878640201</v>
+        <v>-3.530118379466128</v>
       </c>
       <c r="M8">
-        <v>-2.298949004156636</v>
+        <v>-2.6556327699014814</v>
       </c>
       <c r="N8">
-        <v>-1.3659696172593316</v>
+        <v>-1.6417024302967507</v>
       </c>
       <c r="O8">
-        <v>-0.8281688643340667</v>
+        <v>-0.74505239709933</v>
       </c>
       <c r="P8">
-        <v>0.5530714077654859</v>
+        <v>0.02565568536179247</v>
       </c>
       <c r="Q8">
-        <v>-0.2138712182986234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>-0.007538384141985016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16384">
       <c r="A9">
-        <v>-6.511206482062416</v>
+        <v>-5.6950077624090545</v>
       </c>
       <c r="B9">
-        <v>-6.914436319442073</v>
+        <v>-5.517799704441751</v>
       </c>
       <c r="C9">
-        <v>-6.977585864598674</v>
+        <v>-5.762687823450636</v>
       </c>
       <c r="D9">
-        <v>-7.195835030163995</v>
+        <v>-5.766199363716808</v>
       </c>
       <c r="E9">
-        <v>-7.270811416424597</v>
+        <v>-5.5610760487535345</v>
       </c>
       <c r="F9">
-        <v>-7.150607269702064</v>
+        <v>-5.3977601623135705</v>
       </c>
       <c r="G9">
-        <v>-7.1408338023754725</v>
+        <v>-5.1948011739743665</v>
       </c>
       <c r="H9">
-        <v>-7.089867568982729</v>
+        <v>-5.413344485090171</v>
       </c>
       <c r="I9">
-        <v>-6.474887794279355</v>
+        <v>-5.145531425339654</v>
       </c>
       <c r="J9">
-        <v>-5.570013544743081</v>
+        <v>-5.019116430158708</v>
       </c>
       <c r="K9">
-        <v>-4.85063840827617</v>
+        <v>-4.613094245776723</v>
       </c>
       <c r="L9">
-        <v>-3.6139438832243083</v>
+        <v>-4.023849192863954</v>
       </c>
       <c r="M9">
-        <v>-2.2624931450186847</v>
+        <v>-2.7429459947312447</v>
       </c>
       <c r="N9">
-        <v>-1.302917572881496</v>
+        <v>-2.0756859314391325</v>
       </c>
       <c r="O9">
-        <v>-0.7889600271077258</v>
+        <v>-0.8454332191676022</v>
       </c>
       <c r="P9">
-        <v>-0.39127253630398684</v>
+        <v>-0.13954063280252202</v>
       </c>
       <c r="Q9">
-        <v>-0.3428491829016938</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>-0.16404831201939826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16384">
       <c r="A10">
-        <v>-6.8467407263290285</v>
+        <v>-5.483232410918357</v>
       </c>
       <c r="B10">
-        <v>-6.788128526423399</v>
+        <v>-5.332327767749258</v>
       </c>
       <c r="C10">
-        <v>-6.707951934768325</v>
+        <v>-5.47987714222701</v>
       </c>
       <c r="D10">
-        <v>-6.858174075675873</v>
+        <v>-5.463470876828333</v>
       </c>
       <c r="E10">
-        <v>-6.8440970657673965</v>
+        <v>-5.45834615633949</v>
       </c>
       <c r="F10">
-        <v>-6.788667421882523</v>
+        <v>-5.398136865179231</v>
       </c>
       <c r="G10">
-        <v>-6.750832496609406</v>
+        <v>-5.342890807808235</v>
       </c>
       <c r="H10">
-        <v>-6.742203559734563</v>
+        <v>-5.196938052016005</v>
       </c>
       <c r="I10">
-        <v>-6.788174313193223</v>
+        <v>-4.962194078443134</v>
       </c>
       <c r="J10">
-        <v>-5.922994450952457</v>
+        <v>-4.835431230857416</v>
       </c>
       <c r="K10">
-        <v>-4.788094598293808</v>
+        <v>-4.574946292383395</v>
       </c>
       <c r="L10">
-        <v>-3.4842312440252914</v>
+        <v>-3.9969358636189853</v>
       </c>
       <c r="M10">
-        <v>-2.4571827334271545</v>
+        <v>-3.041875391205075</v>
       </c>
       <c r="N10">
-        <v>-1.8643180492507312</v>
+        <v>-2.695630452697532</v>
       </c>
       <c r="O10">
-        <v>-0.9948095617579922</v>
+        <v>-1.1425386624865221</v>
       </c>
       <c r="P10">
-        <v>-0.4998007605953441</v>
+        <v>0.2723442188800324</v>
       </c>
       <c r="Q10">
-        <v>0.3853441242108222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.28328594944160246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16384">
       <c r="A11">
-        <v>-6.509483615609387</v>
+        <v>-5.328783608639041</v>
       </c>
       <c r="B11">
-        <v>-6.466269164867924</v>
+        <v>-5.107045599648421</v>
       </c>
       <c r="C11">
-        <v>-6.348217352556825</v>
+        <v>-5.352185168700651</v>
       </c>
       <c r="D11">
-        <v>-6.481776577636067</v>
+        <v>-5.335747885039774</v>
       </c>
       <c r="E11">
-        <v>-6.480272014950153</v>
+        <v>-5.312644802878137</v>
       </c>
       <c r="F11">
-        <v>-6.464727797231294</v>
+        <v>-5.257585113100755</v>
       </c>
       <c r="G11">
-        <v>-6.434821602020268</v>
+        <v>-5.220622747479926</v>
       </c>
       <c r="H11">
-        <v>-6.419771456083483</v>
+        <v>-5.106615556963064</v>
       </c>
       <c r="I11">
-        <v>-6.536368984978007</v>
+        <v>-4.8689775763028065</v>
       </c>
       <c r="J11">
-        <v>-6.169937514701859</v>
+        <v>-4.732668748918247</v>
       </c>
       <c r="K11">
-        <v>-5.066589302154235</v>
+        <v>-4.5327335882941995</v>
       </c>
       <c r="L11">
-        <v>-3.6425795440809576</v>
+        <v>-3.917320330830086</v>
       </c>
       <c r="M11">
-        <v>-2.9982497587395622</v>
+        <v>-3.0752407362931224</v>
       </c>
       <c r="N11">
-        <v>-1.7188396111497235</v>
+        <v>-2.4029600701397156</v>
       </c>
       <c r="O11">
-        <v>-1.041067913301313</v>
+        <v>-1.986445246322628</v>
       </c>
       <c r="P11">
-        <v>0.15804312919656835</v>
+        <v>-0.2626383139531788</v>
       </c>
       <c r="Q11">
-        <v>-0.030126363319803874</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6418583404973486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16384">
       <c r="A12">
-        <v>-6.365428974798637</v>
+        <v>-4.704212712102515</v>
       </c>
       <c r="B12">
-        <v>-5.873612783823315</v>
+        <v>-4.9154453495650055</v>
       </c>
       <c r="C12">
-        <v>-6.30132633667523</v>
+        <v>-5.28756084221158</v>
       </c>
       <c r="D12">
-        <v>-6.337913590551658</v>
+        <v>-5.267753423415878</v>
       </c>
       <c r="E12">
-        <v>-6.337213826184945</v>
+        <v>-5.229960118892446</v>
       </c>
       <c r="F12">
-        <v>-6.339025267531972</v>
+        <v>-5.166074971475944</v>
       </c>
       <c r="G12">
-        <v>-6.343574901407678</v>
+        <v>-5.120407175859659</v>
       </c>
       <c r="H12">
-        <v>-6.342008243782765</v>
+        <v>-5.017114303156044</v>
       </c>
       <c r="I12">
-        <v>-6.339402942605503</v>
+        <v>-4.797336545860249</v>
       </c>
       <c r="J12">
-        <v>-6.2086133601578455</v>
+        <v>-4.657779444554219</v>
       </c>
       <c r="K12">
-        <v>-5.164294985682405</v>
+        <v>-4.509296613352322</v>
       </c>
       <c r="L12">
-        <v>-3.9628593977561737</v>
+        <v>-3.851440173888788</v>
       </c>
       <c r="M12">
-        <v>-3.1129540659160937</v>
+        <v>-2.946626974310965</v>
       </c>
       <c r="N12">
-        <v>-1.9994919189102744</v>
+        <v>-2.250868517896486</v>
       </c>
       <c r="O12">
-        <v>-0.9759413883429096</v>
+        <v>-1.8299537304920215</v>
       </c>
       <c r="P12">
-        <v>-0.34896784170008915</v>
+        <v>-0.48086287126060756</v>
       </c>
       <c r="Q12">
-        <v>-0.501853944984085</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.05470525861706529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16384">
       <c r="A13">
-        <v>-6.280701409498123</v>
+        <v>-4.736414505475539</v>
       </c>
       <c r="B13">
-        <v>-6.270869834688316</v>
+        <v>-4.76478398628307</v>
       </c>
       <c r="C13">
-        <v>-6.286160082285812</v>
+        <v>-4.746386795200992</v>
       </c>
       <c r="D13">
-        <v>-6.295089552548429</v>
+        <v>-4.723898498884667</v>
       </c>
       <c r="E13">
-        <v>-6.293822263380934</v>
+        <v>-4.700778540611009</v>
       </c>
       <c r="F13">
-        <v>-6.2922036212925185</v>
+        <v>-4.6658975868748715</v>
       </c>
       <c r="G13">
-        <v>-6.288749522912447</v>
+        <v>-4.638503992441525</v>
       </c>
       <c r="H13">
-        <v>-6.292902536424116</v>
+        <v>-4.611152741722353</v>
       </c>
       <c r="I13">
-        <v>-6.315308661527133</v>
+        <v>-4.536682982873973</v>
       </c>
       <c r="J13">
-        <v>-6.065462234790019</v>
+        <v>-4.465818098030103</v>
       </c>
       <c r="K13">
-        <v>-5.065931929299569</v>
+        <v>-4.354733559711661</v>
       </c>
       <c r="L13">
-        <v>-4.015248956779289</v>
+        <v>-3.78398180896884</v>
       </c>
       <c r="M13">
-        <v>-2.8996586567540175</v>
+        <v>-3.07934876481315</v>
       </c>
       <c r="N13">
-        <v>-2.4922023321866664</v>
+        <v>-2.817940876541082</v>
       </c>
       <c r="O13">
-        <v>-1.1471965255929828</v>
+        <v>-1.6883431993153553</v>
       </c>
       <c r="P13">
-        <v>-0.5357915581120085</v>
+        <v>-0.438261827371335</v>
       </c>
       <c r="Q13">
-        <v>-0.4746689277921898</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>-0.6676026717647341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16384">
       <c r="A14">
-        <v>-6.089203713637476</v>
+        <v>-4.013355251699514</v>
       </c>
       <c r="B14">
-        <v>-6.104649568338818</v>
+        <v>-4.001476117009528</v>
       </c>
       <c r="C14">
-        <v>-6.108218876856673</v>
+        <v>-3.9829538130377657</v>
       </c>
       <c r="D14">
-        <v>-6.126182997487029</v>
+        <v>-3.9464993325710087</v>
       </c>
       <c r="E14">
-        <v>-6.033266637794289</v>
+        <v>-3.9283031540373057</v>
       </c>
       <c r="F14">
-        <v>-6.117644106060717</v>
+        <v>-3.9220676705695254</v>
       </c>
       <c r="G14">
-        <v>-6.114757764493385</v>
+        <v>-3.917816263513563</v>
       </c>
       <c r="H14">
-        <v>-6.087707598181095</v>
+        <v>-3.919679153066032</v>
       </c>
       <c r="I14">
-        <v>-6.0730303872612295</v>
+        <v>-3.921528965766092</v>
       </c>
       <c r="J14">
-        <v>-6.035615977618017</v>
+        <v>-3.9202814099329935</v>
       </c>
       <c r="K14">
-        <v>-5.241424868122457</v>
+        <v>-3.9082149382954765</v>
       </c>
       <c r="L14">
-        <v>-3.9278917663743522</v>
+        <v>-3.6795470460825457</v>
       </c>
       <c r="M14">
-        <v>-2.9458885957268457</v>
+        <v>-3.200590189692414</v>
       </c>
       <c r="N14">
-        <v>-1.8302989378055814</v>
+        <v>-2.433982253612677</v>
       </c>
       <c r="O14">
-        <v>-1.2079963495697519</v>
+        <v>-1.6085748026315305</v>
       </c>
       <c r="P14">
-        <v>-0.4659116773143119</v>
+        <v>-0.4317003479213791</v>
       </c>
       <c r="Q14">
-        <v>-0.1942305047427573</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4125041921666796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16384">
       <c r="A15">
-        <v>-5.072178192929199</v>
+        <v>-3.50199462555304</v>
       </c>
       <c r="B15">
-        <v>-5.377724226435018</v>
+        <v>-3.4838614258040366</v>
       </c>
       <c r="C15">
-        <v>-5.377765963768074</v>
+        <v>-3.5041795627163204</v>
       </c>
       <c r="D15">
-        <v>-5.36481656125725</v>
+        <v>-3.4887485128688773</v>
       </c>
       <c r="E15">
-        <v>-5.349347535271387</v>
+        <v>-3.4736125069653347</v>
       </c>
       <c r="F15">
-        <v>-5.357323551755005</v>
+        <v>-3.470519886420087</v>
       </c>
       <c r="G15">
-        <v>-5.363513823612336</v>
+        <v>-3.4698678075961826</v>
       </c>
       <c r="H15">
-        <v>-5.356391018707613</v>
+        <v>-3.471291726474292</v>
       </c>
       <c r="I15">
-        <v>-5.351812820170153</v>
+        <v>-3.4798615473588144</v>
       </c>
       <c r="J15">
-        <v>-5.321386238489982</v>
+        <v>-3.4799156126603448</v>
       </c>
       <c r="K15">
-        <v>-4.923056240992662</v>
+        <v>-3.458440583647081</v>
       </c>
       <c r="L15">
-        <v>-3.7245121316316663</v>
+        <v>-3.4115627107765287</v>
       </c>
       <c r="M15">
-        <v>-3.045052891692222</v>
+        <v>-3.104747847598852</v>
       </c>
       <c r="N15">
-        <v>-2.222424730918163</v>
+        <v>-2.380164914505429</v>
       </c>
       <c r="O15">
-        <v>-1.100715965516617</v>
+        <v>-1.8742227121208195</v>
       </c>
       <c r="P15">
-        <v>-0.576192063962784</v>
+        <v>0.9501346468272233</v>
       </c>
       <c r="Q15">
-        <v>-0.2703238020129187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>-0.2063764555034064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16384">
       <c r="A16">
-        <v>-4.628594552214577</v>
+        <v>-3.308355700158472</v>
       </c>
       <c r="B16">
-        <v>-4.617141839201133</v>
+        <v>-3.248584215228786</v>
       </c>
       <c r="C16">
-        <v>-4.594124008091073</v>
+        <v>-3.3194857895245846</v>
       </c>
       <c r="D16">
-        <v>-4.563967646607854</v>
+        <v>-3.3225379569486595</v>
       </c>
       <c r="E16">
-        <v>-4.542066674338548</v>
+        <v>-3.322822134811321</v>
       </c>
       <c r="F16">
-        <v>-4.4778528193785165</v>
+        <v>-3.3182037899441044</v>
       </c>
       <c r="G16">
-        <v>-4.533518354449553</v>
+        <v>-3.3195280152064033</v>
       </c>
       <c r="H16">
-        <v>-4.536652457348172</v>
+        <v>-3.3125116490795348</v>
       </c>
       <c r="I16">
-        <v>-4.452396390196574</v>
+        <v>-3.2972610879989106</v>
       </c>
       <c r="J16">
-        <v>-4.52121321359951</v>
+        <v>-3.2618522846478384</v>
       </c>
       <c r="K16">
-        <v>-4.526099702393983</v>
+        <v>-3.1861344621823933</v>
       </c>
       <c r="L16">
-        <v>-4.07511802316609</v>
+        <v>-3.1015982628841283</v>
       </c>
       <c r="M16">
-        <v>-3.002866274238971</v>
+        <v>-3.015245951534137</v>
       </c>
       <c r="N16">
-        <v>-2.278595441796831</v>
+        <v>-2.148780130731198</v>
       </c>
       <c r="O16">
-        <v>-1.2359266142939411</v>
+        <v>-1.773292869938986</v>
       </c>
       <c r="P16">
-        <v>-0.3432940541913888</v>
+        <v>-0.1431065560522894</v>
       </c>
       <c r="Q16">
-        <v>-0.4294325296805748</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>-0.5527734732154072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16384">
       <c r="A17">
-        <v>-4.021663775501104</v>
+        <v>-3.275146763746868</v>
       </c>
       <c r="B17">
-        <v>-4.08926325830425</v>
+        <v>-3.1457583531831483</v>
       </c>
       <c r="C17">
-        <v>-4.058423429253104</v>
+        <v>-3.231780454609335</v>
       </c>
       <c r="D17">
-        <v>-3.8451824673499027</v>
+        <v>-3.2757925685496714</v>
       </c>
       <c r="E17">
-        <v>-3.977140827829538</v>
+        <v>-3.2704801721025416</v>
       </c>
       <c r="F17">
-        <v>-3.9879443323358217</v>
+        <v>-3.166679906837054</v>
       </c>
       <c r="G17">
-        <v>-3.9973449092681266</v>
+        <v>-3.142717151798376</v>
       </c>
       <c r="H17">
-        <v>-4.001268131818178</v>
+        <v>-3.2442544153854107</v>
       </c>
       <c r="I17">
-        <v>-3.6839791466100658</v>
+        <v>-3.07984091062321</v>
       </c>
       <c r="J17">
-        <v>-3.830287719573394</v>
+        <v>-3.1855872423465716</v>
       </c>
       <c r="K17">
-        <v>-3.8420056780717293</v>
+        <v>-3.0595199906523116</v>
       </c>
       <c r="L17">
-        <v>-3.5820875497305273</v>
+        <v>-2.9391247404563576</v>
       </c>
       <c r="M17">
-        <v>-2.931551916964432</v>
+        <v>-2.7476684310061716</v>
       </c>
       <c r="N17">
-        <v>-2.3604727579203133</v>
+        <v>-2.2240590088243875</v>
       </c>
       <c r="O17">
-        <v>-1.3355495057259836</v>
+        <v>-1.4223128391226445</v>
       </c>
       <c r="P17">
-        <v>-0.5079263138706295</v>
+        <v>-1.3668358021198306</v>
       </c>
       <c r="Q17">
-        <v>-0.3276581767108688</v>
+        <v>-0.003111804303103219</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/alpha.xlsx
+++ b/xlsx/alpha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/code/hrbc-plate/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\code\hrbc-plate\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61A0C8F-E389-6649-9395-90ED012CA7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BB980F-5579-4054-A699-090FC5A17152}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="51195" windowHeight="26595" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rectangular_cubic" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,6 @@
     <sheet name="cylinder_nitsche" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -50,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -430,10 +420,10 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -454,7 +444,7 @@
         <v>1.6251767639947596</v>
       </c>
       <c r="C2">
-        <v>-6.8395492902626733</v>
+        <v>-4.92929515774967</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -465,7 +455,7 @@
         <v>0.79577048542448103</v>
       </c>
       <c r="C3">
-        <v>-6.8395489689941913</v>
+        <v>-4.928242268776466</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -476,7 +466,7 @@
         <v>0.10528678445198128</v>
       </c>
       <c r="C4">
-        <v>-6.8395476542802269</v>
+        <v>-4.9174905808317098</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -487,7 +477,7 @@
         <v>-0.79156906674568683</v>
       </c>
       <c r="C5">
-        <v>-6.8395044922667676</v>
+        <v>-4.7814899637643684</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -498,7 +488,7 @@
         <v>-1.7771966667543819</v>
       </c>
       <c r="C6">
-        <v>-6.8363995667350972</v>
+        <v>-5.1228734108080856</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -509,7 +499,7 @@
         <v>-2.775068318922878</v>
       </c>
       <c r="C7">
-        <v>-4.7474154587739266</v>
+        <v>-3.0607411344661202</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -520,7 +510,7 @@
         <v>-3.7745634717236354</v>
       </c>
       <c r="C8">
-        <v>-6.9077913965189293</v>
+        <v>-6.5098283679318865</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -531,7 +521,7 @@
         <v>-4.7742142607287432</v>
       </c>
       <c r="C9">
-        <v>-7.9675879216978682</v>
+        <v>-6.7995020893623108</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -542,7 +532,7 @@
         <v>-5.7723779507047723</v>
       </c>
       <c r="C10">
-        <v>-8.0190427639481676</v>
+        <v>-6.7847642135923509</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -553,7 +543,7 @@
         <v>-6.7550911588002531</v>
       </c>
       <c r="C11">
-        <v>-8.016654180766098</v>
+        <v>-6.5982059222802159</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -564,7 +554,7 @@
         <v>-7.5918055740074388</v>
       </c>
       <c r="C12">
-        <v>-7.929608433110042</v>
+        <v>-6.3053127702217653</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -575,7 +565,7 @@
         <v>-7.7267119902410695</v>
       </c>
       <c r="C13">
-        <v>-7.7475288706152172</v>
+        <v>-6.0376791675548915</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -586,7 +576,7 @@
         <v>-7.4811092102027201</v>
       </c>
       <c r="C14">
-        <v>-7.4867866305334072</v>
+        <v>-5.6454790679494451</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -597,7 +587,7 @@
         <v>-7.1253916064052092</v>
       </c>
       <c r="C15">
-        <v>-7.127078475150797</v>
+        <v>-5.534877963180648</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -608,7 +598,7 @@
         <v>-7.0302480987375136</v>
       </c>
       <c r="C16">
-        <v>-7.0302149538157543</v>
+        <v>-5.4699112311867504</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -619,7 +609,7 @@
         <v>-6.9530343262664944</v>
       </c>
       <c r="C17">
-        <v>-6.9517655776885228</v>
+        <v>-5.2835718185907643</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -630,7 +620,7 @@
         <v>-6.749112469401588</v>
       </c>
       <c r="C18">
-        <v>-6.7271967308510332</v>
+        <v>-5.1327205698850564</v>
       </c>
     </row>
   </sheetData>
@@ -650,7 +640,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -668,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.6251767689375658</v>
+        <v>1.6251767683440785</v>
       </c>
       <c r="C2">
-        <v>-7.9382767435609773</v>
+        <v>-7.938236623749221</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -679,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7957704875399837</v>
+        <v>0.79577048745351331</v>
       </c>
       <c r="C3">
-        <v>-7.9382747733839372</v>
+        <v>-7.9382350464646994</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -690,10 +680,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1052867887904587</v>
+        <v>0.10528678877267598</v>
       </c>
       <c r="C4">
-        <v>-7.9382625907542828</v>
+        <v>-7.9382227178338525</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -701,10 +691,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.79156904868916922</v>
+        <v>-0.79156904870807787</v>
       </c>
       <c r="C5">
-        <v>-7.9381406931140974</v>
+        <v>-7.9381027045643302</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -712,10 +702,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-1.7771966008880808</v>
+        <v>-1.7771966009996309</v>
       </c>
       <c r="C6">
-        <v>-7.9369156686463196</v>
+        <v>-7.9368750196637592</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -723,10 +713,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-2.7750687909886129</v>
+        <v>-2.7750687921771173</v>
       </c>
       <c r="C7">
-        <v>-7.9244702739385611</v>
+        <v>-7.9244289555364995</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -734,10 +724,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-3.7745786869020281</v>
+        <v>-3.7745786983869634</v>
       </c>
       <c r="C8">
-        <v>-7.7737783878837128</v>
+        <v>-7.7737354909845324</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -745,10 +735,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-4.7744000040100465</v>
+        <v>-4.774400114325358</v>
       </c>
       <c r="C9">
-        <v>-8.3129634766460754</v>
+        <v>-8.312943350856953</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -756,10 +746,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-5.7742595249503452</v>
+        <v>-5.7742608006395217</v>
       </c>
       <c r="C10">
-        <v>-9.3239427144415359</v>
+        <v>-9.3263250578874537</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -767,10 +757,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-6.7735277708428452</v>
+        <v>-6.7735443317731177</v>
       </c>
       <c r="C11">
-        <v>-9.2740914481807781</v>
+        <v>-9.2778042109223779</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -778,10 +768,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-7.766338519736828</v>
+        <v>-7.7664271751051324</v>
       </c>
       <c r="C12">
-        <v>-9.2599157824903227</v>
+        <v>-9.2628941596248033</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -789,10 +779,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-8.6900610758089059</v>
+        <v>-8.6909932074445475</v>
       </c>
       <c r="C13">
-        <v>-9.2588920411410029</v>
+        <v>-9.2614729731693277</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -800,10 +790,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-9.1724100757229117</v>
+        <v>-9.1812493024290962</v>
       </c>
       <c r="C14">
-        <v>-9.2502680500605905</v>
+        <v>-9.2493801739840737</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -811,10 +801,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-9.1547442130069978</v>
+        <v>-9.1763466235035818</v>
       </c>
       <c r="C15">
-        <v>-9.296761529832736</v>
+        <v>-9.2718639163767484</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -822,10 +812,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-8.9688034133251353</v>
+        <v>-8.7569473953732206</v>
       </c>
       <c r="C16">
-        <v>-9.0263241978769919</v>
+        <v>-9.0400971297755834</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -833,10 +823,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-7.384437973443605</v>
+        <v>-7.3823548530244176</v>
       </c>
       <c r="C17">
-        <v>-7.7757667413354294</v>
+        <v>-8.0328735694566387</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -844,10 +834,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-6.8268942314120036</v>
+        <v>-6.7247305022531565</v>
       </c>
       <c r="C18">
-        <v>-6.3873233220322518</v>
+        <v>-6.3757828768513791</v>
       </c>
     </row>
   </sheetData>
@@ -868,7 +858,7 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -886,7 +876,7 @@
         <v>-0.30426571568660621</v>
       </c>
       <c r="C2">
-        <v>-4.4772894484078281</v>
+        <v>-4.744927663172256</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -894,7 +884,7 @@
         <v>-1.2962574680185306</v>
       </c>
       <c r="C3">
-        <v>-4.3436419856843109</v>
+        <v>-4.57567796545358</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -902,7 +892,7 @@
         <v>-2.2944236745659894</v>
       </c>
       <c r="C4">
-        <v>-4.1733596812117355</v>
+        <v>-5.1213288636247905</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -910,7 +900,7 @@
         <v>-3.2938496003401365</v>
       </c>
       <c r="C5">
-        <v>-4.6035433027582924</v>
+        <v>-5.089939828557822</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -918,7 +908,7 @@
         <v>-4.2948064169224214</v>
       </c>
       <c r="C6">
-        <v>-5.0311815201164851</v>
+        <v>-4.53704020720574</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -926,7 +916,7 @@
         <v>-5.3005976892050457</v>
       </c>
       <c r="C7">
-        <v>-5.2579677226216699</v>
+        <v>-5.872676482506409</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -934,7 +924,7 @@
         <v>-5.9965992674335258</v>
       </c>
       <c r="C8">
-        <v>-6.0114423245470849</v>
+        <v>-6.6582414622533985</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -942,7 +932,7 @@
         <v>-6.0083365094585979</v>
       </c>
       <c r="C9">
-        <v>-6.0074194915976511</v>
+        <v>-6.657486817594694</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -950,7 +940,7 @@
         <v>-5.9380718591886463</v>
       </c>
       <c r="C10">
-        <v>-5.9373123875158438</v>
+        <v>-6.488648911482098</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -958,7 +948,7 @@
         <v>-5.6643080379084534</v>
       </c>
       <c r="C11">
-        <v>-5.66463165535255</v>
+        <v>-6.177825541105453</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -966,7 +956,7 @@
         <v>-5.2336325057669155</v>
       </c>
       <c r="C12">
-        <v>-5.2338155791599039</v>
+        <v>-5.8020966003595404</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -974,7 +964,7 @@
         <v>-4.8787771077221924</v>
       </c>
       <c r="C13">
-        <v>-4.8788011881547204</v>
+        <v>-5.300229550527393</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -982,7 +972,7 @@
         <v>-4.6002777152271799</v>
       </c>
       <c r="C14">
-        <v>-4.6002899384844058</v>
+        <v>-4.577352536899866</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -990,7 +980,7 @@
         <v>-3.8572766108251355</v>
       </c>
       <c r="C15">
-        <v>-3.8571989446428678</v>
+        <v>-3.725215231705153</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -998,7 +988,7 @@
         <v>-3.1867719067728943</v>
       </c>
       <c r="C16">
-        <v>-3.1870216523327182</v>
+        <v>-3.099723313751473</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1006,7 +996,7 @@
         <v>-2.9137693114502858</v>
       </c>
       <c r="C17">
-        <v>-2.9134397411998036</v>
+        <v>-2.9092474030684548</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1014,7 +1004,7 @@
         <v>-2.8715750484792588</v>
       </c>
       <c r="C18">
-        <v>-2.8723872645442756</v>
+        <v>-2.9078655456336997</v>
       </c>
     </row>
   </sheetData>
@@ -1028,148 +1018,210 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:C18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2">
-        <v>-0.30426558037798723</v>
+        <v>-0.3042655803774274</v>
       </c>
       <c r="C2">
-        <v>-1.4999319221749621</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
+        <v>-6.833962928593035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
-        <v>-1.2962561474568377</v>
+        <v>-1.2962561474510552</v>
       </c>
       <c r="C3">
-        <v>-1.0862476640901144</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+        <v>-6.837355381358714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4">
-        <v>-2.2944102755737008</v>
+        <v>-2.294410275554717</v>
       </c>
       <c r="C4">
-        <v>-2.104765939990727</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+        <v>-6.841117324728654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5">
-        <v>-3.2937108858669371</v>
+        <v>-3.2937108850156025</v>
       </c>
       <c r="C5">
-        <v>-1.8889130254766944</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
+        <v>-6.770337357999736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6">
-        <v>-4.2934059616518194</v>
+        <v>-4.2934059545880805</v>
       </c>
       <c r="C6">
-        <v>-2.9947237311872619</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <v>-5.83498655766859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7">
-        <v>-5.2932719295011523</v>
+        <v>-5.293271948846289</v>
       </c>
       <c r="C7">
-        <v>-2.777055035159929</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+        <v>-6.668904725453894</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8">
-        <v>-6.2929856639260899</v>
+        <v>-6.29298533370009</v>
       </c>
       <c r="C8">
-        <v>-2.1739679327037003</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
+        <v>-6.986605076106738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9">
-        <v>-7.2805197945141051</v>
+        <v>-7.280518121513502</v>
       </c>
       <c r="C9">
-        <v>-1.6143761594396533</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
+        <v>-7.766707519415617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10">
-        <v>-7.7626160725323032</v>
+        <v>-7.762601881525265</v>
       </c>
       <c r="C10">
-        <v>-1.0636229195779388</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
+        <v>-7.790626450500736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="B11">
-        <v>-7.3312156374831723</v>
+        <v>-7.331217374599785</v>
       </c>
       <c r="C11">
-        <v>-0.66259155215793142</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
+        <v>-7.332304724290231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="B12">
-        <v>-6.852891425493449</v>
+        <v>-6.852876053135902</v>
       </c>
       <c r="C12">
-        <v>-0.49479140239139796</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
+        <v>-6.855273402507752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13">
-        <v>-6.4329608905334013</v>
+        <v>-6.432997025701109</v>
       </c>
       <c r="C13">
-        <v>-0.46420436573418272</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
+        <v>-6.43409718664815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14">
-        <v>-6.0489163343731125</v>
+        <v>-6.048989579779557</v>
       </c>
       <c r="C14">
-        <v>-0.46079296042476536</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
+        <v>-6.04986028751425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="B15">
-        <v>-5.3518962227785503</v>
+        <v>-5.354278351275724</v>
       </c>
       <c r="C15">
-        <v>-0.46044673425359756</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
+        <v>-5.360840413103526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
       <c r="B16">
-        <v>-4.4882073058273182</v>
+        <v>-4.4931953442942</v>
       </c>
       <c r="C16">
-        <v>-0.46021761254866017</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+        <v>-4.487831069880142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>15</v>
+      </c>
       <c r="B17">
-        <v>-3.679087239942886</v>
+        <v>-3.6740875773231125</v>
       </c>
       <c r="C17">
-        <v>-0.45946877357516253</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
+        <v>-3.667480401564154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>16</v>
+      </c>
       <c r="B18">
-        <v>-2.808183165819901</v>
+        <v>-2.7915443165486677</v>
       </c>
       <c r="C18">
-        <v>-0.44055833996495514</v>
+        <v>-2.79634987398472</v>
       </c>
     </row>
   </sheetData>
@@ -1187,907 +1239,907 @@
       <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1">
-        <v>-2.3728182579430457</v>
+        <v>-5.930385550491285</v>
       </c>
       <c r="B1">
-        <v>-2.7247968615882523</v>
+        <v>-2.7202911559466902</v>
       </c>
       <c r="C1">
-        <v>-3.5096417852181885</v>
+        <v>-3.505005028258455</v>
       </c>
       <c r="D1">
-        <v>-4.524547456365156</v>
+        <v>-4.502634988204189</v>
       </c>
       <c r="E1">
-        <v>-5.236615155751848</v>
+        <v>-5.458668882004754</v>
       </c>
       <c r="F1">
-        <v>-5.121753538395274</v>
+        <v>-5.3237423298547775</v>
       </c>
       <c r="G1">
-        <v>-5.105595361586916</v>
+        <v>-5.302138533646502</v>
       </c>
       <c r="H1">
-        <v>-5.105004864637717</v>
+        <v>-5.3058175866451265</v>
       </c>
       <c r="I1">
-        <v>-5.070583179786443</v>
+        <v>-5.5618871113278505</v>
       </c>
       <c r="J1">
-        <v>-4.233806826239331</v>
+        <v>-4.1233634660876985</v>
       </c>
       <c r="K1">
-        <v>-3.6080571063091686</v>
+        <v>-3.800527581358285</v>
       </c>
       <c r="L1">
-        <v>-2.769165786497492</v>
+        <v>-2.793941681014446</v>
       </c>
       <c r="M1">
-        <v>-2.535812812417017</v>
+        <v>-2.359234848611479</v>
       </c>
       <c r="N1">
-        <v>-1.503181949052866</v>
+        <v>-0.4726531794358668</v>
       </c>
       <c r="O1">
-        <v>-0.7257929770359536</v>
+        <v>-0.46852695266738015</v>
       </c>
       <c r="P1">
-        <v>-0.5747221672479451</v>
+        <v>-0.18507862294739622</v>
       </c>
       <c r="Q1">
-        <v>-0.03735047852193131</v>
+        <v>-0.12459438891670677</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2">
-        <v>-2.427168055164068</v>
+        <v>-2.3907959904597877</v>
       </c>
       <c r="B2">
-        <v>-2.7734369588314385</v>
+        <v>-2.741755789586577</v>
       </c>
       <c r="C2">
-        <v>-3.545868948114052</v>
+        <v>-3.525310835673295</v>
       </c>
       <c r="D2">
-        <v>-4.5273635873104014</v>
+        <v>-4.516272185265166</v>
       </c>
       <c r="E2">
-        <v>-5.261163948008953</v>
+        <v>-5.48491682632488</v>
       </c>
       <c r="F2">
-        <v>-5.152656155278282</v>
+        <v>-5.365336844438033</v>
       </c>
       <c r="G2">
-        <v>-5.124201787360092</v>
+        <v>-5.338692244128063</v>
       </c>
       <c r="H2">
-        <v>-5.117574569887199</v>
+        <v>-5.327019986666869</v>
       </c>
       <c r="I2">
-        <v>-5.105219881470287</v>
+        <v>-5.61470813209374</v>
       </c>
       <c r="J2">
-        <v>-3.018405769364046</v>
+        <v>-4.116666935192954</v>
       </c>
       <c r="K2">
-        <v>-2.929130543782834</v>
+        <v>-4.2363726563183</v>
       </c>
       <c r="L2">
-        <v>-2.6990764728213223</v>
+        <v>-3.238959680558881</v>
       </c>
       <c r="M2">
-        <v>-2.4855523180408188</v>
+        <v>-2.496432655697521</v>
       </c>
       <c r="N2">
-        <v>-2.15777318482833</v>
+        <v>-1.0167951269874604</v>
       </c>
       <c r="O2">
-        <v>-1.3652297616571727</v>
+        <v>-0.7107136287494505</v>
       </c>
       <c r="P2">
-        <v>-0.42151702246394607</v>
+        <v>-0.22115194502348406</v>
       </c>
       <c r="Q2">
-        <v>-0.17860939334226625</v>
+        <v>-0.2109746542196265</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
-        <v>-2.5941034076214895</v>
+        <v>-2.512526172301147</v>
       </c>
       <c r="B3">
-        <v>-2.9230589458012957</v>
+        <v>-2.8535125813829505</v>
       </c>
       <c r="C3">
-        <v>-3.6893972963108443</v>
+        <v>-3.6367571717299287</v>
       </c>
       <c r="D3">
-        <v>-4.625115522922803</v>
+        <v>-4.610957452186343</v>
       </c>
       <c r="E3">
-        <v>-5.310826647798432</v>
+        <v>-5.596524225230545</v>
       </c>
       <c r="F3">
-        <v>-5.258555233523648</v>
+        <v>-5.599083847147002</v>
       </c>
       <c r="G3">
-        <v>-5.236250787235305</v>
+        <v>-5.56273694261442</v>
       </c>
       <c r="H3">
-        <v>-5.22361583501253</v>
+        <v>-5.534828867869396</v>
       </c>
       <c r="I3">
-        <v>-5.214621086483849</v>
+        <v>-5.780936698988245</v>
       </c>
       <c r="J3">
-        <v>-2.9992889804091534</v>
+        <v>-4.097233361684508</v>
       </c>
       <c r="K3">
-        <v>-2.886588407463337</v>
+        <v>-4.099993324239402</v>
       </c>
       <c r="L3">
-        <v>-2.608145877719278</v>
+        <v>-3.3978792294418003</v>
       </c>
       <c r="M3">
-        <v>-2.3321732438372935</v>
+        <v>-2.5883745514656824</v>
       </c>
       <c r="N3">
-        <v>-1.9641921014786567</v>
+        <v>-1.2743090555389909</v>
       </c>
       <c r="O3">
-        <v>-1.368415782956606</v>
+        <v>-0.9305849637022715</v>
       </c>
       <c r="P3">
-        <v>-0.3642394040479844</v>
+        <v>-0.5397855371256949</v>
       </c>
       <c r="Q3">
-        <v>0.3236177721430523</v>
+        <v>1.248891253100922</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4">
-        <v>-2.6973303276797838</v>
+        <v>-2.6983937010406187</v>
       </c>
       <c r="B4">
-        <v>-3.0175358881504772</v>
+        <v>-3.0188463232915246</v>
       </c>
       <c r="C4">
-        <v>-3.783716988300144</v>
+        <v>-3.7830630669648935</v>
       </c>
       <c r="D4">
-        <v>-4.714483190710958</v>
+        <v>-4.72862862650134</v>
       </c>
       <c r="E4">
-        <v>-5.427801431330906</v>
+        <v>-5.7092404452191605</v>
       </c>
       <c r="F4">
-        <v>-5.446235287638318</v>
+        <v>-6.574308960605357</v>
       </c>
       <c r="G4">
-        <v>-5.437481920318082</v>
+        <v>-6.737947097894277</v>
       </c>
       <c r="H4">
-        <v>-5.42750605054707</v>
+        <v>-6.746741838238032</v>
       </c>
       <c r="I4">
-        <v>-5.409193074376537</v>
+        <v>-6.737983531158375</v>
       </c>
       <c r="J4">
-        <v>-2.995954519879538</v>
+        <v>-4.090651269157708</v>
       </c>
       <c r="K4">
-        <v>-2.8732271463611228</v>
+        <v>-4.3512930063578015</v>
       </c>
       <c r="L4">
-        <v>-2.563792791952487</v>
+        <v>-3.5964982630816555</v>
       </c>
       <c r="M4">
-        <v>-2.2546043145364005</v>
+        <v>-2.3595773478419684</v>
       </c>
       <c r="N4">
-        <v>-2.0643599120605662</v>
+        <v>-1.3998893561423602</v>
       </c>
       <c r="O4">
-        <v>-1.8573092545738736</v>
+        <v>-0.6739856481187577</v>
       </c>
       <c r="P4">
-        <v>-0.757683723246379</v>
+        <v>-0.570253026361047</v>
       </c>
       <c r="Q4">
-        <v>0.002330826201126562</v>
+        <v>0.0685020401005433</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
-        <v>-2.715610148351467</v>
+        <v>-2.707784364817181</v>
       </c>
       <c r="B5">
-        <v>-3.037779673791536</v>
+        <v>-3.0280489625446814</v>
       </c>
       <c r="C5">
-        <v>-3.8031895691945157</v>
+        <v>-3.7841575864640733</v>
       </c>
       <c r="D5">
-        <v>-4.741610350340229</v>
+        <v>-4.712010913490679</v>
       </c>
       <c r="E5">
-        <v>-5.423317352118077</v>
+        <v>-5.67577081016331</v>
       </c>
       <c r="F5">
-        <v>-5.455691922059557</v>
+        <v>-6.218672946842134</v>
       </c>
       <c r="G5">
-        <v>-5.4511878992088</v>
+        <v>-6.407840814393284</v>
       </c>
       <c r="H5">
-        <v>-5.447962027819051</v>
+        <v>-6.416547770065556</v>
       </c>
       <c r="I5">
-        <v>-5.4342197869644</v>
+        <v>-6.220415985725586</v>
       </c>
       <c r="J5">
-        <v>-2.9938879374576066</v>
+        <v>-4.107992991448456</v>
       </c>
       <c r="K5">
-        <v>-2.8645276294970836</v>
+        <v>-4.137524738709463</v>
       </c>
       <c r="L5">
-        <v>-2.5420009281270164</v>
+        <v>-3.441927401369806</v>
       </c>
       <c r="M5">
-        <v>-2.2155777717746923</v>
+        <v>-2.4176213798639368</v>
       </c>
       <c r="N5">
-        <v>-1.95177946081979</v>
+        <v>-1.2520990426127134</v>
       </c>
       <c r="O5">
-        <v>-1.7370654273867425</v>
+        <v>-0.6170306459394814</v>
       </c>
       <c r="P5">
-        <v>0.042394939557187546</v>
+        <v>-0.7182201211099772</v>
       </c>
       <c r="Q5">
-        <v>0.3848170994554271</v>
+        <v>-0.0019009607510887747</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
-        <v>-2.7188633898930186</v>
+        <v>-2.716190775687766</v>
       </c>
       <c r="B6">
-        <v>-3.041799549128738</v>
+        <v>-3.0366738280033947</v>
       </c>
       <c r="C6">
-        <v>-3.8066124499556087</v>
+        <v>-3.7964872645437877</v>
       </c>
       <c r="D6">
-        <v>-4.751176953821824</v>
+        <v>-4.767535507671188</v>
       </c>
       <c r="E6">
-        <v>-5.4190209867970545</v>
+        <v>-5.110619527936334</v>
       </c>
       <c r="F6">
-        <v>-5.45004934858097</v>
+        <v>-5.565843640030482</v>
       </c>
       <c r="G6">
-        <v>-5.44659978303742</v>
+        <v>-5.667684007102083</v>
       </c>
       <c r="H6">
-        <v>-5.448619703539081</v>
+        <v>-6.073541488614719</v>
       </c>
       <c r="I6">
-        <v>-5.4318192898577085</v>
+        <v>-6.058445382132993</v>
       </c>
       <c r="J6">
-        <v>-2.9933237802917434</v>
+        <v>-4.101194720415132</v>
       </c>
       <c r="K6">
-        <v>-2.8615506592160376</v>
+        <v>-4.4637356478203145</v>
       </c>
       <c r="L6">
-        <v>-2.535597909974564</v>
+        <v>-3.399651327524965</v>
       </c>
       <c r="M6">
-        <v>-2.2094922773504404</v>
+        <v>-2.2997856862443795</v>
       </c>
       <c r="N6">
-        <v>-1.9609611256489798</v>
+        <v>-1.1731629103819639</v>
       </c>
       <c r="O6">
-        <v>-1.4751462050294766</v>
+        <v>-0.837450565997913</v>
       </c>
       <c r="P6">
-        <v>-0.6770027738604907</v>
+        <v>-0.6305000126510687</v>
       </c>
       <c r="Q6">
-        <v>-0.055514475515547786</v>
+        <v>0.1918663785521413</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
-        <v>-2.719076363704914</v>
+        <v>-2.718878460678273</v>
       </c>
       <c r="B7">
-        <v>-3.0425378286630775</v>
+        <v>-3.038652980561154</v>
       </c>
       <c r="C7">
-        <v>-3.8072412114709717</v>
+        <v>-3.807148117141368</v>
       </c>
       <c r="D7">
-        <v>-4.733056880393701</v>
+        <v>-3.988309479773372</v>
       </c>
       <c r="E7">
-        <v>-5.407852739247888</v>
+        <v>-5.590774446477086</v>
       </c>
       <c r="F7">
-        <v>-5.419700387038245</v>
+        <v>-5.322255489618791</v>
       </c>
       <c r="G7">
-        <v>-5.454766856248233</v>
+        <v>-4.4913203662491465</v>
       </c>
       <c r="H7">
-        <v>-5.440398706943167</v>
+        <v>-4.836526956141746</v>
       </c>
       <c r="I7">
-        <v>-5.316523875615959</v>
+        <v>-4.78315861530727</v>
       </c>
       <c r="J7">
-        <v>-2.9749452447368636</v>
+        <v>-4.118283473082767</v>
       </c>
       <c r="K7">
-        <v>-2.839758297870384</v>
+        <v>-4.346539240551173</v>
       </c>
       <c r="L7">
-        <v>-2.515407767896144</v>
+        <v>-3.430084604225916</v>
       </c>
       <c r="M7">
-        <v>-2.1878321405230774</v>
+        <v>-2.375989560054763</v>
       </c>
       <c r="N7">
-        <v>-1.8858641508807377</v>
+        <v>-1.2522871900031758</v>
       </c>
       <c r="O7">
-        <v>-1.351864011631129</v>
+        <v>-1.1797913504338458</v>
       </c>
       <c r="P7">
-        <v>-0.5391025392196863</v>
+        <v>-0.7050264207141693</v>
       </c>
       <c r="Q7">
-        <v>0.4757760393188099</v>
+        <v>-0.30452454241317695</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
-        <v>-2.4618290836055037</v>
+        <v>-2.4092157677247648</v>
       </c>
       <c r="B8">
-        <v>-2.7955436517170384</v>
+        <v>-2.761069303320958</v>
       </c>
       <c r="C8">
-        <v>-3.6899567085315836</v>
+        <v>-3.5825394092857312</v>
       </c>
       <c r="D8">
-        <v>-3.485784017753618</v>
+        <v>-4.316073546021457</v>
       </c>
       <c r="E8">
-        <v>-3.4314527561672565</v>
+        <v>-4.204473021340945</v>
       </c>
       <c r="F8">
-        <v>-3.3820975393645156</v>
+        <v>-4.183677175519384</v>
       </c>
       <c r="G8">
-        <v>-3.291115217601938</v>
+        <v>-4.178428803813952</v>
       </c>
       <c r="H8">
-        <v>-3.142072080227735</v>
+        <v>-4.177762734938744</v>
       </c>
       <c r="I8">
-        <v>-2.98793007122033</v>
+        <v>-4.179463487518692</v>
       </c>
       <c r="J8">
-        <v>-2.880588672283871</v>
+        <v>-4.20474749507632</v>
       </c>
       <c r="K8">
-        <v>-2.7514961436653813</v>
+        <v>-4.29430177750938</v>
       </c>
       <c r="L8">
-        <v>-2.444431066058642</v>
+        <v>-3.5928467943247004</v>
       </c>
       <c r="M8">
-        <v>-2.118273130450349</v>
+        <v>-2.578183016020052</v>
       </c>
       <c r="N8">
-        <v>-1.897845983291763</v>
+        <v>-1.4288694508043818</v>
       </c>
       <c r="O8">
-        <v>-1.7118986308121755</v>
+        <v>-1.0314477183270276</v>
       </c>
       <c r="P8">
-        <v>-1.2781445691949125</v>
+        <v>-0.6514923553213781</v>
       </c>
       <c r="Q8">
-        <v>-0.1904991221192661</v>
+        <v>0.8799420625816711</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
-        <v>-2.5193318505420965</v>
+        <v>-2.527650235154845</v>
       </c>
       <c r="B9">
-        <v>-2.8389400711272064</v>
+        <v>-2.8597180222182863</v>
       </c>
       <c r="C9">
-        <v>-3.6748898827253194</v>
+        <v>-3.6333458228537294</v>
       </c>
       <c r="D9">
-        <v>-3.5009787720769654</v>
+        <v>-4.561965101791188</v>
       </c>
       <c r="E9">
-        <v>-3.439997001258561</v>
+        <v>-4.583058390917388</v>
       </c>
       <c r="F9">
-        <v>-3.381360552144039</v>
+        <v>-4.550250378521001</v>
       </c>
       <c r="G9">
-        <v>-3.284278668728907</v>
+        <v>-4.537758357127826</v>
       </c>
       <c r="H9">
-        <v>-3.113102236868174</v>
+        <v>-4.536825016308067</v>
       </c>
       <c r="I9">
-        <v>-2.9278463580487726</v>
+        <v>-4.544334898097713</v>
       </c>
       <c r="J9">
-        <v>-2.802234992410783</v>
+        <v>-4.576309469284234</v>
       </c>
       <c r="K9">
-        <v>-2.676524303369746</v>
+        <v>-4.798633574167549</v>
       </c>
       <c r="L9">
-        <v>-2.3889832292664783</v>
+        <v>-4.076238605034272</v>
       </c>
       <c r="M9">
-        <v>-2.0503213165192546</v>
+        <v>-3.1792140423736654</v>
       </c>
       <c r="N9">
-        <v>-1.7842207017437728</v>
+        <v>-1.5039640703108306</v>
       </c>
       <c r="O9">
-        <v>-1.694393376441203</v>
+        <v>-1.0042969029163777</v>
       </c>
       <c r="P9">
-        <v>-1.0216793252690337</v>
+        <v>-0.5722851707308443</v>
       </c>
       <c r="Q9">
-        <v>-0.39795527641887357</v>
+        <v>-0.38836953433966775</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
-        <v>-2.6514139411203894</v>
+        <v>-2.623208090857458</v>
       </c>
       <c r="B10">
-        <v>-2.9356208225590232</v>
+        <v>-2.944572263262818</v>
       </c>
       <c r="C10">
-        <v>-3.6583085884136177</v>
+        <v>-3.7046353135875267</v>
       </c>
       <c r="D10">
-        <v>-3.495867963416</v>
+        <v>-4.667251522331039</v>
       </c>
       <c r="E10">
-        <v>-3.4293698865206816</v>
+        <v>-5.380467118020016</v>
       </c>
       <c r="F10">
-        <v>-3.3627851589437685</v>
+        <v>-5.3477314974512185</v>
       </c>
       <c r="G10">
-        <v>-3.281064501989017</v>
+        <v>-5.349120940783867</v>
       </c>
       <c r="H10">
-        <v>-3.109087134388994</v>
+        <v>-5.36594948769587</v>
       </c>
       <c r="I10">
-        <v>-2.9054903301585195</v>
+        <v>-5.355378622435901</v>
       </c>
       <c r="J10">
-        <v>-2.777307197320613</v>
+        <v>-5.272940306105414</v>
       </c>
       <c r="K10">
-        <v>-2.666234143889834</v>
+        <v>-4.872432307891852</v>
       </c>
       <c r="L10">
-        <v>-2.4078801845612166</v>
+        <v>-3.7416761607099316</v>
       </c>
       <c r="M10">
-        <v>-2.0328267827277196</v>
+        <v>-3.4582031411519516</v>
       </c>
       <c r="N10">
-        <v>-1.7240342855562854</v>
+        <v>-1.7640249551341065</v>
       </c>
       <c r="O10">
-        <v>-1.5225809319784473</v>
+        <v>-1.700121760413326</v>
       </c>
       <c r="P10">
-        <v>-1.2050091205069222</v>
+        <v>-0.4604590128059302</v>
       </c>
       <c r="Q10">
-        <v>-0.6423990962633335</v>
+        <v>0.0523968027951591</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11">
-        <v>-2.8223287346748327</v>
+        <v>-2.656434723127894</v>
       </c>
       <c r="B11">
-        <v>-3.039706986793012</v>
+        <v>-2.9761501929347287</v>
       </c>
       <c r="C11">
-        <v>-3.3994812964707606</v>
+        <v>-3.732988411359406</v>
       </c>
       <c r="D11">
-        <v>-3.3177287792416115</v>
+        <v>-4.676778808594335</v>
       </c>
       <c r="E11">
-        <v>-3.2698661397206377</v>
+        <v>-5.472790288713816</v>
       </c>
       <c r="F11">
-        <v>-3.21853442199071</v>
+        <v>-5.575214892595748</v>
       </c>
       <c r="G11">
-        <v>-3.156689422743961</v>
+        <v>-5.572669422791345</v>
       </c>
       <c r="H11">
-        <v>-3.032442011493326</v>
+        <v>-5.550296830485702</v>
       </c>
       <c r="I11">
-        <v>-2.841870591225762</v>
+        <v>-5.407753668235625</v>
       </c>
       <c r="J11">
-        <v>-2.6957584691113228</v>
+        <v>-5.1837080831220055</v>
       </c>
       <c r="K11">
-        <v>-2.604707973742401</v>
+        <v>-4.884748274739514</v>
       </c>
       <c r="L11">
-        <v>-2.407655293756963</v>
+        <v>-3.8680418551810902</v>
       </c>
       <c r="M11">
-        <v>-2.009851021997213</v>
+        <v>-3.5449449505408324</v>
       </c>
       <c r="N11">
-        <v>-1.626462280007309</v>
+        <v>-1.8504948469229472</v>
       </c>
       <c r="O11">
-        <v>-1.4035363484738987</v>
+        <v>-1.2358410050360482</v>
       </c>
       <c r="P11">
-        <v>-1.1625969643496896</v>
+        <v>-0.5834799140334759</v>
       </c>
       <c r="Q11">
-        <v>-0.4963504780034821</v>
+        <v>0.18628451135061055</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12">
-        <v>-2.8145855742705455</v>
+        <v>-2.6771070447091083</v>
       </c>
       <c r="B12">
-        <v>-2.8738401574562413</v>
+        <v>-2.9938168980250266</v>
       </c>
       <c r="C12">
-        <v>-2.8983851472663846</v>
+        <v>-3.7433515695258768</v>
       </c>
       <c r="D12">
-        <v>-2.8549479920188094</v>
+        <v>-4.681386684298123</v>
       </c>
       <c r="E12">
-        <v>-2.8386638597244453</v>
+        <v>-5.393437598985659</v>
       </c>
       <c r="F12">
-        <v>-2.8302360003784632</v>
+        <v>-5.46248396621082</v>
       </c>
       <c r="G12">
-        <v>-2.8062869539850612</v>
+        <v>-5.455248266146877</v>
       </c>
       <c r="H12">
-        <v>-2.738603757296185</v>
+        <v>-5.4329535696743365</v>
       </c>
       <c r="I12">
-        <v>-2.6147700626998622</v>
+        <v>-5.309660586291333</v>
       </c>
       <c r="J12">
-        <v>-2.4893506717382796</v>
+        <v>-5.106818417034775</v>
       </c>
       <c r="K12">
-        <v>-2.430308042780393</v>
+        <v>-4.823820385055696</v>
       </c>
       <c r="L12">
-        <v>-2.2973146703566605</v>
+        <v>-4.050618009394641</v>
       </c>
       <c r="M12">
-        <v>-1.9647067081660734</v>
+        <v>-3.3056214333531426</v>
       </c>
       <c r="N12">
-        <v>-1.5175907638229518</v>
+        <v>-2.0890692373438955</v>
       </c>
       <c r="O12">
-        <v>-1.3003207836845383</v>
+        <v>-1.1279406785645378</v>
       </c>
       <c r="P12">
-        <v>-1.2833457139563063</v>
+        <v>-0.511680471073666</v>
       </c>
       <c r="Q12">
-        <v>-0.9871910208996854</v>
+        <v>-0.36065645096330257</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13">
-        <v>-2.596347765964591</v>
+        <v>-2.7038488441866146</v>
       </c>
       <c r="B13">
-        <v>-2.5968506884410347</v>
+        <v>-3.01661009192074</v>
       </c>
       <c r="C13">
-        <v>-2.5818348829909743</v>
+        <v>-3.763065232934768</v>
       </c>
       <c r="D13">
-        <v>-2.5589321035926114</v>
+        <v>-4.715238759283993</v>
       </c>
       <c r="E13">
-        <v>-2.5395600440266466</v>
+        <v>-5.078201120682991</v>
       </c>
       <c r="F13">
-        <v>-2.5380700958030897</v>
+        <v>-5.049075995039362</v>
       </c>
       <c r="G13">
-        <v>-2.5232182307407416</v>
+        <v>-5.0347620027316555</v>
       </c>
       <c r="H13">
-        <v>-2.4692187459122668</v>
+        <v>-5.021044227375429</v>
       </c>
       <c r="I13">
-        <v>-2.3488762431354764</v>
+        <v>-4.9830735087143</v>
       </c>
       <c r="J13">
-        <v>-2.202852714280831</v>
+        <v>-4.885492455914802</v>
       </c>
       <c r="K13">
-        <v>-2.1785245255877435</v>
+        <v>-4.728987843204384</v>
       </c>
       <c r="L13">
-        <v>-2.1399804439577563</v>
+        <v>-3.7607044673652807</v>
       </c>
       <c r="M13">
-        <v>-1.964728856269557</v>
+        <v>-3.3615342849570804</v>
       </c>
       <c r="N13">
-        <v>-1.4983360478232237</v>
+        <v>-2.165574858503064</v>
       </c>
       <c r="O13">
-        <v>-1.249596300184582</v>
+        <v>-1.1758266844254566</v>
       </c>
       <c r="P13">
-        <v>-1.2051887373824892</v>
+        <v>-0.19516995305618984</v>
       </c>
       <c r="Q13">
-        <v>-0.8614340185769777</v>
+        <v>-0.1271866485468192</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
-        <v>-2.3656530039964423</v>
+        <v>-2.7123385638493938</v>
       </c>
       <c r="B14">
-        <v>-2.398342502601835</v>
+        <v>-3.019985709799179</v>
       </c>
       <c r="C14">
-        <v>-2.4281158604176767</v>
+        <v>-3.757783711392883</v>
       </c>
       <c r="D14">
-        <v>-2.4393090339016283</v>
+        <v>-4.3367947823607365</v>
       </c>
       <c r="E14">
-        <v>-2.4386299928289206</v>
+        <v>-4.255967900917449</v>
       </c>
       <c r="F14">
-        <v>-2.4323164560865194</v>
+        <v>-4.238039472026499</v>
       </c>
       <c r="G14">
-        <v>-2.4239471535089825</v>
+        <v>-4.234727904736618</v>
       </c>
       <c r="H14">
-        <v>-2.340114378659512</v>
+        <v>-4.2350872635538455</v>
       </c>
       <c r="I14">
-        <v>-2.1606636616853603</v>
+        <v>-4.232855218476285</v>
       </c>
       <c r="J14">
-        <v>-2.0227653318286896</v>
+        <v>-4.232128807549669</v>
       </c>
       <c r="K14">
-        <v>-1.9760292832588304</v>
+        <v>-4.213504885950672</v>
       </c>
       <c r="L14">
-        <v>-2.0085969879186227</v>
+        <v>-3.7187249739233965</v>
       </c>
       <c r="M14">
-        <v>-2.0216372670681357</v>
+        <v>-3.17799141351069</v>
       </c>
       <c r="N14">
-        <v>-1.809143661576736</v>
+        <v>-2.0099699821137924</v>
       </c>
       <c r="O14">
-        <v>-1.3857711656762663</v>
+        <v>-1.2351917816636842</v>
       </c>
       <c r="P14">
-        <v>-1.2186466795489375</v>
+        <v>0.7985713784270128</v>
       </c>
       <c r="Q14">
-        <v>-1.2448199328971288</v>
+        <v>-0.3084039301901899</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15">
-        <v>-2.1457201617966586</v>
+        <v>-2.7275659630738645</v>
       </c>
       <c r="B15">
-        <v>-2.1708520355729815</v>
+        <v>-3.0379822843784936</v>
       </c>
       <c r="C15">
-        <v>-2.214455370117121</v>
+        <v>-3.6192037321500377</v>
       </c>
       <c r="D15">
-        <v>-2.253638434232788</v>
+        <v>-3.5971914437606998</v>
       </c>
       <c r="E15">
-        <v>-2.2428184271751594</v>
+        <v>-3.5414976494822925</v>
       </c>
       <c r="F15">
-        <v>-2.2291415217744266</v>
+        <v>-3.5194483451714063</v>
       </c>
       <c r="G15">
-        <v>-2.2104704528190173</v>
+        <v>-3.534063949301436</v>
       </c>
       <c r="H15">
-        <v>-2.1369101878010697</v>
+        <v>-3.52080408897806</v>
       </c>
       <c r="I15">
-        <v>-1.9771922490123894</v>
+        <v>-3.548626345399223</v>
       </c>
       <c r="J15">
-        <v>-1.8796651363184418</v>
+        <v>-3.5464652421751826</v>
       </c>
       <c r="K15">
-        <v>-1.8695760999742101</v>
+        <v>-3.568433269910601</v>
       </c>
       <c r="L15">
-        <v>-1.938504871006387</v>
+        <v>-3.515891396238385</v>
       </c>
       <c r="M15">
-        <v>-1.9675201221547498</v>
+        <v>-3.153765098713933</v>
       </c>
       <c r="N15">
-        <v>-1.9531858315856632</v>
+        <v>-1.8935764396111712</v>
       </c>
       <c r="O15">
-        <v>-1.5152179205329597</v>
+        <v>-1.0468181457054884</v>
       </c>
       <c r="P15">
-        <v>-1.3086216075659898</v>
+        <v>-0.5384699017299487</v>
       </c>
       <c r="Q15">
-        <v>-1.2451380703139587</v>
+        <v>-0.4328425675690904</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16">
-        <v>-2.049016708703874</v>
+        <v>-2.7310196488570466</v>
       </c>
       <c r="B16">
-        <v>-2.0691617694941207</v>
+        <v>-2.801473607308249</v>
       </c>
       <c r="C16">
-        <v>-2.1071067126951615</v>
+        <v>-3.063836116554036</v>
       </c>
       <c r="D16">
-        <v>-2.1677543675609896</v>
+        <v>-3.1943472150636323</v>
       </c>
       <c r="E16">
-        <v>-2.1926354360655846</v>
+        <v>-3.2142915595239128</v>
       </c>
       <c r="F16">
-        <v>-2.1672854720395978</v>
+        <v>-3.214926921296436</v>
       </c>
       <c r="G16">
-        <v>-2.10728397792136</v>
+        <v>-3.141482026843862</v>
       </c>
       <c r="H16">
-        <v>-1.9812554874928472</v>
+        <v>-3.0098277043099855</v>
       </c>
       <c r="I16">
-        <v>-1.8370705655491006</v>
+        <v>-2.873084758133135</v>
       </c>
       <c r="J16">
-        <v>-1.7680789142332762</v>
+        <v>-3.2173478244147504</v>
       </c>
       <c r="K16">
-        <v>-1.6600377121832512</v>
+        <v>-3.21778595963706</v>
       </c>
       <c r="L16">
-        <v>-1.608748649500091</v>
+        <v>-3.163802715083376</v>
       </c>
       <c r="M16">
-        <v>-1.7615698185315447</v>
+        <v>-2.850874712033572</v>
       </c>
       <c r="N16">
-        <v>-1.791740461698478</v>
+        <v>-1.9548383905986215</v>
       </c>
       <c r="O16">
-        <v>-1.5643264536819954</v>
+        <v>-1.8074077211820925</v>
       </c>
       <c r="P16">
-        <v>-1.1617083681337583</v>
+        <v>-0.502598764899489</v>
       </c>
       <c r="Q16">
-        <v>-1.0824168749182248</v>
+        <v>0.07591280818658207</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17">
-        <v>-1.9998034153587871</v>
+        <v>-2.7749852447764676</v>
       </c>
       <c r="B17">
-        <v>-1.9259414678321392</v>
+        <v>-2.736663635648747</v>
       </c>
       <c r="C17">
-        <v>-2.069059733770193</v>
+        <v>-2.7852615054385406</v>
       </c>
       <c r="D17">
-        <v>-2.0900834809524107</v>
+        <v>-2.5508247625555733</v>
       </c>
       <c r="E17">
-        <v>-2.175924663889366</v>
+        <v>-2.2555760699256435</v>
       </c>
       <c r="F17">
-        <v>-2.148664557618221</v>
+        <v>-3.0812789718452818</v>
       </c>
       <c r="G17">
-        <v>-2.105418095324157</v>
+        <v>-2.8402534500412115</v>
       </c>
       <c r="H17">
-        <v>-1.9432591115713596</v>
+        <v>-2.080748767462029</v>
       </c>
       <c r="I17">
-        <v>-1.7356025720562578</v>
+        <v>-2.1005799929433726</v>
       </c>
       <c r="J17">
-        <v>-1.6760637959572338</v>
+        <v>-2.7140750940296963</v>
       </c>
       <c r="K17">
-        <v>-1.700461280511058</v>
+        <v>-2.4936686852202974</v>
       </c>
       <c r="L17">
-        <v>-1.5442215751809658</v>
+        <v>-2.107651275485544</v>
       </c>
       <c r="M17">
-        <v>-1.5200666095324975</v>
+        <v>-2.720485978328233</v>
       </c>
       <c r="N17">
-        <v>-1.6886160994879884</v>
+        <v>-1.8296544772582135</v>
       </c>
       <c r="O17">
-        <v>-1.7147642681480983</v>
+        <v>-1.3158609033788515</v>
       </c>
       <c r="P17">
-        <v>-1.4776145207929896</v>
+        <v>-0.40995968770269037</v>
       </c>
       <c r="Q17">
-        <v>-1.0973993350704216</v>
+        <v>-0.2167236829068565</v>
       </c>
     </row>
   </sheetData>
@@ -2101,63 +2153,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:16384">
       <c r="A1">
-        <v>-5.78152946377298</v>
+        <v>-6.307012051179821</v>
       </c>
       <c r="B1">
-        <v>-5.7818346274936685</v>
+        <v>-6.176809206463105</v>
       </c>
       <c r="C1">
-        <v>-5.783633206384962</v>
+        <v>-6.258239005456728</v>
       </c>
       <c r="D1">
-        <v>-5.787917733640693</v>
+        <v>-6.426919078419377</v>
       </c>
       <c r="E1">
-        <v>-5.790609287522226</v>
+        <v>-6.457117439029137</v>
       </c>
       <c r="F1">
-        <v>-5.790989426772158</v>
+        <v>-6.4184520164355545</v>
       </c>
       <c r="G1">
-        <v>-5.79017583984547</v>
+        <v>-6.334530326995688</v>
       </c>
       <c r="H1">
-        <v>-5.788081527626982</v>
+        <v>-5.976471580151601</v>
       </c>
       <c r="I1">
-        <v>-5.79191849816684</v>
+        <v>-5.905682693513636</v>
       </c>
       <c r="J1">
-        <v>-4.358581272507073</v>
+        <v>-5.082109444554504</v>
       </c>
       <c r="K1">
-        <v>-4.278876922628938</v>
+        <v>-4.560832065640474</v>
       </c>
       <c r="L1">
-        <v>-3.795978531837814</v>
+        <v>-3.040044563194327</v>
       </c>
       <c r="M1">
-        <v>-2.818889878978524</v>
+        <v>-2.0011739753759286</v>
       </c>
       <c r="N1">
-        <v>-1.6884880214107636</v>
+        <v>-1.087471667372137</v>
       </c>
       <c r="O1">
-        <v>-0.4245584932896142</v>
+        <v>-0.22666884117709427</v>
       </c>
       <c r="P1">
-        <v>-0.25683643871039874</v>
+        <v>-0.25261020052907196</v>
       </c>
       <c r="Q1">
-        <v>-0.21924089263954585</v>
+        <v>-0.35903202976358783</v>
       </c>
       <c r="XFD1">
         <f>MAX(A1:XFC1)</f>
@@ -2166,850 +2218,850 @@
     </row>
     <row r="2" spans="1:16384">
       <c r="A2">
-        <v>-5.7742247776759354</v>
+        <v>-5.3679074238779885</v>
       </c>
       <c r="B2">
-        <v>-5.770700639600589</v>
+        <v>-5.351206423463868</v>
       </c>
       <c r="C2">
-        <v>-5.773707687993367</v>
+        <v>-5.855639866550453</v>
       </c>
       <c r="D2">
-        <v>-5.77700061887787</v>
+        <v>-5.979949711727801</v>
       </c>
       <c r="E2">
-        <v>-5.781693267240156</v>
+        <v>-6.260465767775235</v>
       </c>
       <c r="F2">
-        <v>-5.782569079668834</v>
+        <v>-6.646170530774804</v>
       </c>
       <c r="G2">
-        <v>-5.781559762050948</v>
+        <v>-6.793255247249106</v>
       </c>
       <c r="H2">
-        <v>-5.780956724407377</v>
+        <v>-6.071562171337437</v>
       </c>
       <c r="I2">
-        <v>-5.788333069289804</v>
+        <v>-5.480558899951417</v>
       </c>
       <c r="J2">
-        <v>-4.351221337390919</v>
+        <v>-4.73665406458985</v>
       </c>
       <c r="K2">
-        <v>-4.229953402634758</v>
+        <v>-4.6768336870887275</v>
       </c>
       <c r="L2">
-        <v>-3.800899964281117</v>
+        <v>-3.921691877683447</v>
       </c>
       <c r="M2">
-        <v>-2.8742308709781654</v>
+        <v>-2.754131201546189</v>
       </c>
       <c r="N2">
-        <v>-1.8274888208081532</v>
+        <v>-2.1773572699386405</v>
       </c>
       <c r="O2">
-        <v>-0.0213556108825922</v>
+        <v>-1.022110787848395</v>
       </c>
       <c r="P2">
-        <v>-0.3384997249835719</v>
+        <v>-0.21620399601857254</v>
       </c>
       <c r="Q2">
-        <v>-0.2739496155672768</v>
+        <v>-0.3226671983124252</v>
       </c>
     </row>
     <row r="3" spans="1:16384">
       <c r="A3">
-        <v>-5.768520665618581</v>
+        <v>-6.09169191188933</v>
       </c>
       <c r="B3">
-        <v>-5.762633682389165</v>
+        <v>-5.969405617997597</v>
       </c>
       <c r="C3">
-        <v>-5.772272044388632</v>
+        <v>-6.284209038934506</v>
       </c>
       <c r="D3">
-        <v>-5.774313549759063</v>
+        <v>-6.587681588028043</v>
       </c>
       <c r="E3">
-        <v>-5.781546058134098</v>
+        <v>-6.593518948919377</v>
       </c>
       <c r="F3">
-        <v>-5.778939774254443</v>
+        <v>-6.561089854220298</v>
       </c>
       <c r="G3">
-        <v>-5.782074965233845</v>
+        <v>-6.508122344771042</v>
       </c>
       <c r="H3">
-        <v>-5.778368568348502</v>
+        <v>-6.568512997295607</v>
       </c>
       <c r="I3">
-        <v>-5.789703391082621</v>
+        <v>-6.153334051228156</v>
       </c>
       <c r="J3">
-        <v>-4.355011607004211</v>
+        <v>-4.744337194347431</v>
       </c>
       <c r="K3">
-        <v>-4.279396604161463</v>
+        <v>-4.498808198935897</v>
       </c>
       <c r="L3">
-        <v>-3.76188565516647</v>
+        <v>-3.68054774759776</v>
       </c>
       <c r="M3">
-        <v>-2.6017250338541222</v>
+        <v>-2.8168903654172555</v>
       </c>
       <c r="N3">
-        <v>-1.4223450183497304</v>
+        <v>-1.884086904707414</v>
       </c>
       <c r="O3">
-        <v>-0.27069734684758523</v>
+        <v>-0.7097222429590478</v>
       </c>
       <c r="P3">
-        <v>-0.25459402725657343</v>
+        <v>-0.23586795012419903</v>
       </c>
       <c r="Q3">
-        <v>-0.049496371266893005</v>
+        <v>-0.2942872501747152</v>
       </c>
     </row>
     <row r="4" spans="1:16384">
       <c r="A4">
-        <v>-5.825425283163586</v>
+        <v>-6.277015096497995</v>
       </c>
       <c r="B4">
-        <v>-5.877861095578965</v>
+        <v>-6.167882533519947</v>
       </c>
       <c r="C4">
-        <v>-5.864306130163306</v>
+        <v>-6.16207160567127</v>
       </c>
       <c r="D4">
-        <v>-5.89079430022057</v>
+        <v>-6.232226487571378</v>
       </c>
       <c r="E4">
-        <v>-5.895323137443425</v>
+        <v>-6.227478985901746</v>
       </c>
       <c r="F4">
-        <v>-5.898405574897295</v>
+        <v>-6.218139883295606</v>
       </c>
       <c r="G4">
-        <v>-5.890223032890927</v>
+        <v>-6.191265725734334</v>
       </c>
       <c r="H4">
-        <v>-5.885151415668017</v>
+        <v>-6.174539923741197</v>
       </c>
       <c r="I4">
-        <v>-5.919121000302211</v>
+        <v>-6.028521108096172</v>
       </c>
       <c r="J4">
-        <v>-4.355650076129757</v>
+        <v>-4.73340596428656</v>
       </c>
       <c r="K4">
-        <v>-4.259893209778392</v>
+        <v>-4.623470951124987</v>
       </c>
       <c r="L4">
-        <v>-3.8349016959203754</v>
+        <v>-3.7289987241115576</v>
       </c>
       <c r="M4">
-        <v>-2.9016130728241714</v>
+        <v>-2.7640235793881014</v>
       </c>
       <c r="N4">
-        <v>-1.6582491698141448</v>
+        <v>-1.7645015737434586</v>
       </c>
       <c r="O4">
-        <v>-1.1275959060555854</v>
+        <v>-1.016009124082942</v>
       </c>
       <c r="P4">
-        <v>-0.24836662779526072</v>
+        <v>-0.19901887556040307</v>
       </c>
       <c r="Q4">
-        <v>0.2833800202580748</v>
+        <v>-0.3373771016573748</v>
       </c>
     </row>
     <row r="5" spans="1:16384">
       <c r="A5">
-        <v>-5.781249462076171</v>
+        <v>-4.236842466394855</v>
       </c>
       <c r="B5">
-        <v>-5.779074204506921</v>
+        <v>-5.810821984182143</v>
       </c>
       <c r="C5">
-        <v>-5.777197179319951</v>
+        <v>-6.061994470065893</v>
       </c>
       <c r="D5">
-        <v>-5.781273484318862</v>
+        <v>-6.093780437608772</v>
       </c>
       <c r="E5">
-        <v>-5.781698080858419</v>
+        <v>-6.091120860129743</v>
       </c>
       <c r="F5">
-        <v>-5.782966139873311</v>
+        <v>-6.092614413309402</v>
       </c>
       <c r="G5">
-        <v>-5.7855906938593105</v>
+        <v>-6.098405001066338</v>
       </c>
       <c r="H5">
-        <v>-5.783355662059182</v>
+        <v>-6.104400075477332</v>
       </c>
       <c r="I5">
-        <v>-5.791008679754913</v>
+        <v>-5.951835375987357</v>
       </c>
       <c r="J5">
-        <v>-4.36848097234076</v>
+        <v>-4.651612106206902</v>
       </c>
       <c r="K5">
-        <v>-4.248114395806571</v>
+        <v>-4.553938267717897</v>
       </c>
       <c r="L5">
-        <v>-3.955909965794755</v>
+        <v>-3.549149686858801</v>
       </c>
       <c r="M5">
-        <v>-3.231906403429296</v>
+        <v>-2.5801449470859037</v>
       </c>
       <c r="N5">
-        <v>-1.3959224267644965</v>
+        <v>-1.8424590346831653</v>
       </c>
       <c r="O5">
-        <v>0.10120695022938102</v>
+        <v>-0.8695808576401736</v>
       </c>
       <c r="P5">
-        <v>0.12513507569201485</v>
+        <v>-0.18053252370896603</v>
       </c>
       <c r="Q5">
-        <v>0.07115964000601671</v>
+        <v>-0.13879687436466487</v>
       </c>
     </row>
     <row r="6" spans="1:16384">
       <c r="A6">
-        <v>-7.132123388776925</v>
+        <v>-5.960537050124437</v>
       </c>
       <c r="B6">
-        <v>-7.002541920529342</v>
+        <v>-5.9166869385905425</v>
       </c>
       <c r="C6">
-        <v>-7.152610724006511</v>
+        <v>-6.007267866993118</v>
       </c>
       <c r="D6">
-        <v>-6.852918750211167</v>
+        <v>-6.051840696164895</v>
       </c>
       <c r="E6">
-        <v>-6.8725609634070315</v>
+        <v>-6.061452045334556</v>
       </c>
       <c r="F6">
-        <v>-7.191142184767489</v>
+        <v>-6.054373901392397</v>
       </c>
       <c r="G6">
-        <v>-7.105792271448464</v>
+        <v>-6.058064791898174</v>
       </c>
       <c r="H6">
-        <v>-7.219294465069509</v>
+        <v>-6.068023627038675</v>
       </c>
       <c r="I6">
-        <v>-6.982045955478286</v>
+        <v>-5.923372382822782</v>
       </c>
       <c r="J6">
-        <v>-4.413115639593974</v>
+        <v>-3.926301091891896</v>
       </c>
       <c r="K6">
-        <v>-4.277430834347614</v>
+        <v>-4.092096941706499</v>
       </c>
       <c r="L6">
-        <v>-3.846811102184633</v>
+        <v>-3.857312293413472</v>
       </c>
       <c r="M6">
-        <v>-2.6214562284818785</v>
+        <v>-2.510052846338371</v>
       </c>
       <c r="N6">
-        <v>-1.5112154886186182</v>
+        <v>-1.821992670788981</v>
       </c>
       <c r="O6">
-        <v>-1.1752814744775055</v>
+        <v>-0.8190994565988202</v>
       </c>
       <c r="P6">
-        <v>-0.26947848033876687</v>
+        <v>-0.22039561504389288</v>
       </c>
       <c r="Q6">
-        <v>-0.13941290146328464</v>
+        <v>0.6154188049793595</v>
       </c>
     </row>
     <row r="7" spans="1:16384">
       <c r="A7">
-        <v>-6.6384430073923975</v>
+        <v>-5.926284877819438</v>
       </c>
       <c r="B7">
-        <v>-6.604668109130797</v>
+        <v>-5.9420428336781494</v>
       </c>
       <c r="C7">
-        <v>-7.090252182775497</v>
+        <v>-5.928956521646261</v>
       </c>
       <c r="D7">
-        <v>-6.135021638169792</v>
+        <v>-5.960516349632466</v>
       </c>
       <c r="E7">
-        <v>-5.778645629265491</v>
+        <v>-5.95502223900768</v>
       </c>
       <c r="F7">
-        <v>-6.810859868137241</v>
+        <v>-5.971315335104346</v>
       </c>
       <c r="G7">
-        <v>-6.8270141266696065</v>
+        <v>-5.9518510566580405</v>
       </c>
       <c r="H7">
-        <v>-6.343397885398127</v>
+        <v>-5.915739613814453</v>
       </c>
       <c r="I7">
-        <v>-6.7569247726815815</v>
+        <v>-5.8632426204414365</v>
       </c>
       <c r="J7">
-        <v>-4.341786087144544</v>
+        <v>-4.7605172892772325</v>
       </c>
       <c r="K7">
-        <v>-4.293048605052477</v>
+        <v>-4.685804353222222</v>
       </c>
       <c r="L7">
-        <v>-3.93664193531421</v>
+        <v>-3.649620205911665</v>
       </c>
       <c r="M7">
-        <v>-2.7806069186753577</v>
+        <v>-3.0088475796960372</v>
       </c>
       <c r="N7">
-        <v>-1.511645758231159</v>
+        <v>-1.600067989523087</v>
       </c>
       <c r="O7">
-        <v>-0.5246472218089093</v>
+        <v>-0.9735778978468177</v>
       </c>
       <c r="P7">
-        <v>-0.3253233043611472</v>
+        <v>-0.17890105007491683</v>
       </c>
       <c r="Q7">
-        <v>-0.09826114270469961</v>
+        <v>0.1697860633250231</v>
       </c>
     </row>
     <row r="8" spans="1:16384">
       <c r="A8">
-        <v>-5.41518751013853</v>
+        <v>-5.678258497420765</v>
       </c>
       <c r="B8">
-        <v>-5.384017643141678</v>
+        <v>-5.56742478511306</v>
       </c>
       <c r="C8">
-        <v>-5.4322791479134525</v>
+        <v>-5.67002799923826</v>
       </c>
       <c r="D8">
-        <v>-5.41421851828205</v>
+        <v>-5.670205972065291</v>
       </c>
       <c r="E8">
-        <v>-5.37821053749088</v>
+        <v>-5.6554059020424585</v>
       </c>
       <c r="F8">
-        <v>-5.276738352589023</v>
+        <v>-5.62669895628067</v>
       </c>
       <c r="G8">
-        <v>-5.10189038858348</v>
+        <v>-5.579098439872415</v>
       </c>
       <c r="H8">
-        <v>-4.720556743059313</v>
+        <v>-5.395085631533347</v>
       </c>
       <c r="I8">
-        <v>-4.861111114072587</v>
+        <v>-4.098582256863074</v>
       </c>
       <c r="J8">
-        <v>-4.392346558689392</v>
+        <v>-5.195710519213708</v>
       </c>
       <c r="K8">
-        <v>-4.230160396489823</v>
+        <v>-4.723132461782428</v>
       </c>
       <c r="L8">
-        <v>-3.530118379466128</v>
+        <v>-3.75787167278178</v>
       </c>
       <c r="M8">
-        <v>-2.6556327699014814</v>
+        <v>-2.9643020415188808</v>
       </c>
       <c r="N8">
-        <v>-1.6417024302967507</v>
+        <v>-1.9949013977058223</v>
       </c>
       <c r="O8">
-        <v>-0.74505239709933</v>
+        <v>-0.9533376199985579</v>
       </c>
       <c r="P8">
-        <v>0.02565568536179247</v>
+        <v>-0.3196576343841936</v>
       </c>
       <c r="Q8">
-        <v>-0.007538384141985016</v>
+        <v>-0.4767581248173149</v>
       </c>
     </row>
     <row r="9" spans="1:16384">
       <c r="A9">
-        <v>-5.6950077624090545</v>
+        <v>-6.316040828208758</v>
       </c>
       <c r="B9">
-        <v>-5.517799704441751</v>
+        <v>-6.0817760228044095</v>
       </c>
       <c r="C9">
-        <v>-5.762687823450636</v>
+        <v>-6.238070620034554</v>
       </c>
       <c r="D9">
-        <v>-5.766199363716808</v>
+        <v>-6.228874250674521</v>
       </c>
       <c r="E9">
-        <v>-5.5610760487535345</v>
+        <v>-6.0114522580925165</v>
       </c>
       <c r="F9">
-        <v>-5.3977601623135705</v>
+        <v>-5.900906438095765</v>
       </c>
       <c r="G9">
-        <v>-5.1948011739743665</v>
+        <v>-5.397909769884912</v>
       </c>
       <c r="H9">
-        <v>-5.413344485090171</v>
+        <v>-6.264143483407099</v>
       </c>
       <c r="I9">
-        <v>-5.145531425339654</v>
+        <v>-6.029285163751526</v>
       </c>
       <c r="J9">
-        <v>-5.019116430158708</v>
+        <v>-5.484948152844897</v>
       </c>
       <c r="K9">
-        <v>-4.613094245776723</v>
+        <v>-4.929967280268034</v>
       </c>
       <c r="L9">
-        <v>-4.023849192863954</v>
+        <v>-4.060664640198883</v>
       </c>
       <c r="M9">
-        <v>-2.7429459947312447</v>
+        <v>-2.7124130584239285</v>
       </c>
       <c r="N9">
-        <v>-2.0756859314391325</v>
+        <v>-1.8336796583068595</v>
       </c>
       <c r="O9">
-        <v>-0.8454332191676022</v>
+        <v>-1.1964590879071235</v>
       </c>
       <c r="P9">
-        <v>-0.13954063280252202</v>
+        <v>-0.1849809539850177</v>
       </c>
       <c r="Q9">
-        <v>-0.16404831201939826</v>
+        <v>0.11516951001392807</v>
       </c>
     </row>
     <row r="10" spans="1:16384">
       <c r="A10">
-        <v>-5.483232410918357</v>
+        <v>-5.763953069189678</v>
       </c>
       <c r="B10">
-        <v>-5.332327767749258</v>
+        <v>-6.000017392416307</v>
       </c>
       <c r="C10">
-        <v>-5.47987714222701</v>
+        <v>-6.014141319852922</v>
       </c>
       <c r="D10">
-        <v>-5.463470876828333</v>
+        <v>-6.020201057722484</v>
       </c>
       <c r="E10">
-        <v>-5.45834615633949</v>
+        <v>-5.973608880019473</v>
       </c>
       <c r="F10">
-        <v>-5.398136865179231</v>
+        <v>-5.897021249382819</v>
       </c>
       <c r="G10">
-        <v>-5.342890807808235</v>
+        <v>-5.8494677325562305</v>
       </c>
       <c r="H10">
-        <v>-5.196938052016005</v>
+        <v>-5.799707479338113</v>
       </c>
       <c r="I10">
-        <v>-4.962194078443134</v>
+        <v>-5.711395294921274</v>
       </c>
       <c r="J10">
-        <v>-4.835431230857416</v>
+        <v>-5.464161593928093</v>
       </c>
       <c r="K10">
-        <v>-4.574946292383395</v>
+        <v>-5.066254106303273</v>
       </c>
       <c r="L10">
-        <v>-3.9969358636189853</v>
+        <v>-4.173173546978668</v>
       </c>
       <c r="M10">
-        <v>-3.041875391205075</v>
+        <v>-3.0773688233613345</v>
       </c>
       <c r="N10">
-        <v>-2.695630452697532</v>
+        <v>-1.9409599518067997</v>
       </c>
       <c r="O10">
-        <v>-1.1425386624865221</v>
+        <v>-1.0490305054471907</v>
       </c>
       <c r="P10">
-        <v>0.2723442188800324</v>
+        <v>-0.2146461645389718</v>
       </c>
       <c r="Q10">
-        <v>0.28328594944160246</v>
+        <v>-0.4679537608831236</v>
       </c>
     </row>
     <row r="11" spans="1:16384">
       <c r="A11">
-        <v>-5.328783608639041</v>
+        <v>-4.366256114914856</v>
       </c>
       <c r="B11">
-        <v>-5.107045599648421</v>
+        <v>-5.19644966191162</v>
       </c>
       <c r="C11">
-        <v>-5.352185168700651</v>
+        <v>-5.780849127657626</v>
       </c>
       <c r="D11">
-        <v>-5.335747885039774</v>
+        <v>-5.780130398522132</v>
       </c>
       <c r="E11">
-        <v>-5.312644802878137</v>
+        <v>-5.773622986047085</v>
       </c>
       <c r="F11">
-        <v>-5.257585113100755</v>
+        <v>-5.768601564944037</v>
       </c>
       <c r="G11">
-        <v>-5.220622747479926</v>
+        <v>-5.765228926974281</v>
       </c>
       <c r="H11">
-        <v>-5.106615556963064</v>
+        <v>-5.744901681190192</v>
       </c>
       <c r="I11">
-        <v>-4.8689775763028065</v>
+        <v>-5.660669261295426</v>
       </c>
       <c r="J11">
-        <v>-4.732668748918247</v>
+        <v>-5.496364020716155</v>
       </c>
       <c r="K11">
-        <v>-4.5327335882941995</v>
+        <v>-5.301063520010416</v>
       </c>
       <c r="L11">
-        <v>-3.917320330830086</v>
+        <v>-4.298299723693553</v>
       </c>
       <c r="M11">
-        <v>-3.0752407362931224</v>
+        <v>-2.9860521812696907</v>
       </c>
       <c r="N11">
-        <v>-2.4029600701397156</v>
+        <v>-2.273087908851484</v>
       </c>
       <c r="O11">
-        <v>-1.986445246322628</v>
+        <v>-1.3178428771628197</v>
       </c>
       <c r="P11">
-        <v>-0.2626383139531788</v>
+        <v>-0.2122749051925629</v>
       </c>
       <c r="Q11">
-        <v>0.6418583404973486</v>
+        <v>-0.5797506013423018</v>
       </c>
     </row>
     <row r="12" spans="1:16384">
       <c r="A12">
-        <v>-4.704212712102515</v>
+        <v>-5.679764834600467</v>
       </c>
       <c r="B12">
-        <v>-4.9154453495650055</v>
+        <v>-5.66563359004268</v>
       </c>
       <c r="C12">
-        <v>-5.28756084221158</v>
+        <v>-5.705288834559725</v>
       </c>
       <c r="D12">
-        <v>-5.267753423415878</v>
+        <v>-5.700678379858193</v>
       </c>
       <c r="E12">
-        <v>-5.229960118892446</v>
+        <v>-5.693018347529894</v>
       </c>
       <c r="F12">
-        <v>-5.166074971475944</v>
+        <v>-5.685399799487799</v>
       </c>
       <c r="G12">
-        <v>-5.120407175859659</v>
+        <v>-5.681861991279706</v>
       </c>
       <c r="H12">
-        <v>-5.017114303156044</v>
+        <v>-5.669606171588219</v>
       </c>
       <c r="I12">
-        <v>-4.797336545860249</v>
+        <v>-5.5951525129613335</v>
       </c>
       <c r="J12">
-        <v>-4.657779444554219</v>
+        <v>-5.431611202855406</v>
       </c>
       <c r="K12">
-        <v>-4.509296613352322</v>
+        <v>-5.119877079216514</v>
       </c>
       <c r="L12">
-        <v>-3.851440173888788</v>
+        <v>-4.46893188160085</v>
       </c>
       <c r="M12">
-        <v>-2.946626974310965</v>
+        <v>-3.056630660622012</v>
       </c>
       <c r="N12">
-        <v>-2.250868517896486</v>
+        <v>-2.226676205130948</v>
       </c>
       <c r="O12">
-        <v>-1.8299537304920215</v>
+        <v>-1.550611093636328</v>
       </c>
       <c r="P12">
-        <v>-0.48086287126060756</v>
+        <v>0.5998731024416549</v>
       </c>
       <c r="Q12">
-        <v>0.05470525861706529</v>
+        <v>-0.5784269393146995</v>
       </c>
     </row>
     <row r="13" spans="1:16384">
       <c r="A13">
-        <v>-4.736414505475539</v>
+        <v>-5.397333249494807</v>
       </c>
       <c r="B13">
-        <v>-4.76478398628307</v>
+        <v>-5.391585660456327</v>
       </c>
       <c r="C13">
-        <v>-4.746386795200992</v>
+        <v>-5.407413653127268</v>
       </c>
       <c r="D13">
-        <v>-4.723898498884667</v>
+        <v>-5.394992290384074</v>
       </c>
       <c r="E13">
-        <v>-4.700778540611009</v>
+        <v>-5.382944126674114</v>
       </c>
       <c r="F13">
-        <v>-4.6658975868748715</v>
+        <v>-5.367640115526042</v>
       </c>
       <c r="G13">
-        <v>-4.638503992441525</v>
+        <v>-5.356015407267253</v>
       </c>
       <c r="H13">
-        <v>-4.611152741722353</v>
+        <v>-5.34495129422768</v>
       </c>
       <c r="I13">
-        <v>-4.536682982873973</v>
+        <v>-5.310304317154974</v>
       </c>
       <c r="J13">
-        <v>-4.465818098030103</v>
+        <v>-5.217901479369625</v>
       </c>
       <c r="K13">
-        <v>-4.354733559711661</v>
+        <v>-5.057858881527022</v>
       </c>
       <c r="L13">
-        <v>-3.78398180896884</v>
+        <v>-4.443647308013364</v>
       </c>
       <c r="M13">
-        <v>-3.07934876481315</v>
+        <v>-3.303502248513667</v>
       </c>
       <c r="N13">
-        <v>-2.817940876541082</v>
+        <v>-2.1597751892862793</v>
       </c>
       <c r="O13">
-        <v>-1.6883431993153553</v>
+        <v>-1.7420627460935725</v>
       </c>
       <c r="P13">
-        <v>-0.438261827371335</v>
+        <v>-0.5934817507094298</v>
       </c>
       <c r="Q13">
-        <v>-0.6676026717647341</v>
+        <v>-0.5226383845056601</v>
       </c>
     </row>
     <row r="14" spans="1:16384">
       <c r="A14">
-        <v>-4.013355251699514</v>
+        <v>-4.047949650564678</v>
       </c>
       <c r="B14">
-        <v>-4.001476117009528</v>
+        <v>-4.626173864464672</v>
       </c>
       <c r="C14">
-        <v>-3.9829538130377657</v>
+        <v>-4.616157465405355</v>
       </c>
       <c r="D14">
-        <v>-3.9464993325710087</v>
+        <v>-4.593797830814748</v>
       </c>
       <c r="E14">
-        <v>-3.9283031540373057</v>
+        <v>-4.584623394436641</v>
       </c>
       <c r="F14">
-        <v>-3.9220676705695254</v>
+        <v>-4.583609547398763</v>
       </c>
       <c r="G14">
-        <v>-3.917816263513563</v>
+        <v>-4.5807676592561695</v>
       </c>
       <c r="H14">
-        <v>-3.919679153066032</v>
+        <v>-4.579634588606742</v>
       </c>
       <c r="I14">
-        <v>-3.921528965766092</v>
+        <v>-4.578429084006108</v>
       </c>
       <c r="J14">
-        <v>-3.9202814099329935</v>
+        <v>-4.573283129205229</v>
       </c>
       <c r="K14">
-        <v>-3.9082149382954765</v>
+        <v>-4.554995750717954</v>
       </c>
       <c r="L14">
-        <v>-3.6795470460825457</v>
+        <v>-4.278212441520943</v>
       </c>
       <c r="M14">
-        <v>-3.200590189692414</v>
+        <v>-3.5520396595889916</v>
       </c>
       <c r="N14">
-        <v>-2.433982253612677</v>
+        <v>-2.3952325969119035</v>
       </c>
       <c r="O14">
-        <v>-1.6085748026315305</v>
+        <v>-2.159762761852453</v>
       </c>
       <c r="P14">
-        <v>-0.4317003479213791</v>
+        <v>0.010381853165609441</v>
       </c>
       <c r="Q14">
-        <v>0.4125041921666796</v>
+        <v>-0.2870634505980972</v>
       </c>
     </row>
     <row r="15" spans="1:16384">
       <c r="A15">
-        <v>-3.50199462555304</v>
+        <v>-3.976999107757274</v>
       </c>
       <c r="B15">
-        <v>-3.4838614258040366</v>
+        <v>-3.936587595352303</v>
       </c>
       <c r="C15">
-        <v>-3.5041795627163204</v>
+        <v>-3.9245523468950405</v>
       </c>
       <c r="D15">
-        <v>-3.4887485128688773</v>
+        <v>-3.896492590690811</v>
       </c>
       <c r="E15">
-        <v>-3.4736125069653347</v>
+        <v>-3.879731756421259</v>
       </c>
       <c r="F15">
-        <v>-3.470519886420087</v>
+        <v>-3.8806529101876253</v>
       </c>
       <c r="G15">
-        <v>-3.4698678075961826</v>
+        <v>-3.876751873060035</v>
       </c>
       <c r="H15">
-        <v>-3.471291726474292</v>
+        <v>-3.8831519292179446</v>
       </c>
       <c r="I15">
-        <v>-3.4798615473588144</v>
+        <v>-3.89098449218885</v>
       </c>
       <c r="J15">
-        <v>-3.4799156126603448</v>
+        <v>-3.9001179654158826</v>
       </c>
       <c r="K15">
-        <v>-3.458440583647081</v>
+        <v>-3.903829169957493</v>
       </c>
       <c r="L15">
-        <v>-3.4115627107765287</v>
+        <v>-3.8547336886669807</v>
       </c>
       <c r="M15">
-        <v>-3.104747847598852</v>
+        <v>-3.265644927160053</v>
       </c>
       <c r="N15">
-        <v>-2.380164914505429</v>
+        <v>-2.2814356135129223</v>
       </c>
       <c r="O15">
-        <v>-1.8742227121208195</v>
+        <v>-1.933848088817581</v>
       </c>
       <c r="P15">
-        <v>0.9501346468272233</v>
+        <v>0.2570933840120144</v>
       </c>
       <c r="Q15">
-        <v>-0.2063764555034064</v>
+        <v>-0.4025880913092123</v>
       </c>
     </row>
     <row r="16" spans="1:16384">
       <c r="A16">
-        <v>-3.308355700158472</v>
+        <v>-3.6429110251142007</v>
       </c>
       <c r="B16">
-        <v>-3.248584215228786</v>
+        <v>-3.5597553952315293</v>
       </c>
       <c r="C16">
-        <v>-3.3194857895245846</v>
+        <v>-3.5695914850359682</v>
       </c>
       <c r="D16">
-        <v>-3.3225379569486595</v>
+        <v>-3.5552076696709407</v>
       </c>
       <c r="E16">
-        <v>-3.322822134811321</v>
+        <v>-3.556939111252622</v>
       </c>
       <c r="F16">
-        <v>-3.3182037899441044</v>
+        <v>-3.5590655584133803</v>
       </c>
       <c r="G16">
-        <v>-3.3195280152064033</v>
+        <v>-3.5628009489919297</v>
       </c>
       <c r="H16">
-        <v>-3.3125116490795348</v>
+        <v>-3.5634040185423674</v>
       </c>
       <c r="I16">
-        <v>-3.2972610879989106</v>
+        <v>-3.563719162038749</v>
       </c>
       <c r="J16">
-        <v>-3.2618522846478384</v>
+        <v>-3.5694596967126717</v>
       </c>
       <c r="K16">
-        <v>-3.1861344621823933</v>
+        <v>-3.569645646258509</v>
       </c>
       <c r="L16">
-        <v>-3.1015982628841283</v>
+        <v>-3.5649583697355696</v>
       </c>
       <c r="M16">
-        <v>-3.015245951534137</v>
+        <v>-3.547233015850618</v>
       </c>
       <c r="N16">
-        <v>-2.148780130731198</v>
+        <v>-2.187549816410681</v>
       </c>
       <c r="O16">
-        <v>-1.773292869938986</v>
+        <v>-1.65664843306162</v>
       </c>
       <c r="P16">
-        <v>-0.1431065560522894</v>
+        <v>-0.10374655385972738</v>
       </c>
       <c r="Q16">
-        <v>-0.5527734732154072</v>
+        <v>-0.5582097813077228</v>
       </c>
     </row>
     <row r="17" spans="1:16384">
       <c r="A17">
-        <v>-3.275146763746868</v>
+        <v>-3.4889975087785245</v>
       </c>
       <c r="B17">
-        <v>-3.1457583531831483</v>
+        <v>-3.3888252551227374</v>
       </c>
       <c r="C17">
-        <v>-3.231780454609335</v>
+        <v>-3.448238013612535</v>
       </c>
       <c r="D17">
-        <v>-3.2757925685496714</v>
+        <v>-3.4597156221436234</v>
       </c>
       <c r="E17">
-        <v>-3.2704801721025416</v>
+        <v>-3.4579999917043063</v>
       </c>
       <c r="F17">
-        <v>-3.166679906837054</v>
+        <v>-3.4626316309646303</v>
       </c>
       <c r="G17">
-        <v>-3.142717151798376</v>
+        <v>-3.4605519622591987</v>
       </c>
       <c r="H17">
-        <v>-3.2442544153854107</v>
+        <v>-3.4318719712242522</v>
       </c>
       <c r="I17">
-        <v>-3.07984091062321</v>
+        <v>-3.462339956347841</v>
       </c>
       <c r="J17">
-        <v>-3.1855872423465716</v>
+        <v>-3.278933381848025</v>
       </c>
       <c r="K17">
-        <v>-3.0595199906523116</v>
+        <v>-3.3604816419786308</v>
       </c>
       <c r="L17">
-        <v>-2.9391247404563576</v>
+        <v>-3.2341892841755975</v>
       </c>
       <c r="M17">
-        <v>-2.7476684310061716</v>
+        <v>-3.0843894426027507</v>
       </c>
       <c r="N17">
-        <v>-2.2240590088243875</v>
+        <v>-2.4503624157634514</v>
       </c>
       <c r="O17">
-        <v>-1.4223128391226445</v>
+        <v>-2.1526507903505196</v>
       </c>
       <c r="P17">
-        <v>-1.3668358021198306</v>
+        <v>-0.1734428223828824</v>
       </c>
       <c r="Q17">
-        <v>-0.003111804303103219</v>
+        <v>-0.7244983019276912</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/alpha.xlsx
+++ b/xlsx/alpha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\code\hrbc-plate\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/program/hrbc-plate/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BB980F-5579-4054-A699-090FC5A17152}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB60327A-9306-6842-AC46-2B314B535828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="51195" windowHeight="26595" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21900" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rectangular_cubic" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,16 @@
     <sheet name="cylinder_nitsche" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,7 +87,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -423,7 +433,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -640,7 +650,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -858,7 +868,7 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -873,138 +883,138 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2">
-        <v>-0.30426571568660621</v>
+        <v>-0.30675305022741994</v>
       </c>
       <c r="C2">
-        <v>-4.744927663172256</v>
+        <v>-3.2784926811550292</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3">
-        <v>-1.2962574680185306</v>
+        <v>-1.3234624552115508</v>
       </c>
       <c r="C3">
-        <v>-4.57567796545358</v>
+        <v>-3.27129866935989</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4">
-        <v>-2.2944236745659894</v>
+        <v>-2.3446637522582732</v>
       </c>
       <c r="C4">
-        <v>-5.1213288636247905</v>
+        <v>-3.1949986561993833</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5">
-        <v>-3.2938496003401365</v>
+        <v>-2.2664418429396944</v>
       </c>
       <c r="C5">
-        <v>-5.089939828557822</v>
+        <v>-3.1188908215855369</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6">
-        <v>-4.2948064169224214</v>
+        <v>-2.2041924264007529</v>
       </c>
       <c r="C6">
-        <v>-4.53704020720574</v>
+        <v>-3.6985664301578618</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7">
-        <v>-5.3005976892050457</v>
+        <v>-2.0244095874596879</v>
       </c>
       <c r="C7">
-        <v>-5.872676482506409</v>
+        <v>-4.9376032686977913</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8">
-        <v>-5.9965992674335258</v>
+        <v>-1.7141096209677582</v>
       </c>
       <c r="C8">
-        <v>-6.6582414622533985</v>
+        <v>-5.9443793246147951</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9">
-        <v>-6.0083365094585979</v>
+        <v>-1.2509829385457547</v>
       </c>
       <c r="C9">
-        <v>-6.657486817594694</v>
+        <v>-6.4801884028147576</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10">
-        <v>-5.9380718591886463</v>
+        <v>-0.77170719293465262</v>
       </c>
       <c r="C10">
-        <v>-6.488648911482098</v>
+        <v>-6.3157731426482533</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11">
-        <v>-5.6643080379084534</v>
+        <v>-0.61662008049952199</v>
       </c>
       <c r="C11">
-        <v>-6.177825541105453</v>
+        <v>-6.1053485889630954</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12">
-        <v>-5.2336325057669155</v>
+        <v>-0.56041141650056514</v>
       </c>
       <c r="C12">
-        <v>-5.8020966003595404</v>
+        <v>-5.875557580166892</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13">
-        <v>-4.8787771077221924</v>
+        <v>-0.51841101540426249</v>
       </c>
       <c r="C13">
-        <v>-5.300229550527393</v>
+        <v>-5.2277110899108195</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14">
-        <v>-4.6002777152271799</v>
+        <v>-0.49218698418903362</v>
       </c>
       <c r="C14">
-        <v>-4.577352536899866</v>
+        <v>-4.3792656123417677</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15">
-        <v>-3.8572766108251355</v>
+        <v>-0.47803958102113681</v>
       </c>
       <c r="C15">
-        <v>-3.725215231705153</v>
+        <v>-3.7693823405384257</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16">
-        <v>-3.1867719067728943</v>
+        <v>-0.47530589078083252</v>
       </c>
       <c r="C16">
-        <v>-3.099723313751473</v>
+        <v>-3.5926749814711281</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17">
-        <v>-2.9137693114502858</v>
+        <v>-0.47497024105359176</v>
       </c>
       <c r="C17">
-        <v>-2.9092474030684548</v>
+        <v>-3.58036826930373</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18">
-        <v>-2.8715750484792588</v>
+        <v>-0.47509728367119491</v>
       </c>
       <c r="C18">
-        <v>-2.9078655456336997</v>
+        <v>-3.5038021990914627</v>
       </c>
     </row>
   </sheetData>
@@ -1020,11 +1030,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1064,10 +1074,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.294410275554717</v>
+        <v>-2.2944102755547169</v>
       </c>
       <c r="C4">
-        <v>-6.841117324728654</v>
+        <v>-6.8411173247286543</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1078,7 +1088,7 @@
         <v>-3.2937108850156025</v>
       </c>
       <c r="C5">
-        <v>-6.770337357999736</v>
+        <v>-6.7703373579997361</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1089,7 +1099,7 @@
         <v>-4.2934059545880805</v>
       </c>
       <c r="C6">
-        <v>-5.83498655766859</v>
+        <v>-5.8349865576685902</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1097,10 +1107,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-5.293271948846289</v>
+        <v>-5.2932719488462894</v>
       </c>
       <c r="C7">
-        <v>-6.668904725453894</v>
+        <v>-6.6689047254538938</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1108,10 +1118,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-6.29298533370009</v>
+        <v>-6.2929853337000896</v>
       </c>
       <c r="C8">
-        <v>-6.986605076106738</v>
+        <v>-6.9866050761067378</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1119,10 +1129,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-7.280518121513502</v>
+        <v>-7.2805181215135022</v>
       </c>
       <c r="C9">
-        <v>-7.766707519415617</v>
+        <v>-7.7667075194156174</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1130,10 +1140,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-7.762601881525265</v>
+        <v>-7.7626018815252653</v>
       </c>
       <c r="C10">
-        <v>-7.790626450500736</v>
+        <v>-7.7906264505007359</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1141,10 +1151,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-7.331217374599785</v>
+        <v>-7.3312173745997846</v>
       </c>
       <c r="C11">
-        <v>-7.332304724290231</v>
+        <v>-7.3323047242902311</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1152,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-6.852876053135902</v>
+        <v>-6.8528760531359021</v>
       </c>
       <c r="C12">
         <v>-6.855273402507752</v>
@@ -1163,10 +1173,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-6.432997025701109</v>
+        <v>-6.4329970257011091</v>
       </c>
       <c r="C13">
-        <v>-6.43409718664815</v>
+        <v>-6.4340971866481498</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1174,10 +1184,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-6.048989579779557</v>
+        <v>-6.0489895797795574</v>
       </c>
       <c r="C14">
-        <v>-6.04986028751425</v>
+        <v>-6.0498602875142504</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1185,10 +1195,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-5.354278351275724</v>
+        <v>-5.3542783512757239</v>
       </c>
       <c r="C15">
-        <v>-5.360840413103526</v>
+        <v>-5.3608404131035261</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1196,10 +1206,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-4.4931953442942</v>
+        <v>-4.4931953442942003</v>
       </c>
       <c r="C16">
-        <v>-4.487831069880142</v>
+        <v>-4.4878310698801416</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1210,7 +1220,7 @@
         <v>-3.6740875773231125</v>
       </c>
       <c r="C17">
-        <v>-3.667480401564154</v>
+        <v>-3.6674804015641538</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1221,7 +1231,7 @@
         <v>-2.7915443165486677</v>
       </c>
       <c r="C18">
-        <v>-2.79634987398472</v>
+        <v>-2.7963498739847199</v>
       </c>
     </row>
   </sheetData>
@@ -1239,907 +1249,907 @@
       <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1">
-        <v>-5.930385550491285</v>
+        <v>-2.3671525769869404</v>
       </c>
       <c r="B1">
-        <v>-2.7202911559466902</v>
+        <v>-2.722417744680201</v>
       </c>
       <c r="C1">
-        <v>-3.505005028258455</v>
+        <v>-3.530138577152451</v>
       </c>
       <c r="D1">
-        <v>-4.502634988204189</v>
+        <v>-4.598122522768163</v>
       </c>
       <c r="E1">
-        <v>-5.458668882004754</v>
+        <v>-4.534860806012679</v>
       </c>
       <c r="F1">
-        <v>-5.3237423298547775</v>
+        <v>-4.503806900231385</v>
       </c>
       <c r="G1">
-        <v>-5.302138533646502</v>
+        <v>-4.5006866328945</v>
       </c>
       <c r="H1">
-        <v>-5.3058175866451265</v>
+        <v>-4.502167352645488</v>
       </c>
       <c r="I1">
-        <v>-5.5618871113278505</v>
+        <v>-4.508773260159552</v>
       </c>
       <c r="J1">
-        <v>-4.1233634660876985</v>
+        <v>-4.782325567838024</v>
       </c>
       <c r="K1">
-        <v>-3.800527581358285</v>
+        <v>-3.9300507890094254</v>
       </c>
       <c r="L1">
-        <v>-2.793941681014446</v>
+        <v>-3.3558972707213672</v>
       </c>
       <c r="M1">
-        <v>-2.359234848611479</v>
+        <v>-2.6390678499637827</v>
       </c>
       <c r="N1">
-        <v>-0.4726531794358668</v>
+        <v>-1.1860485807641516</v>
       </c>
       <c r="O1">
-        <v>-0.46852695266738015</v>
+        <v>-0.33137367808416995</v>
       </c>
       <c r="P1">
-        <v>-0.18507862294739622</v>
+        <v>-0.0716797958283133</v>
       </c>
       <c r="Q1">
-        <v>-0.12459438891670677</v>
+        <v>0.29961458470320707</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2">
-        <v>-2.3907959904597877</v>
+        <v>-2.3671525908158664</v>
       </c>
       <c r="B2">
-        <v>-2.741755789586577</v>
+        <v>-2.7224177057060497</v>
       </c>
       <c r="C2">
-        <v>-3.525310835673295</v>
+        <v>-3.530138696145004</v>
       </c>
       <c r="D2">
-        <v>-4.516272185265166</v>
+        <v>-4.598122538024169</v>
       </c>
       <c r="E2">
-        <v>-5.48491682632488</v>
+        <v>-4.53486073036429</v>
       </c>
       <c r="F2">
-        <v>-5.365336844438033</v>
+        <v>-4.503806810351043</v>
       </c>
       <c r="G2">
-        <v>-5.338692244128063</v>
+        <v>-4.500718076963657</v>
       </c>
       <c r="H2">
-        <v>-5.327019986666869</v>
+        <v>-4.501985557693977</v>
       </c>
       <c r="I2">
-        <v>-5.61470813209374</v>
+        <v>-4.51192208057109</v>
       </c>
       <c r="J2">
-        <v>-4.116666935192954</v>
+        <v>-4.770976483265009</v>
       </c>
       <c r="K2">
-        <v>-4.2363726563183</v>
+        <v>-3.8576778142359758</v>
       </c>
       <c r="L2">
-        <v>-3.238959680558881</v>
+        <v>-3.6171269000813626</v>
       </c>
       <c r="M2">
-        <v>-2.496432655697521</v>
+        <v>-2.6728501614237516</v>
       </c>
       <c r="N2">
-        <v>-1.0167951269874604</v>
+        <v>-1.1588980504846351</v>
       </c>
       <c r="O2">
-        <v>-0.7107136287494505</v>
+        <v>-0.19472230338993657</v>
       </c>
       <c r="P2">
-        <v>-0.22115194502348406</v>
+        <v>-0.20557094243338325</v>
       </c>
       <c r="Q2">
-        <v>-0.2109746542196265</v>
+        <v>0.2621090146706612</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
-        <v>-2.512526172301147</v>
+        <v>-2.367152693078898</v>
       </c>
       <c r="B3">
-        <v>-2.8535125813829505</v>
+        <v>-2.7224177752742196</v>
       </c>
       <c r="C3">
-        <v>-3.6367571717299287</v>
+        <v>-3.530138812571515</v>
       </c>
       <c r="D3">
-        <v>-4.610957452186343</v>
+        <v>-4.598122454469815</v>
       </c>
       <c r="E3">
-        <v>-5.596524225230545</v>
+        <v>-4.53486160444252</v>
       </c>
       <c r="F3">
-        <v>-5.599083847147002</v>
+        <v>-4.503818809073215</v>
       </c>
       <c r="G3">
-        <v>-5.56273694261442</v>
+        <v>-4.5006844184319155</v>
       </c>
       <c r="H3">
-        <v>-5.534828867869396</v>
+        <v>-4.501972401377636</v>
       </c>
       <c r="I3">
-        <v>-5.780936698988245</v>
+        <v>-4.5096071507316715</v>
       </c>
       <c r="J3">
-        <v>-4.097233361684508</v>
+        <v>-4.79485310572229</v>
       </c>
       <c r="K3">
-        <v>-4.099993324239402</v>
+        <v>-3.907266130258293</v>
       </c>
       <c r="L3">
-        <v>-3.3978792294418003</v>
+        <v>-3.4594388246957335</v>
       </c>
       <c r="M3">
-        <v>-2.5883745514656824</v>
+        <v>-2.3927263192575148</v>
       </c>
       <c r="N3">
-        <v>-1.2743090555389909</v>
+        <v>-1.0050557273135277</v>
       </c>
       <c r="O3">
-        <v>-0.9305849637022715</v>
+        <v>-0.36370555848219194</v>
       </c>
       <c r="P3">
-        <v>-0.5397855371256949</v>
+        <v>-0.19187361923334262</v>
       </c>
       <c r="Q3">
-        <v>1.248891253100922</v>
+        <v>0.23318022439727126</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4">
-        <v>-2.6983937010406187</v>
+        <v>-2.3671535647560535</v>
       </c>
       <c r="B4">
-        <v>-3.0188463232915246</v>
+        <v>-2.722418616406081</v>
       </c>
       <c r="C4">
-        <v>-3.7830630669648935</v>
+        <v>-3.5301392387021777</v>
       </c>
       <c r="D4">
-        <v>-4.72862862650134</v>
+        <v>-4.59812254040467</v>
       </c>
       <c r="E4">
-        <v>-5.7092404452191605</v>
+        <v>-4.5348614353214645</v>
       </c>
       <c r="F4">
-        <v>-6.574308960605357</v>
+        <v>-4.503811912753208</v>
       </c>
       <c r="G4">
-        <v>-6.737947097894277</v>
+        <v>-4.5006757676214075</v>
       </c>
       <c r="H4">
-        <v>-6.746741838238032</v>
+        <v>-4.501517091266441</v>
       </c>
       <c r="I4">
-        <v>-6.737983531158375</v>
+        <v>-4.509994800966004</v>
       </c>
       <c r="J4">
-        <v>-4.090651269157708</v>
+        <v>-4.767719143603124</v>
       </c>
       <c r="K4">
-        <v>-4.3512930063578015</v>
+        <v>-3.9609061497714766</v>
       </c>
       <c r="L4">
-        <v>-3.5964982630816555</v>
+        <v>-4.158115822549488</v>
       </c>
       <c r="M4">
-        <v>-2.3595773478419684</v>
+        <v>-2.5603598669776315</v>
       </c>
       <c r="N4">
-        <v>-1.3998893561423602</v>
+        <v>-1.4072934363751088</v>
       </c>
       <c r="O4">
-        <v>-0.6739856481187577</v>
+        <v>-0.48731714869307025</v>
       </c>
       <c r="P4">
-        <v>-0.570253026361047</v>
+        <v>-0.3990117015154121</v>
       </c>
       <c r="Q4">
-        <v>0.0685020401005433</v>
+        <v>0.27608388983926485</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
-        <v>-2.707784364817181</v>
+        <v>-2.3671624503575006</v>
       </c>
       <c r="B5">
-        <v>-3.0280489625446814</v>
+        <v>-2.722426388553452</v>
       </c>
       <c r="C5">
-        <v>-3.7841575864640733</v>
+        <v>-3.5301444314187376</v>
       </c>
       <c r="D5">
-        <v>-4.712010913490679</v>
+        <v>-4.598125294010632</v>
       </c>
       <c r="E5">
-        <v>-5.67577081016331</v>
+        <v>-4.534881168676345</v>
       </c>
       <c r="F5">
-        <v>-6.218672946842134</v>
+        <v>-4.503828078691566</v>
       </c>
       <c r="G5">
-        <v>-6.407840814393284</v>
+        <v>-4.5006501222793736</v>
       </c>
       <c r="H5">
-        <v>-6.416547770065556</v>
+        <v>-4.5014793165705065</v>
       </c>
       <c r="I5">
-        <v>-6.220415985725586</v>
+        <v>-4.515976969252987</v>
       </c>
       <c r="J5">
-        <v>-4.107992991448456</v>
+        <v>-4.791000967037194</v>
       </c>
       <c r="K5">
-        <v>-4.137524738709463</v>
+        <v>-4.023005188883932</v>
       </c>
       <c r="L5">
-        <v>-3.441927401369806</v>
+        <v>-3.204977733073619</v>
       </c>
       <c r="M5">
-        <v>-2.4176213798639368</v>
+        <v>-2.2610948491501466</v>
       </c>
       <c r="N5">
-        <v>-1.2520990426127134</v>
+        <v>-1.1026023522432569</v>
       </c>
       <c r="O5">
-        <v>-0.6170306459394814</v>
+        <v>-0.1524099057117803</v>
       </c>
       <c r="P5">
-        <v>-0.7182201211099772</v>
+        <v>-0.2899996446158793</v>
       </c>
       <c r="Q5">
-        <v>-0.0019009607510887747</v>
+        <v>0.6960766694599158</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
-        <v>-2.716190775687766</v>
+        <v>-2.3672511479314076</v>
       </c>
       <c r="B6">
-        <v>-3.0366738280033947</v>
+        <v>-2.72250416903537</v>
       </c>
       <c r="C6">
-        <v>-3.7964872645437877</v>
+        <v>-3.530197146894942</v>
       </c>
       <c r="D6">
-        <v>-4.767535507671188</v>
+        <v>-4.598152638206198</v>
       </c>
       <c r="E6">
-        <v>-5.110619527936334</v>
+        <v>-4.535050040995875</v>
       </c>
       <c r="F6">
-        <v>-5.565843640030482</v>
+        <v>-4.503979461518843</v>
       </c>
       <c r="G6">
-        <v>-5.667684007102083</v>
+        <v>-4.50078281340581</v>
       </c>
       <c r="H6">
-        <v>-6.073541488614719</v>
+        <v>-4.501409085979607</v>
       </c>
       <c r="I6">
-        <v>-6.058445382132993</v>
+        <v>-4.51882474393839</v>
       </c>
       <c r="J6">
-        <v>-4.101194720415132</v>
+        <v>-4.770649960283777</v>
       </c>
       <c r="K6">
-        <v>-4.4637356478203145</v>
+        <v>-3.9416337886537387</v>
       </c>
       <c r="L6">
-        <v>-3.399651327524965</v>
+        <v>-3.091757947474902</v>
       </c>
       <c r="M6">
-        <v>-2.2997856862443795</v>
+        <v>-2.317576239112748</v>
       </c>
       <c r="N6">
-        <v>-1.1731629103819639</v>
+        <v>-1.2813415956699203</v>
       </c>
       <c r="O6">
-        <v>-0.837450565997913</v>
+        <v>-0.4227926788810916</v>
       </c>
       <c r="P6">
-        <v>-0.6305000126510687</v>
+        <v>-0.32256973601722533</v>
       </c>
       <c r="Q6">
-        <v>0.1918663785521413</v>
+        <v>0.3616312628114652</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
-        <v>-2.718878460678273</v>
+        <v>-2.368134310739547</v>
       </c>
       <c r="B7">
-        <v>-3.038652980561154</v>
+        <v>-2.7232792152631866</v>
       </c>
       <c r="C7">
-        <v>-3.807148117141368</v>
+        <v>-3.5307223054950363</v>
       </c>
       <c r="D7">
-        <v>-3.988309479773372</v>
+        <v>-4.5984210443861695</v>
       </c>
       <c r="E7">
-        <v>-5.590774446477086</v>
+        <v>-4.5367425301545525</v>
       </c>
       <c r="F7">
-        <v>-5.322255489618791</v>
+        <v>-4.505533362931445</v>
       </c>
       <c r="G7">
-        <v>-4.4913203662491465</v>
+        <v>-4.502317409774318</v>
       </c>
       <c r="H7">
-        <v>-4.836526956141746</v>
+        <v>-4.50367579418354</v>
       </c>
       <c r="I7">
-        <v>-4.78315861530727</v>
+        <v>-4.515772794656461</v>
       </c>
       <c r="J7">
-        <v>-4.118283473082767</v>
+        <v>-4.770425573164626</v>
       </c>
       <c r="K7">
-        <v>-4.346539240551173</v>
+        <v>-4.3707738436437165</v>
       </c>
       <c r="L7">
-        <v>-3.430084604225916</v>
+        <v>-3.1359431336731785</v>
       </c>
       <c r="M7">
-        <v>-2.375989560054763</v>
+        <v>-1.9931729784275392</v>
       </c>
       <c r="N7">
-        <v>-1.2522871900031758</v>
+        <v>-1.034859173568118</v>
       </c>
       <c r="O7">
-        <v>-1.1797913504338458</v>
+        <v>-0.49447536957986093</v>
       </c>
       <c r="P7">
-        <v>-0.7050264207141693</v>
+        <v>-0.19030865634265945</v>
       </c>
       <c r="Q7">
-        <v>-0.30452454241317695</v>
+        <v>-0.013612675790441845</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
-        <v>-2.4092157677247648</v>
+        <v>-2.37661000554066</v>
       </c>
       <c r="B8">
-        <v>-2.761069303320958</v>
+        <v>-2.7307232756952344</v>
       </c>
       <c r="C8">
-        <v>-3.5825394092857312</v>
+        <v>-3.535819248534177</v>
       </c>
       <c r="D8">
-        <v>-4.316073546021457</v>
+        <v>-4.60083212913015</v>
       </c>
       <c r="E8">
-        <v>-4.204473021340945</v>
+        <v>-4.5531510829489905</v>
       </c>
       <c r="F8">
-        <v>-4.183677175519384</v>
+        <v>-4.5205055161710765</v>
       </c>
       <c r="G8">
-        <v>-4.178428803813952</v>
+        <v>-4.516530750899544</v>
       </c>
       <c r="H8">
-        <v>-4.177762734938744</v>
+        <v>-4.517711857473184</v>
       </c>
       <c r="I8">
-        <v>-4.179463487518692</v>
+        <v>-4.533482756376753</v>
       </c>
       <c r="J8">
-        <v>-4.20474749507632</v>
+        <v>-4.687914266512947</v>
       </c>
       <c r="K8">
-        <v>-4.29430177750938</v>
+        <v>-4.463734096263416</v>
       </c>
       <c r="L8">
-        <v>-3.5928467943247004</v>
+        <v>-3.9360333885193985</v>
       </c>
       <c r="M8">
-        <v>-2.578183016020052</v>
+        <v>-2.4744547044076786</v>
       </c>
       <c r="N8">
-        <v>-1.4288694508043818</v>
+        <v>-1.3070086444454343</v>
       </c>
       <c r="O8">
-        <v>-1.0314477183270276</v>
+        <v>0.10898323133270224</v>
       </c>
       <c r="P8">
-        <v>-0.6514923553213781</v>
+        <v>-0.24131617806153008</v>
       </c>
       <c r="Q8">
-        <v>0.8799420625816711</v>
+        <v>-0.08971390411889045</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
-        <v>-2.527650235154845</v>
+        <v>-2.436873185757027</v>
       </c>
       <c r="B9">
-        <v>-2.8597180222182863</v>
+        <v>-2.783813918967987</v>
       </c>
       <c r="C9">
-        <v>-3.6333458228537294</v>
+        <v>-3.574740656432223</v>
       </c>
       <c r="D9">
-        <v>-4.561965101791188</v>
+        <v>-4.612951801225117</v>
       </c>
       <c r="E9">
-        <v>-4.583058390917388</v>
+        <v>-4.679359939202066</v>
       </c>
       <c r="F9">
-        <v>-4.550250378521001</v>
+        <v>-4.637641529642629</v>
       </c>
       <c r="G9">
-        <v>-4.537758357127826</v>
+        <v>-4.627914324966514</v>
       </c>
       <c r="H9">
-        <v>-4.536825016308067</v>
+        <v>-4.628594213585619</v>
       </c>
       <c r="I9">
-        <v>-4.544334898097713</v>
+        <v>-4.637037153351389</v>
       </c>
       <c r="J9">
-        <v>-4.576309469284234</v>
+        <v>-4.852754227004166</v>
       </c>
       <c r="K9">
-        <v>-4.798633574167549</v>
+        <v>-4.164016752066507</v>
       </c>
       <c r="L9">
-        <v>-4.076238605034272</v>
+        <v>-3.332089132402733</v>
       </c>
       <c r="M9">
-        <v>-3.1792140423736654</v>
+        <v>-2.174247404355504</v>
       </c>
       <c r="N9">
-        <v>-1.5039640703108306</v>
+        <v>-1.2211565454385451</v>
       </c>
       <c r="O9">
-        <v>-1.0042969029163777</v>
+        <v>-0.756059626828147</v>
       </c>
       <c r="P9">
-        <v>-0.5722851707308443</v>
+        <v>0.09683262910665147</v>
       </c>
       <c r="Q9">
-        <v>-0.38836953433966775</v>
+        <v>0.8119530218001417</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
-        <v>-2.623208090857458</v>
+        <v>-2.5706962010015486</v>
       </c>
       <c r="B10">
-        <v>-2.944572263262818</v>
+        <v>-2.900944808242263</v>
       </c>
       <c r="C10">
-        <v>-3.7046353135875267</v>
+        <v>-3.6736000974857212</v>
       </c>
       <c r="D10">
-        <v>-4.667251522331039</v>
+        <v>-4.648913790472824</v>
       </c>
       <c r="E10">
-        <v>-5.380467118020016</v>
+        <v>-5.09158228582157</v>
       </c>
       <c r="F10">
-        <v>-5.3477314974512185</v>
+        <v>-5.037590828795548</v>
       </c>
       <c r="G10">
-        <v>-5.349120940783867</v>
+        <v>-5.013782896960716</v>
       </c>
       <c r="H10">
-        <v>-5.36594948769587</v>
+        <v>-5.0152091044119</v>
       </c>
       <c r="I10">
-        <v>-5.355378622435901</v>
+        <v>-5.052781634405608</v>
       </c>
       <c r="J10">
-        <v>-5.272940306105414</v>
+        <v>-5.159427410566429</v>
       </c>
       <c r="K10">
-        <v>-4.872432307891852</v>
+        <v>-4.513956602941549</v>
       </c>
       <c r="L10">
-        <v>-3.7416761607099316</v>
+        <v>-3.563296916402777</v>
       </c>
       <c r="M10">
-        <v>-3.4582031411519516</v>
+        <v>-2.3410635718827755</v>
       </c>
       <c r="N10">
-        <v>-1.7640249551341065</v>
+        <v>-1.6391238133198167</v>
       </c>
       <c r="O10">
-        <v>-1.700121760413326</v>
+        <v>-0.3199619255602623</v>
       </c>
       <c r="P10">
-        <v>-0.4604590128059302</v>
+        <v>-0.2075799870722701</v>
       </c>
       <c r="Q10">
-        <v>0.0523968027951591</v>
+        <v>0.10670102590643887</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11">
-        <v>-2.656434723127894</v>
+        <v>-2.645174403577494</v>
       </c>
       <c r="B11">
-        <v>-2.9761501929347287</v>
+        <v>-2.967067016745683</v>
       </c>
       <c r="C11">
-        <v>-3.732988411359406</v>
+        <v>-3.733369105378498</v>
       </c>
       <c r="D11">
-        <v>-4.676778808594335</v>
+        <v>-4.683775835044746</v>
       </c>
       <c r="E11">
-        <v>-5.472790288713816</v>
+        <v>-5.579761387997961</v>
       </c>
       <c r="F11">
-        <v>-5.575214892595748</v>
+        <v>-5.639752891376033</v>
       </c>
       <c r="G11">
-        <v>-5.572669422791345</v>
+        <v>-5.608573213836821</v>
       </c>
       <c r="H11">
-        <v>-5.550296830485702</v>
+        <v>-5.612196731800477</v>
       </c>
       <c r="I11">
-        <v>-5.407753668235625</v>
+        <v>-5.618350742310216</v>
       </c>
       <c r="J11">
-        <v>-5.1837080831220055</v>
+        <v>-5.05613215828818</v>
       </c>
       <c r="K11">
-        <v>-4.884748274739514</v>
+        <v>-4.789101466839188</v>
       </c>
       <c r="L11">
-        <v>-3.8680418551810902</v>
+        <v>-3.4920760543772214</v>
       </c>
       <c r="M11">
-        <v>-3.5449449505408324</v>
+        <v>-3.360106938614079</v>
       </c>
       <c r="N11">
-        <v>-1.8504948469229472</v>
+        <v>-1.9308383356724892</v>
       </c>
       <c r="O11">
-        <v>-1.2358410050360482</v>
+        <v>-0.998069536520775</v>
       </c>
       <c r="P11">
-        <v>-0.5834799140334759</v>
+        <v>-0.45794615997997645</v>
       </c>
       <c r="Q11">
-        <v>0.18628451135061055</v>
+        <v>1.3635816059121777</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12">
-        <v>-2.6771070447091083</v>
+        <v>-2.6865032137598144</v>
       </c>
       <c r="B12">
-        <v>-2.9938168980250266</v>
+        <v>-3.005386501417684</v>
       </c>
       <c r="C12">
-        <v>-3.7433515695258768</v>
+        <v>-3.7652496949056387</v>
       </c>
       <c r="D12">
-        <v>-4.681386684298123</v>
+        <v>-4.697514639097501</v>
       </c>
       <c r="E12">
-        <v>-5.393437598985659</v>
+        <v>-5.597686843049441</v>
       </c>
       <c r="F12">
-        <v>-5.46248396621082</v>
+        <v>-6.019089987105147</v>
       </c>
       <c r="G12">
-        <v>-5.455248266146877</v>
+        <v>-6.050422700957534</v>
       </c>
       <c r="H12">
-        <v>-5.4329535696743365</v>
+        <v>-6.01884933216706</v>
       </c>
       <c r="I12">
-        <v>-5.309660586291333</v>
+        <v>-5.895479243328119</v>
       </c>
       <c r="J12">
-        <v>-5.106818417034775</v>
+        <v>-5.248334404559445</v>
       </c>
       <c r="K12">
-        <v>-4.823820385055696</v>
+        <v>-4.836658139794826</v>
       </c>
       <c r="L12">
-        <v>-4.050618009394641</v>
+        <v>-3.774524716761139</v>
       </c>
       <c r="M12">
-        <v>-3.3056214333531426</v>
+        <v>-2.676993568619578</v>
       </c>
       <c r="N12">
-        <v>-2.0890692373438955</v>
+        <v>-1.4963325178192783</v>
       </c>
       <c r="O12">
-        <v>-1.1279406785645378</v>
+        <v>-0.9433460078404913</v>
       </c>
       <c r="P12">
-        <v>-0.511680471073666</v>
+        <v>-0.316668826462871</v>
       </c>
       <c r="Q12">
-        <v>-0.36065645096330257</v>
+        <v>0.168207764715292</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13">
-        <v>-2.7038488441866146</v>
+        <v>-2.7028394072388053</v>
       </c>
       <c r="B13">
-        <v>-3.01661009192074</v>
+        <v>-3.0218480090733717</v>
       </c>
       <c r="C13">
-        <v>-3.763065232934768</v>
+        <v>-3.7743187413112125</v>
       </c>
       <c r="D13">
-        <v>-4.715238759283993</v>
+        <v>-4.67731740744376</v>
       </c>
       <c r="E13">
-        <v>-5.078201120682991</v>
+        <v>-5.460889928511784</v>
       </c>
       <c r="F13">
-        <v>-5.049075995039362</v>
+        <v>-5.723298182286584</v>
       </c>
       <c r="G13">
-        <v>-5.0347620027316555</v>
+        <v>-5.745494710765256</v>
       </c>
       <c r="H13">
-        <v>-5.021044227375429</v>
+        <v>-5.741385000926226</v>
       </c>
       <c r="I13">
-        <v>-4.9830735087143</v>
+        <v>-5.688498346558982</v>
       </c>
       <c r="J13">
-        <v>-4.885492455914802</v>
+        <v>-5.441417390349265</v>
       </c>
       <c r="K13">
-        <v>-4.728987843204384</v>
+        <v>-4.799880690140465</v>
       </c>
       <c r="L13">
-        <v>-3.7607044673652807</v>
+        <v>-3.6215455026861423</v>
       </c>
       <c r="M13">
-        <v>-3.3615342849570804</v>
+        <v>-3.0794520800071776</v>
       </c>
       <c r="N13">
-        <v>-2.165574858503064</v>
+        <v>-1.7657879706601942</v>
       </c>
       <c r="O13">
-        <v>-1.1758266844254566</v>
+        <v>-0.9758349738335593</v>
       </c>
       <c r="P13">
-        <v>-0.19516995305618984</v>
+        <v>-0.014436763314136115</v>
       </c>
       <c r="Q13">
-        <v>-0.1271866485468192</v>
+        <v>0.10476185991816821</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
-        <v>-2.7123385638493938</v>
+        <v>-2.714412735401016</v>
       </c>
       <c r="B14">
-        <v>-3.019985709799179</v>
+        <v>-3.0340272247080744</v>
       </c>
       <c r="C14">
-        <v>-3.757783711392883</v>
+        <v>-3.792313780797404</v>
       </c>
       <c r="D14">
-        <v>-4.3367947823607365</v>
+        <v>-4.704244262185083</v>
       </c>
       <c r="E14">
-        <v>-4.255967900917449</v>
+        <v>-5.41399739370452</v>
       </c>
       <c r="F14">
-        <v>-4.238039472026499</v>
+        <v>-5.626862755242597</v>
       </c>
       <c r="G14">
-        <v>-4.234727904736618</v>
+        <v>-5.625621784819634</v>
       </c>
       <c r="H14">
-        <v>-4.2350872635538455</v>
+        <v>-5.613489123888587</v>
       </c>
       <c r="I14">
-        <v>-4.232855218476285</v>
+        <v>-5.593535048196531</v>
       </c>
       <c r="J14">
-        <v>-4.232128807549669</v>
+        <v>-5.302901537707602</v>
       </c>
       <c r="K14">
-        <v>-4.213504885950672</v>
+        <v>-4.855434454005247</v>
       </c>
       <c r="L14">
-        <v>-3.7187249739233965</v>
+        <v>-3.7661061727421243</v>
       </c>
       <c r="M14">
-        <v>-3.17799141351069</v>
+        <v>-2.82982916796382</v>
       </c>
       <c r="N14">
-        <v>-2.0099699821137924</v>
+        <v>-1.720192180358745</v>
       </c>
       <c r="O14">
-        <v>-1.2351917816636842</v>
+        <v>-1.3661846978547973</v>
       </c>
       <c r="P14">
-        <v>0.7985713784270128</v>
+        <v>-0.5186927707929876</v>
       </c>
       <c r="Q14">
-        <v>-0.3084039301901899</v>
+        <v>-0.16582811459135974</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15">
-        <v>-2.7275659630738645</v>
+        <v>-2.715979990766481</v>
       </c>
       <c r="B15">
-        <v>-3.0379822843784936</v>
+        <v>-3.0334448429300767</v>
       </c>
       <c r="C15">
-        <v>-3.6192037321500377</v>
+        <v>-3.790109796709442</v>
       </c>
       <c r="D15">
-        <v>-3.5971914437606998</v>
+        <v>-4.7233594803324666</v>
       </c>
       <c r="E15">
-        <v>-3.5414976494822925</v>
+        <v>-5.0761060544377745</v>
       </c>
       <c r="F15">
-        <v>-3.5194483451714063</v>
+        <v>-5.056961421138524</v>
       </c>
       <c r="G15">
-        <v>-3.534063949301436</v>
+        <v>-4.99048078524747</v>
       </c>
       <c r="H15">
-        <v>-3.52080408897806</v>
+        <v>-5.051398067473305</v>
       </c>
       <c r="I15">
-        <v>-3.548626345399223</v>
+        <v>-5.061617073608556</v>
       </c>
       <c r="J15">
-        <v>-3.5464652421751826</v>
+        <v>-4.9689355595958755</v>
       </c>
       <c r="K15">
-        <v>-3.568433269910601</v>
+        <v>-4.677352537153701</v>
       </c>
       <c r="L15">
-        <v>-3.515891396238385</v>
+        <v>-3.7989357001826995</v>
       </c>
       <c r="M15">
-        <v>-3.153765098713933</v>
+        <v>-3.1626582811335227</v>
       </c>
       <c r="N15">
-        <v>-1.8935764396111712</v>
+        <v>-1.5954897915704496</v>
       </c>
       <c r="O15">
-        <v>-1.0468181457054884</v>
+        <v>-1.0512813643228092</v>
       </c>
       <c r="P15">
-        <v>-0.5384699017299487</v>
+        <v>-0.1606677508911038</v>
       </c>
       <c r="Q15">
-        <v>-0.4328425675690904</v>
+        <v>1.4791644940656798</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16">
-        <v>-2.7310196488570466</v>
+        <v>-2.723207242103563</v>
       </c>
       <c r="B16">
-        <v>-2.801473607308249</v>
+        <v>-3.0350191815075234</v>
       </c>
       <c r="C16">
-        <v>-3.063836116554036</v>
+        <v>-3.778878140691278</v>
       </c>
       <c r="D16">
-        <v>-3.1943472150636323</v>
+        <v>-4.316901324975933</v>
       </c>
       <c r="E16">
-        <v>-3.2142915595239128</v>
+        <v>-4.265156381269905</v>
       </c>
       <c r="F16">
-        <v>-3.214926921296436</v>
+        <v>-4.259929401280456</v>
       </c>
       <c r="G16">
-        <v>-3.141482026843862</v>
+        <v>-4.252304007410171</v>
       </c>
       <c r="H16">
-        <v>-3.0098277043099855</v>
+        <v>-4.108002627766641</v>
       </c>
       <c r="I16">
-        <v>-2.873084758133135</v>
+        <v>-4.263008421737653</v>
       </c>
       <c r="J16">
-        <v>-3.2173478244147504</v>
+        <v>-4.251181663606297</v>
       </c>
       <c r="K16">
-        <v>-3.21778595963706</v>
+        <v>-4.2674027048981875</v>
       </c>
       <c r="L16">
-        <v>-3.163802715083376</v>
+        <v>-3.7517621039351887</v>
       </c>
       <c r="M16">
-        <v>-2.850874712033572</v>
+        <v>-3.257923364444042</v>
       </c>
       <c r="N16">
-        <v>-1.9548383905986215</v>
+        <v>-2.0197356502994372</v>
       </c>
       <c r="O16">
-        <v>-1.8074077211820925</v>
+        <v>-1.0176653063128664</v>
       </c>
       <c r="P16">
-        <v>-0.502598764899489</v>
+        <v>-0.17792794736685588</v>
       </c>
       <c r="Q16">
-        <v>0.07591280818658207</v>
+        <v>0.6774109243955594</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17">
-        <v>-2.7749852447764676</v>
+        <v>-2.7701977274696366</v>
       </c>
       <c r="B17">
-        <v>-2.736663635648747</v>
+        <v>-3.0602912097629624</v>
       </c>
       <c r="C17">
-        <v>-2.7852615054385406</v>
+        <v>-3.6808611521561727</v>
       </c>
       <c r="D17">
-        <v>-2.5508247625555733</v>
+        <v>-3.76215268723174</v>
       </c>
       <c r="E17">
-        <v>-2.2555760699256435</v>
+        <v>-3.729859768423772</v>
       </c>
       <c r="F17">
-        <v>-3.0812789718452818</v>
+        <v>-3.717013702219703</v>
       </c>
       <c r="G17">
-        <v>-2.8402534500412115</v>
+        <v>-3.711803287379496</v>
       </c>
       <c r="H17">
-        <v>-2.080748767462029</v>
+        <v>-3.7155489053080206</v>
       </c>
       <c r="I17">
-        <v>-2.1005799929433726</v>
+        <v>-3.58095460848033</v>
       </c>
       <c r="J17">
-        <v>-2.7140750940296963</v>
+        <v>-3.7228746447385306</v>
       </c>
       <c r="K17">
-        <v>-2.4936686852202974</v>
+        <v>-3.712577183794307</v>
       </c>
       <c r="L17">
-        <v>-2.107651275485544</v>
+        <v>-3.5635242127924593</v>
       </c>
       <c r="M17">
-        <v>-2.720485978328233</v>
+        <v>-2.8680040960038986</v>
       </c>
       <c r="N17">
-        <v>-1.8296544772582135</v>
+        <v>-1.8484824385010905</v>
       </c>
       <c r="O17">
-        <v>-1.3158609033788515</v>
+        <v>-1.3890179299409076</v>
       </c>
       <c r="P17">
-        <v>-0.40995968770269037</v>
+        <v>-0.3643797515841254</v>
       </c>
       <c r="Q17">
-        <v>-0.2167236829068565</v>
+        <v>-0.19871597132350435</v>
       </c>
     </row>
   </sheetData>
@@ -2153,915 +2163,915 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16384">
       <c r="A1">
-        <v>-6.307012051179821</v>
+        <v>-1.7848566307838665</v>
       </c>
       <c r="B1">
-        <v>-6.176809206463105</v>
+        <v>-2.5276853874065357</v>
       </c>
       <c r="C1">
-        <v>-6.258239005456728</v>
+        <v>-2.4510742301690933</v>
       </c>
       <c r="D1">
-        <v>-6.426919078419377</v>
+        <v>-2.497001217420432</v>
       </c>
       <c r="E1">
-        <v>-6.457117439029137</v>
+        <v>-2.4450340987260426</v>
       </c>
       <c r="F1">
-        <v>-6.4184520164355545</v>
+        <v>-2.4146869460543305</v>
       </c>
       <c r="G1">
-        <v>-6.334530326995688</v>
+        <v>-2.357829243618861</v>
       </c>
       <c r="H1">
-        <v>-5.976471580151601</v>
+        <v>-2.2836109571150796</v>
       </c>
       <c r="I1">
-        <v>-5.905682693513636</v>
+        <v>-2.243996806997527</v>
       </c>
       <c r="J1">
-        <v>-5.082109444554504</v>
+        <v>-2.2233254909291493</v>
       </c>
       <c r="K1">
-        <v>-4.560832065640474</v>
+        <v>-2.2120628990383193</v>
       </c>
       <c r="L1">
-        <v>-3.040044563194327</v>
+        <v>-2.148402827234693</v>
       </c>
       <c r="M1">
-        <v>-2.0011739753759286</v>
+        <v>-1.5899809182164115</v>
       </c>
       <c r="N1">
-        <v>-1.087471667372137</v>
+        <v>-2.148446871177596</v>
       </c>
       <c r="O1">
-        <v>-0.22666884117709427</v>
+        <v>-1.5151340740450143</v>
       </c>
       <c r="P1">
-        <v>-0.25261020052907196</v>
+        <v>-0.6308881818892883</v>
       </c>
       <c r="Q1">
-        <v>-0.35903202976358783</v>
+        <v>0.3415356817440895</v>
       </c>
       <c r="XFD1">
         <f>MAX(A1:XFC1)</f>
-        <v>-0.40970000000000001</v>
+        <v>-0.17525570652831821</v>
       </c>
     </row>
     <row r="2" spans="1:16384">
       <c r="A2">
-        <v>-5.3679074238779885</v>
+        <v>-1.785183374237913</v>
       </c>
       <c r="B2">
-        <v>-5.351206423463868</v>
+        <v>-2.5276542818133807</v>
       </c>
       <c r="C2">
-        <v>-5.855639866550453</v>
+        <v>-2.451041103480424</v>
       </c>
       <c r="D2">
-        <v>-5.979949711727801</v>
+        <v>-2.4969691224977426</v>
       </c>
       <c r="E2">
-        <v>-6.260465767775235</v>
+        <v>-2.4450056052205347</v>
       </c>
       <c r="F2">
-        <v>-6.646170530774804</v>
+        <v>-2.414658504495101</v>
       </c>
       <c r="G2">
-        <v>-6.793255247249106</v>
+        <v>-2.357799411377786</v>
       </c>
       <c r="H2">
-        <v>-6.071562171337437</v>
+        <v>-2.2835610803234045</v>
       </c>
       <c r="I2">
-        <v>-5.480558899951417</v>
+        <v>-2.2439563780869163</v>
       </c>
       <c r="J2">
-        <v>-4.73665406458985</v>
+        <v>-2.223284330943417</v>
       </c>
       <c r="K2">
-        <v>-4.6768336870887275</v>
+        <v>-2.21199468014756</v>
       </c>
       <c r="L2">
-        <v>-3.921691877683447</v>
+        <v>-2.1508149831413004</v>
       </c>
       <c r="M2">
-        <v>-2.754131201546189</v>
+        <v>-1.6012431148547823</v>
       </c>
       <c r="N2">
-        <v>-2.1773572699386405</v>
+        <v>-2.148795492427787</v>
       </c>
       <c r="O2">
-        <v>-1.022110787848395</v>
+        <v>-2.0074606899078526</v>
       </c>
       <c r="P2">
-        <v>-0.21620399601857254</v>
+        <v>-0.9537771812565995</v>
       </c>
       <c r="Q2">
-        <v>-0.3226671983124252</v>
+        <v>0.09635548464352782</v>
       </c>
     </row>
     <row r="3" spans="1:16384">
       <c r="A3">
-        <v>-6.09169191188933</v>
+        <v>-1.7884392234622524</v>
       </c>
       <c r="B3">
-        <v>-5.969405617997597</v>
+        <v>-2.5273428393008417</v>
       </c>
       <c r="C3">
-        <v>-6.284209038934506</v>
+        <v>-2.4507096250054485</v>
       </c>
       <c r="D3">
-        <v>-6.587681588028043</v>
+        <v>-2.496647965685007</v>
       </c>
       <c r="E3">
-        <v>-6.593518948919377</v>
+        <v>-2.4447204735775165</v>
       </c>
       <c r="F3">
-        <v>-6.561089854220298</v>
+        <v>-2.414373860348844</v>
       </c>
       <c r="G3">
-        <v>-6.508122344771042</v>
+        <v>-2.357501013606488</v>
       </c>
       <c r="H3">
-        <v>-6.568512997295607</v>
+        <v>-2.2830593781974415</v>
       </c>
       <c r="I3">
-        <v>-6.153334051228156</v>
+        <v>-2.2435459944433163</v>
       </c>
       <c r="J3">
-        <v>-4.744337194347431</v>
+        <v>-2.222903368684379</v>
       </c>
       <c r="K3">
-        <v>-4.498808198935897</v>
+        <v>-2.2113613788748006</v>
       </c>
       <c r="L3">
-        <v>-3.68054774759776</v>
+        <v>-2.1472136149769647</v>
       </c>
       <c r="M3">
-        <v>-2.8168903654172555</v>
+        <v>-1.6822245130300795</v>
       </c>
       <c r="N3">
-        <v>-1.884086904707414</v>
+        <v>-2.1269623852022623</v>
       </c>
       <c r="O3">
-        <v>-0.7097222429590478</v>
+        <v>-1.5608932295892801</v>
       </c>
       <c r="P3">
-        <v>-0.23586795012419903</v>
+        <v>-0.5136211350639011</v>
       </c>
       <c r="Q3">
-        <v>-0.2942872501747152</v>
+        <v>-0.5107412684160381</v>
       </c>
     </row>
     <row r="4" spans="1:16384">
       <c r="A4">
-        <v>-6.277015096497995</v>
+        <v>-1.819898889321108</v>
       </c>
       <c r="B4">
-        <v>-6.167882533519947</v>
+        <v>-2.5241873250053666</v>
       </c>
       <c r="C4">
-        <v>-6.16207160567127</v>
+        <v>-2.4473733771826507</v>
       </c>
       <c r="D4">
-        <v>-6.232226487571378</v>
+        <v>-2.4934153241987627</v>
       </c>
       <c r="E4">
-        <v>-6.227478985901746</v>
+        <v>-2.441849473038464</v>
       </c>
       <c r="F4">
-        <v>-6.218139883295606</v>
+        <v>-2.4115078972773167</v>
       </c>
       <c r="G4">
-        <v>-6.191265725734334</v>
+        <v>-2.354496104906395</v>
       </c>
       <c r="H4">
-        <v>-6.174539923741197</v>
+        <v>-2.2774787348314725</v>
       </c>
       <c r="I4">
-        <v>-6.028521108096172</v>
+        <v>-2.2395339961396377</v>
       </c>
       <c r="J4">
-        <v>-4.73340596428656</v>
+        <v>-2.2190966250637585</v>
       </c>
       <c r="K4">
-        <v>-4.623470951124987</v>
+        <v>-2.206952494979078</v>
       </c>
       <c r="L4">
-        <v>-3.7289987241115576</v>
+        <v>-2.13511760342717</v>
       </c>
       <c r="M4">
-        <v>-2.7640235793881014</v>
+        <v>-2.07411835509354</v>
       </c>
       <c r="N4">
-        <v>-1.7645015737434586</v>
+        <v>-2.1081249222414242</v>
       </c>
       <c r="O4">
-        <v>-1.016009124082942</v>
+        <v>-1.7566201484195028</v>
       </c>
       <c r="P4">
-        <v>-0.19901887556040307</v>
+        <v>-0.5827366880819026</v>
       </c>
       <c r="Q4">
-        <v>-0.3373771016573748</v>
+        <v>0.07226813551958147</v>
       </c>
     </row>
     <row r="5" spans="1:16384">
       <c r="A5">
-        <v>-4.236842466394855</v>
+        <v>-1.8764000119477484</v>
       </c>
       <c r="B5">
-        <v>-5.810821984182143</v>
+        <v>-2.4971099707870557</v>
       </c>
       <c r="C5">
-        <v>-6.061994470065893</v>
+        <v>-2.411649394171131</v>
       </c>
       <c r="D5">
-        <v>-6.093780437608772</v>
+        <v>-2.4583281724328843</v>
       </c>
       <c r="E5">
-        <v>-6.091120860129743</v>
+        <v>-2.4108776894517616</v>
       </c>
       <c r="F5">
-        <v>-6.092614413309402</v>
+        <v>-2.3806651700955306</v>
       </c>
       <c r="G5">
-        <v>-6.098405001066338</v>
+        <v>-2.3123647530047564</v>
       </c>
       <c r="H5">
-        <v>-6.104400075477332</v>
+        <v>-2.257637342897368</v>
       </c>
       <c r="I5">
-        <v>-5.951835375987357</v>
+        <v>-2.199434688031164</v>
       </c>
       <c r="J5">
-        <v>-4.651612106206902</v>
+        <v>-2.1780100416922994</v>
       </c>
       <c r="K5">
-        <v>-4.553938267717897</v>
+        <v>-2.1596230546748876</v>
       </c>
       <c r="L5">
-        <v>-3.549149686858801</v>
+        <v>-2.160738591678932</v>
       </c>
       <c r="M5">
-        <v>-2.5801449470859037</v>
+        <v>-2.0828611341535614</v>
       </c>
       <c r="N5">
-        <v>-1.8424590346831653</v>
+        <v>-1.9678817087898755</v>
       </c>
       <c r="O5">
-        <v>-0.8695808576401736</v>
+        <v>-1.4577762993482544</v>
       </c>
       <c r="P5">
-        <v>-0.18053252370896603</v>
+        <v>-0.7815346911720201</v>
       </c>
       <c r="Q5">
-        <v>-0.13879687436466487</v>
+        <v>-0.23680790559702544</v>
       </c>
     </row>
     <row r="6" spans="1:16384">
       <c r="A6">
-        <v>-5.960537050124437</v>
+        <v>-2.248377101193754</v>
       </c>
       <c r="B6">
-        <v>-5.9166869385905425</v>
+        <v>-2.1254069216454825</v>
       </c>
       <c r="C6">
-        <v>-6.007267866993118</v>
+        <v>0.02512795477682898</v>
       </c>
       <c r="D6">
-        <v>-6.051840696164895</v>
+        <v>-1.570695259474376</v>
       </c>
       <c r="E6">
-        <v>-6.061452045334556</v>
+        <v>-1.4083400853888823</v>
       </c>
       <c r="F6">
-        <v>-6.054373901392397</v>
+        <v>-1.1226960914894155</v>
       </c>
       <c r="G6">
-        <v>-6.058064791898174</v>
+        <v>-1.0439764230341333</v>
       </c>
       <c r="H6">
-        <v>-6.068023627038675</v>
+        <v>-1.5870257899509042</v>
       </c>
       <c r="I6">
-        <v>-5.923372382822782</v>
+        <v>-1.3613391048054582</v>
       </c>
       <c r="J6">
-        <v>-3.926301091891896</v>
+        <v>-1.5519096283764207</v>
       </c>
       <c r="K6">
-        <v>-4.092096941706499</v>
+        <v>-1.7755640288811916</v>
       </c>
       <c r="L6">
-        <v>-3.857312293413472</v>
+        <v>-2.0524737693956103</v>
       </c>
       <c r="M6">
-        <v>-2.510052846338371</v>
+        <v>-2.094717378578055</v>
       </c>
       <c r="N6">
-        <v>-1.821992670788981</v>
+        <v>-1.8804118600107242</v>
       </c>
       <c r="O6">
-        <v>-0.8190994565988202</v>
+        <v>-1.514920138627954</v>
       </c>
       <c r="P6">
-        <v>-0.22039561504389288</v>
+        <v>-0.7379794162763524</v>
       </c>
       <c r="Q6">
-        <v>0.6154188049793595</v>
+        <v>0.44033146074698915</v>
       </c>
     </row>
     <row r="7" spans="1:16384">
       <c r="A7">
-        <v>-5.926284877819438</v>
+        <v>-2.7035697155677414</v>
       </c>
       <c r="B7">
-        <v>-5.9420428336781494</v>
+        <v>-2.3413751597592354</v>
       </c>
       <c r="C7">
-        <v>-5.928956521646261</v>
+        <v>-2.799166513475619</v>
       </c>
       <c r="D7">
-        <v>-5.960516349632466</v>
+        <v>-2.8205352820648297</v>
       </c>
       <c r="E7">
-        <v>-5.95502223900768</v>
+        <v>-2.917437900700887</v>
       </c>
       <c r="F7">
-        <v>-5.971315335104346</v>
+        <v>-2.9465631139318056</v>
       </c>
       <c r="G7">
-        <v>-5.9518510566580405</v>
+        <v>-2.9461109202742537</v>
       </c>
       <c r="H7">
-        <v>-5.915739613814453</v>
+        <v>-2.923819993116805</v>
       </c>
       <c r="I7">
-        <v>-5.8632426204414365</v>
+        <v>-2.8983891783134137</v>
       </c>
       <c r="J7">
-        <v>-4.7605172892772325</v>
+        <v>-2.8649733386053935</v>
       </c>
       <c r="K7">
-        <v>-4.685804353222222</v>
+        <v>-2.7506742533105975</v>
       </c>
       <c r="L7">
-        <v>-3.649620205911665</v>
+        <v>-2.503292511821543</v>
       </c>
       <c r="M7">
-        <v>-3.0088475796960372</v>
+        <v>-2.114811897821195</v>
       </c>
       <c r="N7">
-        <v>-1.600067989523087</v>
+        <v>-1.925781021439405</v>
       </c>
       <c r="O7">
-        <v>-0.9735778978468177</v>
+        <v>-1.179986946331943</v>
       </c>
       <c r="P7">
-        <v>-0.17890105007491683</v>
+        <v>-0.8687176282614918</v>
       </c>
       <c r="Q7">
-        <v>0.1697860633250231</v>
+        <v>-0.1666048804714396</v>
       </c>
     </row>
     <row r="8" spans="1:16384">
       <c r="A8">
-        <v>-5.678258497420765</v>
+        <v>-2.908311608630175</v>
       </c>
       <c r="B8">
-        <v>-5.56742478511306</v>
+        <v>-3.1028024327574952</v>
       </c>
       <c r="C8">
-        <v>-5.67002799923826</v>
+        <v>-3.6521794672226933</v>
       </c>
       <c r="D8">
-        <v>-5.670205972065291</v>
+        <v>-3.584021665376112</v>
       </c>
       <c r="E8">
-        <v>-5.6554059020424585</v>
+        <v>-3.5891794149283904</v>
       </c>
       <c r="F8">
-        <v>-5.62669895628067</v>
+        <v>-3.5342001589671765</v>
       </c>
       <c r="G8">
-        <v>-5.579098439872415</v>
+        <v>-3.4296410787724576</v>
       </c>
       <c r="H8">
-        <v>-5.395085631533347</v>
+        <v>-3.2597120131400374</v>
       </c>
       <c r="I8">
-        <v>-4.098582256863074</v>
+        <v>-3.1025362103242777</v>
       </c>
       <c r="J8">
-        <v>-5.195710519213708</v>
+        <v>-2.9870154890103553</v>
       </c>
       <c r="K8">
-        <v>-4.723132461782428</v>
+        <v>-2.822311887979976</v>
       </c>
       <c r="L8">
-        <v>-3.75787167278178</v>
+        <v>-2.4975749390016206</v>
       </c>
       <c r="M8">
-        <v>-2.9643020415188808</v>
+        <v>-2.1790683373752215</v>
       </c>
       <c r="N8">
-        <v>-1.9949013977058223</v>
+        <v>-1.9707691777934224</v>
       </c>
       <c r="O8">
-        <v>-0.9533376199985579</v>
+        <v>-1.4850248807759874</v>
       </c>
       <c r="P8">
-        <v>-0.3196576343841936</v>
+        <v>-0.9848483511893179</v>
       </c>
       <c r="Q8">
-        <v>-0.4767581248173149</v>
+        <v>-0.1903385918641797</v>
       </c>
     </row>
     <row r="9" spans="1:16384">
       <c r="A9">
-        <v>-6.316040828208758</v>
+        <v>-2.8484409552301475</v>
       </c>
       <c r="B9">
-        <v>-6.0817760228044095</v>
+        <v>-3.4429940208266063</v>
       </c>
       <c r="C9">
-        <v>-6.238070620034554</v>
+        <v>-3.5411325611285793</v>
       </c>
       <c r="D9">
-        <v>-6.228874250674521</v>
+        <v>-3.467072230216202</v>
       </c>
       <c r="E9">
-        <v>-6.0114522580925165</v>
+        <v>-3.4504033671443564</v>
       </c>
       <c r="F9">
-        <v>-5.900906438095765</v>
+        <v>-3.3966377107063392</v>
       </c>
       <c r="G9">
-        <v>-5.397909769884912</v>
+        <v>-3.2996959117457068</v>
       </c>
       <c r="H9">
-        <v>-6.264143483407099</v>
+        <v>-3.1362995800536324</v>
       </c>
       <c r="I9">
-        <v>-6.029285163751526</v>
+        <v>-2.967063060042597</v>
       </c>
       <c r="J9">
-        <v>-5.484948152844897</v>
+        <v>-2.8473461982573123</v>
       </c>
       <c r="K9">
-        <v>-4.929967280268034</v>
+        <v>-2.7138138068632363</v>
       </c>
       <c r="L9">
-        <v>-4.060664640198883</v>
+        <v>-2.4173041413442036</v>
       </c>
       <c r="M9">
-        <v>-2.7124130584239285</v>
+        <v>-2.0895167810978963</v>
       </c>
       <c r="N9">
-        <v>-1.8336796583068595</v>
+        <v>-1.85741978756421</v>
       </c>
       <c r="O9">
-        <v>-1.1964590879071235</v>
+        <v>-1.618389887453753</v>
       </c>
       <c r="P9">
-        <v>-0.1849809539850177</v>
+        <v>-1.204714723566724</v>
       </c>
       <c r="Q9">
-        <v>0.11516951001392807</v>
+        <v>-0.13202302182046807</v>
       </c>
     </row>
     <row r="10" spans="1:16384">
       <c r="A10">
-        <v>-5.763953069189678</v>
+        <v>-3.509710438842604</v>
       </c>
       <c r="B10">
-        <v>-6.000017392416307</v>
+        <v>-3.389371888754847</v>
       </c>
       <c r="C10">
-        <v>-6.014141319852922</v>
+        <v>-3.500590800712982</v>
       </c>
       <c r="D10">
-        <v>-6.020201057722484</v>
+        <v>-3.4412151915147873</v>
       </c>
       <c r="E10">
-        <v>-5.973608880019473</v>
+        <v>-3.4042283315134587</v>
       </c>
       <c r="F10">
-        <v>-5.897021249382819</v>
+        <v>-3.3421529909106757</v>
       </c>
       <c r="G10">
-        <v>-5.8494677325562305</v>
+        <v>-3.2539834007774986</v>
       </c>
       <c r="H10">
-        <v>-5.799707479338113</v>
+        <v>-3.0852142760165</v>
       </c>
       <c r="I10">
-        <v>-5.711395294921274</v>
+        <v>-2.899001634260649</v>
       </c>
       <c r="J10">
-        <v>-5.464161593928093</v>
+        <v>-2.77659724490617</v>
       </c>
       <c r="K10">
-        <v>-5.066254106303273</v>
+        <v>-2.66151236419698</v>
       </c>
       <c r="L10">
-        <v>-4.173173546978668</v>
+        <v>-2.384732328443785</v>
       </c>
       <c r="M10">
-        <v>-3.0773688233613345</v>
+        <v>-2.0351470543256376</v>
       </c>
       <c r="N10">
-        <v>-1.9409599518067997</v>
+        <v>-1.7561084837345506</v>
       </c>
       <c r="O10">
-        <v>-1.0490305054471907</v>
+        <v>-1.541387457066191</v>
       </c>
       <c r="P10">
-        <v>-0.2146461645389718</v>
+        <v>-1.2745666944338956</v>
       </c>
       <c r="Q10">
-        <v>-0.4679537608831236</v>
+        <v>-0.2937909018396528</v>
       </c>
     </row>
     <row r="11" spans="1:16384">
       <c r="A11">
-        <v>-4.366256114914856</v>
+        <v>-3.3593292316430556</v>
       </c>
       <c r="B11">
-        <v>-5.19644966191162</v>
+        <v>-3.2717527091354164</v>
       </c>
       <c r="C11">
-        <v>-5.780849127657626</v>
+        <v>-3.3296800813502414</v>
       </c>
       <c r="D11">
-        <v>-5.780130398522132</v>
+        <v>-3.3084467288781765</v>
       </c>
       <c r="E11">
-        <v>-5.773622986047085</v>
+        <v>-3.2750012508073922</v>
       </c>
       <c r="F11">
-        <v>-5.768601564944037</v>
+        <v>-3.2264694849558784</v>
       </c>
       <c r="G11">
-        <v>-5.765228926974281</v>
+        <v>-3.156150201425438</v>
       </c>
       <c r="H11">
-        <v>-5.744901681190192</v>
+        <v>-3.007975421621731</v>
       </c>
       <c r="I11">
-        <v>-5.660669261295426</v>
+        <v>-2.823309326959706</v>
       </c>
       <c r="J11">
-        <v>-5.496364020716155</v>
+        <v>-2.6936030395744717</v>
       </c>
       <c r="K11">
-        <v>-5.301063520010416</v>
+        <v>-2.612614219824905</v>
       </c>
       <c r="L11">
-        <v>-4.298299723693553</v>
+        <v>-2.394290426031771</v>
       </c>
       <c r="M11">
-        <v>-2.9860521812696907</v>
+        <v>-2.011142094230564</v>
       </c>
       <c r="N11">
-        <v>-2.273087908851484</v>
+        <v>-1.6627463264712672</v>
       </c>
       <c r="O11">
-        <v>-1.3178428771628197</v>
+        <v>-1.476956430151428</v>
       </c>
       <c r="P11">
-        <v>-0.2122749051925629</v>
+        <v>-1.392418889707509</v>
       </c>
       <c r="Q11">
-        <v>-0.5797506013423018</v>
+        <v>-0.5870470402102582</v>
       </c>
     </row>
     <row r="12" spans="1:16384">
       <c r="A12">
-        <v>-5.679764834600467</v>
+        <v>-2.8927950858917355</v>
       </c>
       <c r="B12">
-        <v>-5.66563359004268</v>
+        <v>-2.88545846515034</v>
       </c>
       <c r="C12">
-        <v>-5.705288834559725</v>
+        <v>-2.8848501633538626</v>
       </c>
       <c r="D12">
-        <v>-5.700678379858193</v>
+        <v>-2.871348421982054</v>
       </c>
       <c r="E12">
-        <v>-5.693018347529894</v>
+        <v>-2.862297375491079</v>
       </c>
       <c r="F12">
-        <v>-5.685399799487799</v>
+        <v>-2.8522135615733926</v>
       </c>
       <c r="G12">
-        <v>-5.681861991279706</v>
+        <v>-2.8253651631550762</v>
       </c>
       <c r="H12">
-        <v>-5.669606171588219</v>
+        <v>-2.7501003950880167</v>
       </c>
       <c r="I12">
-        <v>-5.5951525129613335</v>
+        <v>-2.62900708494828</v>
       </c>
       <c r="J12">
-        <v>-5.431611202855406</v>
+        <v>-2.5130197564607974</v>
       </c>
       <c r="K12">
-        <v>-5.119877079216514</v>
+        <v>-2.458320704981248</v>
       </c>
       <c r="L12">
-        <v>-4.46893188160085</v>
+        <v>-2.322086999641383</v>
       </c>
       <c r="M12">
-        <v>-3.056630660622012</v>
+        <v>-1.9631899198741811</v>
       </c>
       <c r="N12">
-        <v>-2.226676205130948</v>
+        <v>-1.5579401094493037</v>
       </c>
       <c r="O12">
-        <v>-1.550611093636328</v>
+        <v>-1.3603995109104574</v>
       </c>
       <c r="P12">
-        <v>0.5998731024416549</v>
+        <v>-1.3255932669462327</v>
       </c>
       <c r="Q12">
-        <v>-0.5784269393146995</v>
+        <v>-0.6159296667474743</v>
       </c>
     </row>
     <row r="13" spans="1:16384">
       <c r="A13">
-        <v>-5.397333249494807</v>
+        <v>-2.558100090953605</v>
       </c>
       <c r="B13">
-        <v>-5.391585660456327</v>
+        <v>-2.3673968377892263</v>
       </c>
       <c r="C13">
-        <v>-5.407413653127268</v>
+        <v>-2.5561432323152173</v>
       </c>
       <c r="D13">
-        <v>-5.394992290384074</v>
+        <v>-2.5430386582892095</v>
       </c>
       <c r="E13">
-        <v>-5.382944126674114</v>
+        <v>-2.5291361025020653</v>
       </c>
       <c r="F13">
-        <v>-5.367640115526042</v>
+        <v>-2.5292512482760015</v>
       </c>
       <c r="G13">
-        <v>-5.356015407267253</v>
+        <v>-2.5177453269207817</v>
       </c>
       <c r="H13">
-        <v>-5.34495129422768</v>
+        <v>-2.47071751114758</v>
       </c>
       <c r="I13">
-        <v>-5.310304317154974</v>
+        <v>-2.364977372287725</v>
       </c>
       <c r="J13">
-        <v>-5.217901479369625</v>
+        <v>-2.2344379745394667</v>
       </c>
       <c r="K13">
-        <v>-5.057858881527022</v>
+        <v>-2.2026376925344904</v>
       </c>
       <c r="L13">
-        <v>-4.443647308013364</v>
+        <v>-2.1477145197737015</v>
       </c>
       <c r="M13">
-        <v>-3.303502248513667</v>
+        <v>-1.9078570780506008</v>
       </c>
       <c r="N13">
-        <v>-2.1597751892862793</v>
+        <v>-1.4851052485156375</v>
       </c>
       <c r="O13">
-        <v>-1.7420627460935725</v>
+        <v>-1.264747025046816</v>
       </c>
       <c r="P13">
-        <v>-0.5934817507094298</v>
+        <v>-1.2195855832082412</v>
       </c>
       <c r="Q13">
-        <v>-0.5226383845056601</v>
+        <v>-1.0089851628699662</v>
       </c>
     </row>
     <row r="14" spans="1:16384">
       <c r="A14">
-        <v>-4.047949650564678</v>
+        <v>-2.3126566229299583</v>
       </c>
       <c r="B14">
-        <v>-4.626173864464672</v>
+        <v>-2.369392816817167</v>
       </c>
       <c r="C14">
-        <v>-4.616157465405355</v>
+        <v>-2.417861807894109</v>
       </c>
       <c r="D14">
-        <v>-4.593797830814748</v>
+        <v>-2.441904328016086</v>
       </c>
       <c r="E14">
-        <v>-4.584623394436641</v>
+        <v>-2.443568516759557</v>
       </c>
       <c r="F14">
-        <v>-4.583609547398763</v>
+        <v>-2.435703596845629</v>
       </c>
       <c r="G14">
-        <v>-4.5807676592561695</v>
+        <v>-2.4181170293814462</v>
       </c>
       <c r="H14">
-        <v>-4.579634588606742</v>
+        <v>-2.3415563355246034</v>
       </c>
       <c r="I14">
-        <v>-4.578429084006108</v>
+        <v>-2.1810142782614035</v>
       </c>
       <c r="J14">
-        <v>-4.573283129205229</v>
+        <v>-2.0293107784583286</v>
       </c>
       <c r="K14">
-        <v>-4.554995750717954</v>
+        <v>-1.9778365931008786</v>
       </c>
       <c r="L14">
-        <v>-4.278212441520943</v>
+        <v>-2.0074920346821257</v>
       </c>
       <c r="M14">
-        <v>-3.5520396595889916</v>
+        <v>-2.0056430061779547</v>
       </c>
       <c r="N14">
-        <v>-2.3952325969119035</v>
+        <v>-1.6736033030016635</v>
       </c>
       <c r="O14">
-        <v>-2.159762761852453</v>
+        <v>-1.3391098141166953</v>
       </c>
       <c r="P14">
-        <v>0.010381853165609441</v>
+        <v>-1.2235974042623923</v>
       </c>
       <c r="Q14">
-        <v>-0.2870634505980972</v>
+        <v>-1.2143357777645907</v>
       </c>
     </row>
     <row r="15" spans="1:16384">
       <c r="A15">
-        <v>-3.976999107757274</v>
+        <v>-2.177125492460649</v>
       </c>
       <c r="B15">
-        <v>-3.936587595352303</v>
+        <v>-2.203183029893861</v>
       </c>
       <c r="C15">
-        <v>-3.9245523468950405</v>
+        <v>-2.2482290976569534</v>
       </c>
       <c r="D15">
-        <v>-3.896492590690811</v>
+        <v>-2.279620915890542</v>
       </c>
       <c r="E15">
-        <v>-3.879731756421259</v>
+        <v>-2.2614623498296447</v>
       </c>
       <c r="F15">
-        <v>-3.8806529101876253</v>
+        <v>-2.252938508486072</v>
       </c>
       <c r="G15">
-        <v>-3.876751873060035</v>
+        <v>-2.24019639197339</v>
       </c>
       <c r="H15">
-        <v>-3.8831519292179446</v>
+        <v>-2.169244768114045</v>
       </c>
       <c r="I15">
-        <v>-3.89098449218885</v>
+        <v>-2.000286418267039</v>
       </c>
       <c r="J15">
-        <v>-3.9001179654158826</v>
+        <v>-1.902925598222146</v>
       </c>
       <c r="K15">
-        <v>-3.903829169957493</v>
+        <v>-1.8968494127288724</v>
       </c>
       <c r="L15">
-        <v>-3.8547336886669807</v>
+        <v>-1.946979634902806</v>
       </c>
       <c r="M15">
-        <v>-3.265644927160053</v>
+        <v>-1.961405078113115</v>
       </c>
       <c r="N15">
-        <v>-2.2814356135129223</v>
+        <v>-2.0073853835224464</v>
       </c>
       <c r="O15">
-        <v>-1.933848088817581</v>
+        <v>-1.6144645615962336</v>
       </c>
       <c r="P15">
-        <v>0.2570933840120144</v>
+        <v>-1.4022656528686743</v>
       </c>
       <c r="Q15">
-        <v>-0.4025880913092123</v>
+        <v>-1.2685892675310686</v>
       </c>
     </row>
     <row r="16" spans="1:16384">
       <c r="A16">
-        <v>-3.6429110251142007</v>
+        <v>-2.096901553186088</v>
       </c>
       <c r="B16">
-        <v>-3.5597553952315293</v>
+        <v>-2.145592829629177</v>
       </c>
       <c r="C16">
-        <v>-3.5695914850359682</v>
+        <v>-2.1677458779657015</v>
       </c>
       <c r="D16">
-        <v>-3.5552076696709407</v>
+        <v>-2.2117331135583873</v>
       </c>
       <c r="E16">
-        <v>-3.556939111252622</v>
+        <v>-2.186560878907273</v>
       </c>
       <c r="F16">
-        <v>-3.5590655584133803</v>
+        <v>-2.155724559192616</v>
       </c>
       <c r="G16">
-        <v>-3.5628009489919297</v>
+        <v>-2.089602456890313</v>
       </c>
       <c r="H16">
-        <v>-3.5634040185423674</v>
+        <v>-1.9923573827342127</v>
       </c>
       <c r="I16">
-        <v>-3.563719162038749</v>
+        <v>-1.8617395718316219</v>
       </c>
       <c r="J16">
-        <v>-3.5694596967126717</v>
+        <v>-1.7330606902033148</v>
       </c>
       <c r="K16">
-        <v>-3.569645646258509</v>
+        <v>-1.5539451139269034</v>
       </c>
       <c r="L16">
-        <v>-3.5649583697355696</v>
+        <v>-1.6037249068612724</v>
       </c>
       <c r="M16">
-        <v>-3.547233015850618</v>
+        <v>-1.8345189150679109</v>
       </c>
       <c r="N16">
-        <v>-2.187549816410681</v>
+        <v>-1.8595707291540948</v>
       </c>
       <c r="O16">
-        <v>-1.65664843306162</v>
+        <v>-1.6118352081328737</v>
       </c>
       <c r="P16">
-        <v>-0.10374655385972738</v>
+        <v>-1.2504290525862352</v>
       </c>
       <c r="Q16">
-        <v>-0.5582097813077228</v>
+        <v>-1.2601197038593812</v>
       </c>
     </row>
     <row r="17" spans="1:16384">
       <c r="A17">
-        <v>-3.4889975087785245</v>
+        <v>-2.0801200692701807</v>
       </c>
       <c r="B17">
-        <v>-3.3888252551227374</v>
+        <v>-2.1296713849340563</v>
       </c>
       <c r="C17">
-        <v>-3.448238013612535</v>
+        <v>-2.1344420770387877</v>
       </c>
       <c r="D17">
-        <v>-3.4597156221436234</v>
+        <v>-2.1750693920535573</v>
       </c>
       <c r="E17">
-        <v>-3.4579999917043063</v>
+        <v>-2.150261254642393</v>
       </c>
       <c r="F17">
-        <v>-3.4626316309646303</v>
+        <v>-2.1142892066549477</v>
       </c>
       <c r="G17">
-        <v>-3.4605519622591987</v>
+        <v>-2.0381606629268076</v>
       </c>
       <c r="H17">
-        <v>-3.4318719712242522</v>
+        <v>-1.9366855827693896</v>
       </c>
       <c r="I17">
-        <v>-3.462339956347841</v>
+        <v>-1.8298307113205354</v>
       </c>
       <c r="J17">
-        <v>-3.278933381848025</v>
+        <v>-1.71321957613498</v>
       </c>
       <c r="K17">
-        <v>-3.3604816419786308</v>
+        <v>-1.411652934877193</v>
       </c>
       <c r="L17">
-        <v>-3.2341892841755975</v>
+        <v>-1.246040481942386</v>
       </c>
       <c r="M17">
-        <v>-3.0843894426027507</v>
+        <v>-1.4497252958718823</v>
       </c>
       <c r="N17">
-        <v>-2.4503624157634514</v>
+        <v>-1.7437018340601003</v>
       </c>
       <c r="O17">
-        <v>-2.1526507903505196</v>
+        <v>-1.766359354740314</v>
       </c>
       <c r="P17">
-        <v>-0.1734428223828824</v>
+        <v>-1.492818010100055</v>
       </c>
       <c r="Q17">
-        <v>-0.7244983019276912</v>
+        <v>-1.159598732674915</v>
       </c>
     </row>
   </sheetData>
